--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="230">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -527,9 +527,6 @@
     <t>19967--4661</t>
   </si>
   <si>
-    <t>20048--</t>
-  </si>
-  <si>
     <t>19972--10635</t>
   </si>
   <si>
@@ -626,12 +623,6 @@
     <t>T-8</t>
   </si>
   <si>
-    <t>20052--</t>
-  </si>
-  <si>
-    <t>20069--</t>
-  </si>
-  <si>
     <t>20079--</t>
   </si>
   <si>
@@ -657,6 +648,75 @@
   </si>
   <si>
     <t>20033--3207</t>
+  </si>
+  <si>
+    <t>CANELES  140</t>
+  </si>
+  <si>
+    <t>PORCICOLA SAN BERNARDO  249-1</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA EL TOPETE  230</t>
+  </si>
+  <si>
+    <t>CANALES  30</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LA CHEMITA 250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCICOLA SAN BERNARDO  </t>
+  </si>
+  <si>
+    <t>T-13</t>
+  </si>
+  <si>
+    <t>20091--</t>
+  </si>
+  <si>
+    <t>20104--</t>
+  </si>
+  <si>
+    <t>20116--</t>
+  </si>
+  <si>
+    <t>20122--</t>
+  </si>
+  <si>
+    <t>XXXXX</t>
+  </si>
+  <si>
+    <t>T-15</t>
+  </si>
+  <si>
+    <t>20048--3211</t>
+  </si>
+  <si>
+    <t>20048--10680</t>
+  </si>
+  <si>
+    <t>Transferecnia B</t>
+  </si>
+  <si>
+    <t>20052--3216</t>
+  </si>
+  <si>
+    <t>20052--10688</t>
+  </si>
+  <si>
+    <t>20069--3218</t>
+  </si>
+  <si>
+    <t>20069--8688</t>
+  </si>
+  <si>
+    <t>T-12</t>
+  </si>
+  <si>
+    <t>T-11</t>
+  </si>
+  <si>
+    <t>XXXX</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +2028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="495">
+  <cellXfs count="498">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3051,9 +3111,6 @@
     <xf numFmtId="166" fontId="26" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3170,153 +3227,165 @@
     <xf numFmtId="4" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="48" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="15" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3646,18 +3715,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="469" t="s">
+      <c r="A1" s="450" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
-      <c r="E1" s="469"/>
-      <c r="F1" s="469"/>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="450"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3671,22 +3740,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="470" t="s">
+      <c r="W1" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="471"/>
+      <c r="X1" s="452"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="469"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
+      <c r="A2" s="450"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3740,10 +3809,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="472" t="s">
+      <c r="O3" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="473"/>
+      <c r="P3" s="454"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4287,7 +4356,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="474" t="s">
+      <c r="C12" s="455" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4351,7 +4420,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="475"/>
+      <c r="C13" s="456"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -4585,10 +4654,10 @@
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V16" s="431">
+      <c r="U16" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V16" s="430">
         <v>5104</v>
       </c>
       <c r="W16" s="53" t="s">
@@ -4649,10 +4718,10 @@
       </c>
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V17" s="431">
+      <c r="U17" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V17" s="430">
         <v>0</v>
       </c>
       <c r="W17" s="53" t="s">
@@ -4713,10 +4782,10 @@
       </c>
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
-      <c r="U18" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V18" s="431">
+      <c r="U18" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V18" s="430">
         <v>5104</v>
       </c>
       <c r="W18" s="53" t="s">
@@ -4763,10 +4832,10 @@
         <f t="shared" si="1"/>
         <v>790920</v>
       </c>
-      <c r="O19" s="417" t="s">
+      <c r="O19" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="P19" s="419">
+      <c r="P19" s="418">
         <v>44595</v>
       </c>
       <c r="Q19" s="79">
@@ -4777,10 +4846,10 @@
       </c>
       <c r="S19" s="51"/>
       <c r="T19" s="52"/>
-      <c r="U19" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V19" s="431">
+      <c r="U19" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V19" s="430">
         <v>5104</v>
       </c>
       <c r="W19" s="53" t="s">
@@ -4827,10 +4896,10 @@
         <f t="shared" si="1"/>
         <v>206820</v>
       </c>
-      <c r="O20" s="417" t="s">
+      <c r="O20" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="419">
+      <c r="P20" s="418">
         <v>44595</v>
       </c>
       <c r="Q20" s="79">
@@ -4841,10 +4910,10 @@
       </c>
       <c r="S20" s="51"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V20" s="431">
+      <c r="U20" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V20" s="430">
         <v>0</v>
       </c>
       <c r="W20" s="53" t="s">
@@ -4891,10 +4960,10 @@
         <f t="shared" si="1"/>
         <v>804600</v>
       </c>
-      <c r="O21" s="418" t="s">
+      <c r="O21" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="419">
+      <c r="P21" s="418">
         <v>44596</v>
       </c>
       <c r="Q21" s="79">
@@ -4905,10 +4974,10 @@
       </c>
       <c r="S21" s="51"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V21" s="431">
+      <c r="U21" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V21" s="430">
         <v>5104</v>
       </c>
       <c r="W21" s="53" t="s">
@@ -4955,10 +5024,10 @@
         <f t="shared" si="1"/>
         <v>195120</v>
       </c>
-      <c r="O22" s="418" t="s">
+      <c r="O22" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="419">
+      <c r="P22" s="418">
         <v>44596</v>
       </c>
       <c r="Q22" s="79">
@@ -4969,10 +5038,10 @@
       </c>
       <c r="S22" s="51"/>
       <c r="T22" s="52"/>
-      <c r="U22" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V22" s="431">
+      <c r="U22" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V22" s="430">
         <v>0</v>
       </c>
       <c r="W22" s="53" t="s">
@@ -5019,10 +5088,10 @@
         <f t="shared" si="1"/>
         <v>822240</v>
       </c>
-      <c r="O23" s="418" t="s">
+      <c r="O23" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="419">
+      <c r="P23" s="418">
         <v>44600</v>
       </c>
       <c r="Q23" s="79">
@@ -5033,10 +5102,10 @@
       </c>
       <c r="S23" s="51"/>
       <c r="T23" s="52"/>
-      <c r="U23" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V23" s="431">
+      <c r="U23" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="430">
         <v>5104</v>
       </c>
       <c r="W23" s="53" t="s">
@@ -5083,10 +5152,10 @@
         <f t="shared" si="1"/>
         <v>195480</v>
       </c>
-      <c r="O24" s="417" t="s">
+      <c r="O24" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="419">
+      <c r="P24" s="418">
         <v>44600</v>
       </c>
       <c r="Q24" s="79">
@@ -5097,10 +5166,10 @@
       </c>
       <c r="S24" s="85"/>
       <c r="T24" s="86"/>
-      <c r="U24" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V24" s="431">
+      <c r="U24" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V24" s="430">
         <v>0</v>
       </c>
       <c r="W24" s="53" t="s">
@@ -5148,10 +5217,10 @@
         <f t="shared" si="1"/>
         <v>781711.55999999994</v>
       </c>
-      <c r="O25" s="418" t="s">
+      <c r="O25" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="419">
+      <c r="P25" s="418">
         <v>44600</v>
       </c>
       <c r="Q25" s="79">
@@ -5162,10 +5231,10 @@
       </c>
       <c r="S25" s="51"/>
       <c r="T25" s="52"/>
-      <c r="U25" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V25" s="431">
+      <c r="U25" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V25" s="430">
         <v>5104</v>
       </c>
       <c r="W25" s="53" t="s">
@@ -5212,10 +5281,10 @@
         <f t="shared" si="1"/>
         <v>806382.5</v>
       </c>
-      <c r="O26" s="418" t="s">
+      <c r="O26" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="419">
+      <c r="P26" s="418">
         <v>44602</v>
       </c>
       <c r="Q26" s="79">
@@ -5226,10 +5295,10 @@
       </c>
       <c r="S26" s="51"/>
       <c r="T26" s="52"/>
-      <c r="U26" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V26" s="431">
+      <c r="U26" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V26" s="430">
         <v>5104</v>
       </c>
       <c r="W26" s="53" t="s">
@@ -5276,10 +5345,10 @@
         <f t="shared" si="1"/>
         <v>813400</v>
       </c>
-      <c r="O27" s="418" t="s">
+      <c r="O27" s="417" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="419">
+      <c r="P27" s="418">
         <v>44603</v>
       </c>
       <c r="Q27" s="79">
@@ -5290,10 +5359,10 @@
       </c>
       <c r="S27" s="91"/>
       <c r="T27" s="92"/>
-      <c r="U27" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V27" s="431">
+      <c r="U27" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V27" s="430">
         <v>5104</v>
       </c>
       <c r="W27" s="53" t="s">
@@ -5340,10 +5409,10 @@
         <f t="shared" si="1"/>
         <v>194425</v>
       </c>
-      <c r="O28" s="418" t="s">
+      <c r="O28" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P28" s="419">
+      <c r="P28" s="418">
         <v>44603</v>
       </c>
       <c r="Q28" s="66">
@@ -5354,10 +5423,10 @@
       </c>
       <c r="S28" s="91"/>
       <c r="T28" s="92"/>
-      <c r="U28" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V28" s="431">
+      <c r="U28" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V28" s="430">
         <v>0</v>
       </c>
       <c r="W28" s="53" t="s">
@@ -5385,7 +5454,7 @@
       <c r="G29" s="62">
         <v>44591</v>
       </c>
-      <c r="H29" s="422" t="s">
+      <c r="H29" s="421" t="s">
         <v>139</v>
       </c>
       <c r="I29" s="64">
@@ -5404,24 +5473,24 @@
         <f t="shared" si="1"/>
         <v>763700</v>
       </c>
-      <c r="O29" s="418" t="s">
+      <c r="O29" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P29" s="419">
+      <c r="P29" s="418">
         <v>44606</v>
       </c>
-      <c r="Q29" s="420">
+      <c r="Q29" s="419">
         <v>25140</v>
       </c>
-      <c r="R29" s="421">
+      <c r="R29" s="420">
         <v>44596</v>
       </c>
       <c r="S29" s="91"/>
       <c r="T29" s="92"/>
-      <c r="U29" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V29" s="431">
+      <c r="U29" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V29" s="430">
         <v>5104</v>
       </c>
       <c r="W29" s="53" t="s">
@@ -5449,7 +5518,7 @@
       <c r="G30" s="62">
         <v>44591</v>
       </c>
-      <c r="H30" s="422" t="s">
+      <c r="H30" s="421" t="s">
         <v>140</v>
       </c>
       <c r="I30" s="64">
@@ -5468,24 +5537,24 @@
         <f t="shared" si="1"/>
         <v>190225</v>
       </c>
-      <c r="O30" s="418" t="s">
+      <c r="O30" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="419">
+      <c r="P30" s="418">
         <v>44606</v>
       </c>
-      <c r="Q30" s="420">
-        <v>0</v>
-      </c>
-      <c r="R30" s="421">
+      <c r="Q30" s="419">
+        <v>0</v>
+      </c>
+      <c r="R30" s="420">
         <v>44596</v>
       </c>
       <c r="S30" s="91"/>
       <c r="T30" s="92"/>
-      <c r="U30" s="430" t="s">
-        <v>175</v>
-      </c>
-      <c r="V30" s="431">
+      <c r="U30" s="429" t="s">
+        <v>174</v>
+      </c>
+      <c r="V30" s="430">
         <v>0</v>
       </c>
       <c r="W30" s="53" t="s">
@@ -6320,7 +6389,7 @@
       <c r="G55" s="152">
         <v>44564</v>
       </c>
-      <c r="H55" s="424">
+      <c r="H55" s="423">
         <v>767</v>
       </c>
       <c r="I55" s="151">
@@ -6353,13 +6422,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="453" t="s">
+      <c r="A56" s="467" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="455" t="s">
+      <c r="C56" s="469" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6370,7 +6439,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="457">
+      <c r="H56" s="461">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6389,8 +6458,8 @@
         <f t="shared" si="1"/>
         <v>93311.400000000009</v>
       </c>
-      <c r="O56" s="408"/>
-      <c r="P56" s="409"/>
+      <c r="O56" s="407"/>
+      <c r="P56" s="408"/>
       <c r="Q56" s="128"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -6399,11 +6468,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="454"/>
+      <c r="A57" s="468"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="456"/>
+      <c r="C57" s="470"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6412,7 +6481,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="458"/>
+      <c r="H57" s="462"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6429,8 +6498,8 @@
         <f t="shared" si="1"/>
         <v>32538</v>
       </c>
-      <c r="O57" s="408"/>
-      <c r="P57" s="409"/>
+      <c r="O57" s="407"/>
+      <c r="P57" s="408"/>
       <c r="Q57" s="128"/>
       <c r="R57" s="158"/>
       <c r="S57" s="92"/>
@@ -6439,13 +6508,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="453" t="s">
+      <c r="A58" s="467" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="455" t="s">
+      <c r="C58" s="469" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6456,7 +6525,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="457">
+      <c r="H58" s="461">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6475,10 +6544,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="459" t="s">
+      <c r="O58" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="480">
+      <c r="P58" s="465">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6489,11 +6558,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="454"/>
+      <c r="A59" s="468"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="456"/>
+      <c r="C59" s="470"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6502,7 +6571,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="458"/>
+      <c r="H59" s="462"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6519,8 +6588,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="460"/>
-      <c r="P59" s="481"/>
+      <c r="O59" s="464"/>
+      <c r="P59" s="466"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6529,13 +6598,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="478" t="s">
+      <c r="A60" s="459" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="476" t="s">
+      <c r="C60" s="457" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6549,7 +6618,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="457">
+      <c r="H60" s="461">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6568,10 +6637,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="459" t="s">
+      <c r="O60" s="463" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="480">
+      <c r="P60" s="465">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6584,11 +6653,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="479"/>
+      <c r="A61" s="460"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="477"/>
+      <c r="C61" s="458"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6600,7 +6669,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="458"/>
+      <c r="H61" s="462"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6617,8 +6686,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="460"/>
-      <c r="P61" s="481"/>
+      <c r="O61" s="464"/>
+      <c r="P61" s="466"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6627,13 +6696,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="425" t="s">
+      <c r="A62" s="424" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="423" t="s">
+      <c r="C62" s="422" t="s">
         <v>130</v>
       </c>
       <c r="D62" s="165"/>
@@ -6647,7 +6716,7 @@
       <c r="G62" s="152">
         <v>44592</v>
       </c>
-      <c r="H62" s="427">
+      <c r="H62" s="426">
         <v>808</v>
       </c>
       <c r="I62" s="151">
@@ -6666,10 +6735,10 @@
         <f t="shared" si="1"/>
         <v>142420.20000000001</v>
       </c>
-      <c r="O62" s="428" t="s">
+      <c r="O62" s="427" t="s">
         <v>59</v>
       </c>
-      <c r="P62" s="429">
+      <c r="P62" s="428">
         <v>44606</v>
       </c>
       <c r="Q62" s="164"/>
@@ -6680,11 +6749,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="426"/>
+      <c r="A63" s="425"/>
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="447"/>
+      <c r="C63" s="483"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6692,7 +6761,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="449"/>
+      <c r="H63" s="485"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6721,7 +6790,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="448"/>
+      <c r="C64" s="484"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6729,7 +6798,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="450"/>
+      <c r="H64" s="486"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6907,8 +6976,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="451"/>
-      <c r="P68" s="445"/>
+      <c r="O68" s="475"/>
+      <c r="P68" s="481"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -6942,8 +7011,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="452"/>
-      <c r="P69" s="446"/>
+      <c r="O69" s="476"/>
+      <c r="P69" s="482"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7132,10 +7201,10 @@
         <f t="shared" si="1"/>
         <v>13566</v>
       </c>
-      <c r="O73" s="415" t="s">
+      <c r="O73" s="414" t="s">
         <v>59</v>
       </c>
-      <c r="P73" s="416">
+      <c r="P73" s="415">
         <v>44595</v>
       </c>
       <c r="Q73" s="164"/>
@@ -7433,8 +7502,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="451"/>
-      <c r="P82" s="465"/>
+      <c r="O82" s="475"/>
+      <c r="P82" s="477"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7466,8 +7535,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="452"/>
-      <c r="P83" s="466"/>
+      <c r="O83" s="476"/>
+      <c r="P83" s="478"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7499,8 +7568,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="451"/>
-      <c r="P84" s="465"/>
+      <c r="O84" s="475"/>
+      <c r="P84" s="477"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7532,8 +7601,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="452"/>
-      <c r="P85" s="466"/>
+      <c r="O85" s="476"/>
+      <c r="P85" s="478"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7691,8 +7760,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="467"/>
-      <c r="M90" s="468"/>
+      <c r="L90" s="479"/>
+      <c r="M90" s="480"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7724,8 +7793,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="467"/>
-      <c r="M91" s="468"/>
+      <c r="L91" s="479"/>
+      <c r="M91" s="480"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7928,8 +7997,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="451"/>
-      <c r="P97" s="461"/>
+      <c r="O97" s="475"/>
+      <c r="P97" s="471"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -7961,8 +8030,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="452"/>
-      <c r="P98" s="462"/>
+      <c r="O98" s="476"/>
+      <c r="P98" s="472"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13354,11 +13423,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="463" t="s">
+      <c r="F262" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="463"/>
-      <c r="H262" s="464"/>
+      <c r="G262" s="473"/>
+      <c r="H262" s="474"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -13932,6 +14001,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -13945,22 +14030,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13974,11 +14043,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14007,49 +14076,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="469" t="s">
+      <c r="A1" s="450" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
-      <c r="E1" s="469"/>
-      <c r="F1" s="469"/>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="450"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="489" t="s">
+      <c r="S1" s="493" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="489"/>
+      <c r="T1" s="493"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="470" t="s">
+      <c r="W1" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="471"/>
+      <c r="X1" s="452"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="469"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
+      <c r="A2" s="450"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14057,8 +14126,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="490"/>
-      <c r="T2" s="490"/>
+      <c r="S2" s="494"/>
+      <c r="T2" s="494"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14103,10 +14172,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="472" t="s">
+      <c r="O3" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="473"/>
+      <c r="P3" s="454"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14136,7 +14205,7 @@
         <v>72</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" s="40"/>
@@ -14146,10 +14215,10 @@
       <c r="G4" s="42">
         <v>44594</v>
       </c>
-      <c r="H4" s="404" t="s">
+      <c r="H4" s="446" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="410">
+      <c r="I4" s="409">
         <v>22510</v>
       </c>
       <c r="J4" s="45">
@@ -14165,7 +14234,7 @@
         <f t="shared" ref="N4:N154" si="1">K4*I4</f>
         <v>776595</v>
       </c>
-      <c r="O4" s="405" t="s">
+      <c r="O4" s="404" t="s">
         <v>61</v>
       </c>
       <c r="P4" s="394">
@@ -14182,7 +14251,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
       <c r="W4" s="55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X4" s="56">
         <v>4176</v>
@@ -14196,7 +14265,7 @@
         <v>32</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="40"/>
@@ -14206,10 +14275,10 @@
       <c r="G5" s="62">
         <v>44594</v>
       </c>
-      <c r="H5" s="411" t="s">
+      <c r="H5" s="410" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="412">
+      <c r="I5" s="411">
         <v>5530</v>
       </c>
       <c r="J5" s="45">
@@ -14242,7 +14311,7 @@
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
       <c r="W5" s="68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X5" s="69">
         <v>0</v>
@@ -14256,7 +14325,7 @@
         <v>107</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="40"/>
@@ -14266,10 +14335,10 @@
       <c r="G6" s="62">
         <v>44595</v>
       </c>
-      <c r="H6" s="411">
+      <c r="H6" s="410">
         <v>36790</v>
       </c>
-      <c r="I6" s="412">
+      <c r="I6" s="411">
         <v>8750</v>
       </c>
       <c r="J6" s="45">
@@ -14316,7 +14385,7 @@
         <v>72</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="40"/>
@@ -14326,10 +14395,10 @@
       <c r="G7" s="62">
         <v>44596</v>
       </c>
-      <c r="H7" s="411" t="s">
+      <c r="H7" s="410" t="s">
         <v>132</v>
       </c>
-      <c r="I7" s="412">
+      <c r="I7" s="411">
         <v>22270</v>
       </c>
       <c r="J7" s="45">
@@ -14362,7 +14431,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
       <c r="W7" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X7" s="70">
         <v>4176</v>
@@ -14376,7 +14445,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="40"/>
@@ -14386,10 +14455,10 @@
       <c r="G8" s="62">
         <v>44596</v>
       </c>
-      <c r="H8" s="411" t="s">
+      <c r="H8" s="410" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="412">
+      <c r="I8" s="411">
         <v>5345</v>
       </c>
       <c r="J8" s="45">
@@ -14422,7 +14491,7 @@
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
       <c r="W8" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X8" s="70">
         <v>0</v>
@@ -14436,7 +14505,7 @@
         <v>72</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="60"/>
       <c r="E9" s="40"/>
@@ -14446,10 +14515,10 @@
       <c r="G9" s="62">
         <v>44598</v>
       </c>
-      <c r="H9" s="411" t="s">
+      <c r="H9" s="410" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="412">
+      <c r="I9" s="411">
         <v>20980</v>
       </c>
       <c r="J9" s="45">
@@ -14482,7 +14551,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
       <c r="W9" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X9" s="70">
         <v>4176</v>
@@ -14496,7 +14565,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="72"/>
       <c r="E10" s="40"/>
@@ -14506,10 +14575,10 @@
       <c r="G10" s="62">
         <v>44598</v>
       </c>
-      <c r="H10" s="411" t="s">
+      <c r="H10" s="410" t="s">
         <v>133</v>
       </c>
-      <c r="I10" s="412">
+      <c r="I10" s="411">
         <v>5750</v>
       </c>
       <c r="J10" s="45">
@@ -14542,7 +14611,7 @@
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
       <c r="W10" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X10" s="70">
         <v>0</v>
@@ -14556,7 +14625,7 @@
         <v>72</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="60"/>
       <c r="E11" s="40"/>
@@ -14566,10 +14635,10 @@
       <c r="G11" s="62">
         <v>44600</v>
       </c>
-      <c r="H11" s="411" t="s">
+      <c r="H11" s="410" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="412">
+      <c r="I11" s="411">
         <v>21290</v>
       </c>
       <c r="J11" s="45">
@@ -14602,7 +14671,7 @@
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
       <c r="W11" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X11" s="70">
         <v>4176</v>
@@ -14615,8 +14684,8 @@
       <c r="B12" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="432" t="s">
-        <v>180</v>
+      <c r="C12" s="431" t="s">
+        <v>179</v>
       </c>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
@@ -14626,10 +14695,10 @@
       <c r="G12" s="62">
         <v>44600</v>
       </c>
-      <c r="H12" s="411" t="s">
+      <c r="H12" s="410" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="412">
+      <c r="I12" s="411">
         <v>5805</v>
       </c>
       <c r="J12" s="45">
@@ -14662,7 +14731,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
       <c r="W12" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X12" s="70">
         <v>0</v>
@@ -14675,8 +14744,8 @@
       <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="433" t="s">
-        <v>181</v>
+      <c r="C13" s="432" t="s">
+        <v>180</v>
       </c>
       <c r="D13" s="60"/>
       <c r="E13" s="40"/>
@@ -14686,10 +14755,10 @@
       <c r="G13" s="62">
         <v>44602</v>
       </c>
-      <c r="H13" s="411" t="s">
+      <c r="H13" s="410" t="s">
         <v>164</v>
       </c>
-      <c r="I13" s="412">
+      <c r="I13" s="411">
         <v>22080</v>
       </c>
       <c r="J13" s="45">
@@ -14722,7 +14791,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
       <c r="W13" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X13" s="70">
         <v>4176</v>
@@ -14736,7 +14805,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="60"/>
       <c r="E14" s="40"/>
@@ -14746,10 +14815,10 @@
       <c r="G14" s="62">
         <v>44602</v>
       </c>
-      <c r="H14" s="411" t="s">
+      <c r="H14" s="410" t="s">
         <v>165</v>
       </c>
-      <c r="I14" s="412">
+      <c r="I14" s="411">
         <v>5485</v>
       </c>
       <c r="J14" s="45">
@@ -14782,7 +14851,7 @@
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X14" s="70">
         <v>0</v>
@@ -14796,7 +14865,7 @@
         <v>31</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D15" s="60"/>
       <c r="E15" s="40"/>
@@ -14806,10 +14875,10 @@
       <c r="G15" s="62">
         <v>44603</v>
       </c>
-      <c r="H15" s="411" t="s">
-        <v>167</v>
-      </c>
-      <c r="I15" s="412">
+      <c r="H15" s="410" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="411">
         <v>20920</v>
       </c>
       <c r="J15" s="45">
@@ -14842,7 +14911,7 @@
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
       <c r="W15" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X15" s="70">
         <v>4176</v>
@@ -14856,7 +14925,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D16" s="60"/>
       <c r="E16" s="40"/>
@@ -14866,10 +14935,10 @@
       <c r="G16" s="62">
         <v>44603</v>
       </c>
-      <c r="H16" s="411" t="s">
-        <v>168</v>
-      </c>
-      <c r="I16" s="412">
+      <c r="H16" s="410" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="411">
         <v>5310</v>
       </c>
       <c r="J16" s="45">
@@ -14902,7 +14971,7 @@
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
       <c r="W16" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X16" s="70">
         <v>0</v>
@@ -14916,7 +14985,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" s="60"/>
       <c r="E17" s="40"/>
@@ -14926,10 +14995,10 @@
       <c r="G17" s="62">
         <v>44605</v>
       </c>
-      <c r="H17" s="411" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="412">
+      <c r="H17" s="410" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="411">
         <v>21340</v>
       </c>
       <c r="J17" s="45">
@@ -14966,7 +15035,7 @@
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X17" s="70">
         <v>4176</v>
@@ -14980,7 +15049,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D18" s="60"/>
       <c r="E18" s="40"/>
@@ -14990,10 +15059,10 @@
       <c r="G18" s="62">
         <v>44607</v>
       </c>
-      <c r="H18" s="411" t="s">
-        <v>170</v>
-      </c>
-      <c r="I18" s="412">
+      <c r="H18" s="410" t="s">
+        <v>169</v>
+      </c>
+      <c r="I18" s="411">
         <v>20110</v>
       </c>
       <c r="J18" s="45">
@@ -15030,7 +15099,7 @@
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
       <c r="W18" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X18" s="70">
         <v>4176</v>
@@ -15044,7 +15113,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D19" s="60"/>
       <c r="E19" s="40"/>
@@ -15054,10 +15123,10 @@
       <c r="G19" s="62">
         <v>44607</v>
       </c>
-      <c r="H19" s="411" t="s">
-        <v>171</v>
-      </c>
-      <c r="I19" s="412">
+      <c r="H19" s="410" t="s">
+        <v>170</v>
+      </c>
+      <c r="I19" s="411">
         <v>5175</v>
       </c>
       <c r="J19" s="45">
@@ -15094,7 +15163,7 @@
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
       <c r="W19" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X19" s="70">
         <v>0</v>
@@ -15108,7 +15177,7 @@
         <v>127</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="60"/>
       <c r="E20" s="40"/>
@@ -15118,10 +15187,10 @@
       <c r="G20" s="62">
         <v>44609</v>
       </c>
-      <c r="H20" s="411" t="s">
+      <c r="H20" s="410" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="412">
+      <c r="I20" s="411">
         <v>21115</v>
       </c>
       <c r="J20" s="45">
@@ -15156,7 +15225,7 @@
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
       <c r="W20" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X20" s="70">
         <v>4176</v>
@@ -15170,7 +15239,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
@@ -15180,10 +15249,10 @@
       <c r="G21" s="62">
         <v>44609</v>
       </c>
-      <c r="H21" s="411" t="s">
+      <c r="H21" s="410" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="412">
+      <c r="I21" s="411">
         <v>5780</v>
       </c>
       <c r="J21" s="45">
@@ -15218,7 +15287,7 @@
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
       <c r="W21" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X21" s="70">
         <v>0</v>
@@ -15232,7 +15301,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
@@ -15242,10 +15311,10 @@
       <c r="G22" s="62">
         <v>44610</v>
       </c>
-      <c r="H22" s="411" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="412">
+      <c r="H22" s="410" t="s">
+        <v>201</v>
+      </c>
+      <c r="I22" s="411">
         <f>22560-112.8</f>
         <v>22447.200000000001</v>
       </c>
@@ -15262,10 +15331,10 @@
         <f t="shared" si="1"/>
         <v>735145.8</v>
       </c>
-      <c r="O22" s="418" t="s">
+      <c r="O22" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P22" s="419">
+      <c r="P22" s="418">
         <v>44623</v>
       </c>
       <c r="Q22" s="79">
@@ -15283,7 +15352,7 @@
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
       <c r="W22" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X22" s="70">
         <v>4176</v>
@@ -15297,7 +15366,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
@@ -15307,10 +15376,10 @@
       <c r="G23" s="62">
         <v>44610</v>
       </c>
-      <c r="H23" s="411" t="s">
-        <v>205</v>
-      </c>
-      <c r="I23" s="412">
+      <c r="H23" s="410" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="411">
         <v>5550</v>
       </c>
       <c r="J23" s="45">
@@ -15326,10 +15395,10 @@
         <f t="shared" si="1"/>
         <v>181762.5</v>
       </c>
-      <c r="O23" s="418" t="s">
+      <c r="O23" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P23" s="419">
+      <c r="P23" s="418">
         <v>44623</v>
       </c>
       <c r="Q23" s="79">
@@ -15347,7 +15416,7 @@
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X23" s="70">
         <v>0</v>
@@ -15361,7 +15430,7 @@
         <v>72</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
@@ -15371,10 +15440,10 @@
       <c r="G24" s="62">
         <v>44612</v>
       </c>
-      <c r="H24" s="411" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" s="412">
+      <c r="H24" s="410" t="s">
+        <v>203</v>
+      </c>
+      <c r="I24" s="411">
         <v>22250</v>
       </c>
       <c r="J24" s="45">
@@ -15390,10 +15459,10 @@
         <f t="shared" si="1"/>
         <v>728687.5</v>
       </c>
-      <c r="O24" s="417" t="s">
+      <c r="O24" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="P24" s="419">
+      <c r="P24" s="418">
         <v>44627</v>
       </c>
       <c r="Q24" s="79">
@@ -15406,12 +15475,12 @@
         <v>11200</v>
       </c>
       <c r="T24" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X24" s="70">
         <v>4176</v>
@@ -15425,7 +15494,7 @@
         <v>37</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D25" s="60"/>
       <c r="E25" s="40"/>
@@ -15435,10 +15504,10 @@
       <c r="G25" s="62">
         <v>44612</v>
       </c>
-      <c r="H25" s="411" t="s">
-        <v>207</v>
-      </c>
-      <c r="I25" s="412">
+      <c r="H25" s="410" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="411">
         <v>5400</v>
       </c>
       <c r="J25" s="45">
@@ -15454,10 +15523,10 @@
         <f t="shared" si="1"/>
         <v>176850</v>
       </c>
-      <c r="O25" s="418" t="s">
+      <c r="O25" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P25" s="419">
+      <c r="P25" s="418">
         <v>44627</v>
       </c>
       <c r="Q25" s="79">
@@ -15470,12 +15539,12 @@
         <v>0</v>
       </c>
       <c r="T25" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
       <c r="W25" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X25" s="70">
         <v>0</v>
@@ -15489,7 +15558,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D26" s="60"/>
       <c r="E26" s="40"/>
@@ -15499,10 +15568,10 @@
       <c r="G26" s="62">
         <v>44615</v>
       </c>
-      <c r="H26" s="411" t="s">
-        <v>208</v>
-      </c>
-      <c r="I26" s="412">
+      <c r="H26" s="410" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" s="411">
         <f>21065-105.33</f>
         <v>20959.669999999998</v>
       </c>
@@ -15519,10 +15588,10 @@
         <f t="shared" si="1"/>
         <v>670709.43999999994</v>
       </c>
-      <c r="O26" s="418" t="s">
+      <c r="O26" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="419">
+      <c r="P26" s="418">
         <v>44629</v>
       </c>
       <c r="Q26" s="79">
@@ -15535,12 +15604,12 @@
         <v>11200</v>
       </c>
       <c r="T26" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
       <c r="W26" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X26" s="70">
         <v>4176</v>
@@ -15554,7 +15623,7 @@
         <v>32</v>
       </c>
       <c r="C27" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D27" s="60"/>
       <c r="E27" s="40"/>
@@ -15564,10 +15633,10 @@
       <c r="G27" s="62">
         <v>44615</v>
       </c>
-      <c r="H27" s="411" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" s="412">
+      <c r="H27" s="410" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" s="411">
         <v>5485</v>
       </c>
       <c r="J27" s="45">
@@ -15583,10 +15652,10 @@
         <f t="shared" si="1"/>
         <v>175520</v>
       </c>
-      <c r="O27" s="418" t="s">
+      <c r="O27" s="417" t="s">
         <v>61</v>
       </c>
-      <c r="P27" s="419">
+      <c r="P27" s="418">
         <v>44629</v>
       </c>
       <c r="Q27" s="79">
@@ -15599,18 +15668,18 @@
         <v>0</v>
       </c>
       <c r="T27" s="92" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
       <c r="W27" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X27" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="82" t="s">
         <v>148</v>
       </c>
@@ -15618,7 +15687,7 @@
         <v>72</v>
       </c>
       <c r="C28" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D28" s="60"/>
       <c r="E28" s="40"/>
@@ -15628,10 +15697,10 @@
       <c r="G28" s="62">
         <v>44617</v>
       </c>
-      <c r="H28" s="411" t="s">
-        <v>166</v>
-      </c>
-      <c r="I28" s="412">
+      <c r="H28" s="410" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" s="411">
         <v>21600</v>
       </c>
       <c r="J28" s="45">
@@ -15647,8 +15716,12 @@
         <f t="shared" si="1"/>
         <v>702000</v>
       </c>
-      <c r="O28" s="418"/>
-      <c r="P28" s="419"/>
+      <c r="O28" s="417" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="418">
+        <v>44631</v>
+      </c>
       <c r="Q28" s="66">
         <v>25140</v>
       </c>
@@ -15664,7 +15737,7 @@
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
       <c r="W28" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X28" s="70">
         <v>4176</v>
@@ -15678,7 +15751,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D29" s="60"/>
       <c r="E29" s="40"/>
@@ -15688,10 +15761,10 @@
       <c r="G29" s="62">
         <v>44617</v>
       </c>
-      <c r="H29" s="411" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="412">
+      <c r="H29" s="410" t="s">
+        <v>220</v>
+      </c>
+      <c r="I29" s="411">
         <v>5455</v>
       </c>
       <c r="J29" s="45">
@@ -15707,8 +15780,12 @@
         <f t="shared" si="1"/>
         <v>177287.5</v>
       </c>
-      <c r="O29" s="418"/>
-      <c r="P29" s="419"/>
+      <c r="O29" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="418">
+        <v>44631</v>
+      </c>
       <c r="Q29" s="94">
         <v>0</v>
       </c>
@@ -15724,13 +15801,13 @@
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
       <c r="W29" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X29" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>69</v>
       </c>
@@ -15746,10 +15823,10 @@
       <c r="G30" s="62">
         <v>44619</v>
       </c>
-      <c r="H30" s="411" t="s">
-        <v>199</v>
-      </c>
-      <c r="I30" s="412">
+      <c r="H30" s="410" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30" s="411">
         <v>21935</v>
       </c>
       <c r="J30" s="45">
@@ -15765,24 +15842,28 @@
         <f t="shared" si="1"/>
         <v>712887.5</v>
       </c>
-      <c r="O30" s="418"/>
-      <c r="P30" s="419"/>
-      <c r="Q30" s="493">
+      <c r="O30" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" s="418">
+        <v>44634</v>
+      </c>
+      <c r="Q30" s="444">
         <v>25140</v>
       </c>
-      <c r="R30" s="494">
+      <c r="R30" s="445">
         <v>44627</v>
       </c>
       <c r="S30" s="91">
         <v>11200</v>
       </c>
       <c r="T30" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
       <c r="W30" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X30" s="70">
         <v>4176</v>
@@ -15805,7 +15886,7 @@
         <v>44619</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="I31" s="64">
         <v>5470</v>
@@ -15823,24 +15904,28 @@
         <f t="shared" si="1"/>
         <v>177775</v>
       </c>
-      <c r="O31" s="418"/>
-      <c r="P31" s="419"/>
-      <c r="Q31" s="493">
-        <v>0</v>
-      </c>
-      <c r="R31" s="494">
+      <c r="O31" s="417" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="418">
+        <v>44634</v>
+      </c>
+      <c r="Q31" s="444">
+        <v>0</v>
+      </c>
+      <c r="R31" s="445">
         <v>44627</v>
       </c>
       <c r="S31" s="91">
         <v>0</v>
       </c>
       <c r="T31" s="92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
       <c r="W31" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X31" s="70">
         <v>0</v>
@@ -16612,13 +16697,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="491" t="s">
+      <c r="A55" s="495" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="455" t="s">
+      <c r="C55" s="469" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -16629,7 +16714,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="449" t="s">
+      <c r="H55" s="485" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -16658,11 +16743,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="492"/>
+      <c r="A56" s="496"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="456"/>
+      <c r="C56" s="470"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16671,7 +16756,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="450"/>
+      <c r="H56" s="486"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16700,13 +16785,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="483" t="s">
+      <c r="A57" s="487" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="485" t="s">
+      <c r="C57" s="489" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -16717,7 +16802,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="449" t="s">
+      <c r="H57" s="485" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -16736,10 +16821,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="451" t="s">
+      <c r="O57" s="475" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="445">
+      <c r="P57" s="481">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16750,11 +16835,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="484"/>
+      <c r="A58" s="488"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="486"/>
+      <c r="C58" s="490"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16763,7 +16848,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="450"/>
+      <c r="H58" s="486"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16780,8 +16865,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="487"/>
-      <c r="P58" s="488"/>
+      <c r="O58" s="491"/>
+      <c r="P58" s="492"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16790,16 +16875,16 @@
       <c r="V58" s="54"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="482"/>
+      <c r="A59" s="497"/>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="447"/>
+      <c r="C59" s="483"/>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
-      <c r="H59" s="449"/>
+      <c r="H59" s="485"/>
       <c r="I59" s="151"/>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
@@ -16824,16 +16909,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="479"/>
+      <c r="A60" s="460"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="448"/>
+      <c r="C60" s="484"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="450"/>
+      <c r="H60" s="486"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -16856,7 +16941,7 @@
       <c r="V60" s="54"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="413"/>
+      <c r="A61" s="412"/>
       <c r="B61" s="170"/>
       <c r="C61" s="171"/>
       <c r="D61" s="168"/>
@@ -16877,7 +16962,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="172"/>
-      <c r="P61" s="406"/>
+      <c r="P61" s="405"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -16986,7 +17071,7 @@
       <c r="V63" s="54"/>
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="414" t="s">
+      <c r="A64" s="413" t="s">
         <v>106</v>
       </c>
       <c r="B64" s="382" t="s">
@@ -17056,8 +17141,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O65" s="451"/>
-      <c r="P65" s="445"/>
+      <c r="O65" s="475"/>
+      <c r="P65" s="481"/>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -17086,8 +17171,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="452"/>
-      <c r="P66" s="446"/>
+      <c r="O66" s="476"/>
+      <c r="P66" s="482"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -17267,7 +17352,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="187"/>
-      <c r="P72" s="407"/>
+      <c r="P72" s="406"/>
       <c r="Q72" s="164"/>
       <c r="R72" s="129"/>
       <c r="S72" s="180"/>
@@ -17476,8 +17561,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="451"/>
-      <c r="P79" s="465"/>
+      <c r="O79" s="475"/>
+      <c r="P79" s="477"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17506,8 +17591,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="452"/>
-      <c r="P80" s="466"/>
+      <c r="O80" s="476"/>
+      <c r="P80" s="478"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17536,8 +17621,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="451"/>
-      <c r="P81" s="465"/>
+      <c r="O81" s="475"/>
+      <c r="P81" s="477"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17569,8 +17654,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="452"/>
-      <c r="P82" s="466"/>
+      <c r="O82" s="476"/>
+      <c r="P82" s="478"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17688,7 +17773,7 @@
       </c>
       <c r="F86" s="64"/>
       <c r="G86" s="117"/>
-      <c r="H86" s="198"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="64"/>
       <c r="J86" s="45">
         <f t="shared" si="0"/>
@@ -17721,15 +17806,15 @@
       </c>
       <c r="F87" s="64"/>
       <c r="G87" s="117"/>
-      <c r="H87" s="198"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="64"/>
       <c r="J87" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="467"/>
-      <c r="M87" s="468"/>
+      <c r="L87" s="479"/>
+      <c r="M87" s="480"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17754,15 +17839,15 @@
       </c>
       <c r="F88" s="64"/>
       <c r="G88" s="117"/>
-      <c r="H88" s="198"/>
+      <c r="H88" s="63"/>
       <c r="I88" s="64"/>
       <c r="J88" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="467"/>
-      <c r="M88" s="468"/>
+      <c r="L88" s="479"/>
+      <c r="M88" s="480"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17787,7 +17872,7 @@
       </c>
       <c r="F89" s="64"/>
       <c r="G89" s="117"/>
-      <c r="H89" s="198"/>
+      <c r="H89" s="63"/>
       <c r="I89" s="64"/>
       <c r="J89" s="45">
         <f t="shared" si="0"/>
@@ -17820,7 +17905,7 @@
       </c>
       <c r="F90" s="64"/>
       <c r="G90" s="117"/>
-      <c r="H90" s="198"/>
+      <c r="H90" s="63"/>
       <c r="I90" s="64"/>
       <c r="J90" s="45">
         <f t="shared" si="0"/>
@@ -17853,7 +17938,7 @@
       </c>
       <c r="F91" s="64"/>
       <c r="G91" s="117"/>
-      <c r="H91" s="198"/>
+      <c r="H91" s="63"/>
       <c r="I91" s="64"/>
       <c r="J91" s="45">
         <f t="shared" si="0"/>
@@ -17886,7 +17971,7 @@
       </c>
       <c r="F92" s="64"/>
       <c r="G92" s="117"/>
-      <c r="H92" s="198"/>
+      <c r="H92" s="63"/>
       <c r="I92" s="64"/>
       <c r="J92" s="45">
         <f t="shared" si="0"/>
@@ -17919,7 +18004,7 @@
       </c>
       <c r="F93" s="64"/>
       <c r="G93" s="117"/>
-      <c r="H93" s="198"/>
+      <c r="H93" s="63"/>
       <c r="I93" s="64"/>
       <c r="J93" s="45">
         <f t="shared" si="0"/>
@@ -17952,7 +18037,7 @@
       </c>
       <c r="F94" s="64"/>
       <c r="G94" s="117"/>
-      <c r="H94" s="198"/>
+      <c r="H94" s="63"/>
       <c r="I94" s="64"/>
       <c r="J94" s="45">
         <f t="shared" si="0"/>
@@ -17965,8 +18050,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="451"/>
-      <c r="P94" s="461"/>
+      <c r="O94" s="475"/>
+      <c r="P94" s="471"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -17985,7 +18070,7 @@
       </c>
       <c r="F95" s="64"/>
       <c r="G95" s="117"/>
-      <c r="H95" s="198"/>
+      <c r="H95" s="63"/>
       <c r="I95" s="64"/>
       <c r="J95" s="45">
         <f t="shared" si="0"/>
@@ -17998,8 +18083,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="452"/>
-      <c r="P95" s="462"/>
+      <c r="O95" s="476"/>
+      <c r="P95" s="472"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -18018,7 +18103,7 @@
       </c>
       <c r="F96" s="64"/>
       <c r="G96" s="117"/>
-      <c r="H96" s="198"/>
+      <c r="H96" s="63"/>
       <c r="I96" s="64"/>
       <c r="J96" s="45">
         <f t="shared" si="0"/>
@@ -18051,7 +18136,7 @@
       </c>
       <c r="F97" s="64"/>
       <c r="G97" s="117"/>
-      <c r="H97" s="198"/>
+      <c r="H97" s="63"/>
       <c r="I97" s="64"/>
       <c r="J97" s="45">
         <f t="shared" si="0"/>
@@ -19008,7 +19093,7 @@
       </c>
       <c r="F126" s="64"/>
       <c r="G126" s="117"/>
-      <c r="H126" s="213"/>
+      <c r="H126" s="223"/>
       <c r="I126" s="64"/>
       <c r="J126" s="45">
         <f t="shared" si="0"/>
@@ -19041,7 +19126,7 @@
       </c>
       <c r="F127" s="64"/>
       <c r="G127" s="117"/>
-      <c r="H127" s="213"/>
+      <c r="H127" s="223"/>
       <c r="I127" s="64"/>
       <c r="J127" s="45">
         <f t="shared" si="0"/>
@@ -19074,7 +19159,7 @@
       </c>
       <c r="F128" s="64"/>
       <c r="G128" s="117"/>
-      <c r="H128" s="213"/>
+      <c r="H128" s="223"/>
       <c r="I128" s="64"/>
       <c r="J128" s="45">
         <f t="shared" si="0"/>
@@ -19107,7 +19192,7 @@
       </c>
       <c r="F129" s="64"/>
       <c r="G129" s="117"/>
-      <c r="H129" s="213"/>
+      <c r="H129" s="223"/>
       <c r="I129" s="64"/>
       <c r="J129" s="45">
         <f t="shared" si="0"/>
@@ -19140,7 +19225,7 @@
       </c>
       <c r="F130" s="64"/>
       <c r="G130" s="117"/>
-      <c r="H130" s="216"/>
+      <c r="H130" s="212"/>
       <c r="I130" s="64"/>
       <c r="J130" s="45">
         <f t="shared" si="0"/>
@@ -19173,7 +19258,7 @@
       </c>
       <c r="F131" s="64"/>
       <c r="G131" s="117"/>
-      <c r="H131" s="216"/>
+      <c r="H131" s="212"/>
       <c r="I131" s="64"/>
       <c r="J131" s="45">
         <f t="shared" si="0"/>
@@ -19206,7 +19291,7 @@
       </c>
       <c r="F132" s="64"/>
       <c r="G132" s="117"/>
-      <c r="H132" s="216"/>
+      <c r="H132" s="212"/>
       <c r="I132" s="64"/>
       <c r="J132" s="45">
         <f t="shared" si="0"/>
@@ -19239,7 +19324,7 @@
       </c>
       <c r="F133" s="64"/>
       <c r="G133" s="117"/>
-      <c r="H133" s="216"/>
+      <c r="H133" s="212"/>
       <c r="I133" s="64"/>
       <c r="J133" s="45">
         <f t="shared" si="0"/>
@@ -19272,7 +19357,7 @@
       </c>
       <c r="F134" s="64"/>
       <c r="G134" s="117"/>
-      <c r="H134" s="216"/>
+      <c r="H134" s="212"/>
       <c r="I134" s="64"/>
       <c r="J134" s="45">
         <f t="shared" si="0"/>
@@ -19305,7 +19390,7 @@
       </c>
       <c r="F135" s="64"/>
       <c r="G135" s="117"/>
-      <c r="H135" s="216"/>
+      <c r="H135" s="212"/>
       <c r="I135" s="64"/>
       <c r="J135" s="45">
         <f t="shared" si="0"/>
@@ -19338,7 +19423,7 @@
       </c>
       <c r="F136" s="64"/>
       <c r="G136" s="117"/>
-      <c r="H136" s="216"/>
+      <c r="H136" s="212"/>
       <c r="I136" s="64"/>
       <c r="J136" s="45">
         <f t="shared" si="0"/>
@@ -19371,7 +19456,7 @@
       </c>
       <c r="F137" s="64"/>
       <c r="G137" s="117"/>
-      <c r="H137" s="216"/>
+      <c r="H137" s="212"/>
       <c r="I137" s="64"/>
       <c r="J137" s="45">
         <f t="shared" si="0"/>
@@ -23391,11 +23476,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="463" t="s">
+      <c r="F259" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="463"/>
-      <c r="H259" s="464"/>
+      <c r="G259" s="473"/>
+      <c r="H259" s="474"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>385380.97210000001</v>
@@ -23715,7 +23800,7 @@
       <c r="E280" s="367"/>
       <c r="F280" s="368"/>
       <c r="G280" s="369"/>
-      <c r="H280" s="370"/>
+      <c r="H280" s="449"/>
       <c r="I280" s="371"/>
       <c r="J280"/>
       <c r="K280"/>
@@ -23735,7 +23820,7 @@
       <c r="E281" s="367"/>
       <c r="F281" s="368"/>
       <c r="G281" s="369"/>
-      <c r="H281" s="370"/>
+      <c r="H281" s="449"/>
       <c r="I281" s="371"/>
       <c r="J281"/>
       <c r="K281"/>
@@ -23755,7 +23840,7 @@
       <c r="E282" s="367"/>
       <c r="F282" s="368"/>
       <c r="G282" s="369"/>
-      <c r="H282" s="370"/>
+      <c r="H282" s="449"/>
       <c r="I282" s="371"/>
       <c r="J282"/>
       <c r="K282"/>
@@ -23775,7 +23860,7 @@
       <c r="E283" s="367"/>
       <c r="F283" s="368"/>
       <c r="G283" s="369"/>
-      <c r="H283" s="370"/>
+      <c r="H283" s="449"/>
       <c r="I283" s="371"/>
       <c r="J283"/>
       <c r="K283"/>
@@ -23795,7 +23880,7 @@
       <c r="E284" s="367"/>
       <c r="F284" s="368"/>
       <c r="G284" s="369"/>
-      <c r="H284" s="370"/>
+      <c r="H284" s="449"/>
       <c r="I284" s="371"/>
       <c r="J284"/>
       <c r="K284"/>
@@ -23815,7 +23900,7 @@
       <c r="E285" s="367"/>
       <c r="F285" s="368"/>
       <c r="G285" s="369"/>
-      <c r="H285" s="370"/>
+      <c r="H285" s="449"/>
       <c r="I285" s="371"/>
       <c r="J285"/>
       <c r="K285"/>
@@ -23835,7 +23920,7 @@
       <c r="E286" s="367"/>
       <c r="F286" s="368"/>
       <c r="G286" s="369"/>
-      <c r="H286" s="370"/>
+      <c r="H286" s="449"/>
       <c r="I286" s="371"/>
       <c r="J286"/>
       <c r="K286"/>
@@ -23855,7 +23940,7 @@
       <c r="E287" s="367"/>
       <c r="F287" s="368"/>
       <c r="G287" s="369"/>
-      <c r="H287" s="370"/>
+      <c r="H287" s="449"/>
       <c r="I287" s="371"/>
       <c r="J287"/>
       <c r="K287"/>
@@ -23875,7 +23960,7 @@
       <c r="E288" s="367"/>
       <c r="F288" s="368"/>
       <c r="G288" s="369"/>
-      <c r="H288" s="370"/>
+      <c r="H288" s="449"/>
       <c r="I288" s="371"/>
       <c r="J288"/>
       <c r="K288"/>
@@ -23895,7 +23980,7 @@
       <c r="E289" s="367"/>
       <c r="F289" s="368"/>
       <c r="G289" s="369"/>
-      <c r="H289" s="370"/>
+      <c r="H289" s="449"/>
       <c r="I289" s="371"/>
       <c r="J289"/>
       <c r="K289"/>
@@ -23915,7 +24000,7 @@
       <c r="E290" s="367"/>
       <c r="F290" s="368"/>
       <c r="G290" s="369"/>
-      <c r="H290" s="370"/>
+      <c r="H290" s="449"/>
       <c r="I290" s="371"/>
       <c r="J290"/>
       <c r="K290"/>
@@ -23935,7 +24020,7 @@
       <c r="E291" s="367"/>
       <c r="F291" s="368"/>
       <c r="G291" s="369"/>
-      <c r="H291" s="370"/>
+      <c r="H291" s="449"/>
       <c r="I291" s="371"/>
       <c r="J291"/>
       <c r="K291"/>
@@ -23955,7 +24040,7 @@
       <c r="E292" s="367"/>
       <c r="F292" s="368"/>
       <c r="G292" s="369"/>
-      <c r="H292" s="370"/>
+      <c r="H292" s="449"/>
       <c r="I292" s="371"/>
       <c r="J292"/>
       <c r="K292"/>
@@ -23969,12 +24054,14 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="O65:O66"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -23986,14 +24073,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24007,11 +24092,11 @@
   </sheetPr>
   <dimension ref="A1:X292"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24040,49 +24125,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="469" t="s">
-        <v>190</v>
-      </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
-      <c r="E1" s="469"/>
-      <c r="F1" s="469"/>
-      <c r="G1" s="469"/>
-      <c r="H1" s="469"/>
-      <c r="I1" s="469"/>
-      <c r="J1" s="469"/>
+      <c r="A1" s="450" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="450"/>
+      <c r="C1" s="450"/>
+      <c r="D1" s="450"/>
+      <c r="E1" s="450"/>
+      <c r="F1" s="450"/>
+      <c r="G1" s="450"/>
+      <c r="H1" s="450"/>
+      <c r="I1" s="450"/>
+      <c r="J1" s="450"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="489" t="s">
+      <c r="S1" s="493" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="489"/>
+      <c r="T1" s="493"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="470" t="s">
+      <c r="W1" s="451" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="471"/>
+      <c r="X1" s="452"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="469"/>
-      <c r="B2" s="469"/>
-      <c r="C2" s="469"/>
-      <c r="D2" s="469"/>
-      <c r="E2" s="469"/>
-      <c r="F2" s="469"/>
-      <c r="G2" s="469"/>
-      <c r="H2" s="469"/>
-      <c r="I2" s="469"/>
-      <c r="J2" s="469"/>
+      <c r="A2" s="450"/>
+      <c r="B2" s="450"/>
+      <c r="C2" s="450"/>
+      <c r="D2" s="450"/>
+      <c r="E2" s="450"/>
+      <c r="F2" s="450"/>
+      <c r="G2" s="450"/>
+      <c r="H2" s="450"/>
+      <c r="I2" s="450"/>
+      <c r="J2" s="450"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24090,8 +24175,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="490"/>
-      <c r="T2" s="490"/>
+      <c r="S2" s="494"/>
+      <c r="T2" s="494"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24136,10 +24221,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="472" t="s">
+      <c r="O3" s="453" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="473"/>
+      <c r="P3" s="454"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24163,10 +24248,10 @@
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>192</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="39"/>
@@ -24177,10 +24262,10 @@
       <c r="G4" s="42">
         <v>44621</v>
       </c>
-      <c r="H4" s="434" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="410">
+      <c r="H4" s="433" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="409">
         <v>24020</v>
       </c>
       <c r="J4" s="45">
@@ -24196,8 +24281,12 @@
         <f t="shared" ref="N4:N114" si="1">K4*I4</f>
         <v>780650</v>
       </c>
-      <c r="O4" s="435"/>
-      <c r="P4" s="394"/>
+      <c r="O4" s="434" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="394">
+        <v>44635</v>
+      </c>
       <c r="Q4" s="49">
         <v>25240</v>
       </c>
@@ -24208,7 +24297,7 @@
         <v>11200</v>
       </c>
       <c r="T4" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
@@ -24231,10 +24320,10 @@
       <c r="G5" s="62">
         <v>44621</v>
       </c>
-      <c r="H5" s="411" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" s="412">
+      <c r="H5" s="410" t="s">
+        <v>225</v>
+      </c>
+      <c r="I5" s="411">
         <v>5340</v>
       </c>
       <c r="J5" s="45">
@@ -24250,8 +24339,12 @@
         <f t="shared" si="1"/>
         <v>173550</v>
       </c>
-      <c r="O5" s="395"/>
-      <c r="P5" s="396"/>
+      <c r="O5" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="396">
+        <v>44635</v>
+      </c>
       <c r="Q5" s="66">
         <v>0</v>
       </c>
@@ -24262,7 +24355,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
@@ -24285,10 +24378,10 @@
       <c r="G6" s="62">
         <v>44623</v>
       </c>
-      <c r="H6" s="411" t="s">
-        <v>201</v>
-      </c>
-      <c r="I6" s="412">
+      <c r="H6" s="410" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="411">
         <v>22575</v>
       </c>
       <c r="J6" s="45">
@@ -24316,7 +24409,7 @@
         <v>11200</v>
       </c>
       <c r="T6" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
@@ -24339,10 +24432,10 @@
       <c r="G7" s="62">
         <v>44623</v>
       </c>
-      <c r="H7" s="411" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="412">
+      <c r="H7" s="410" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" s="411">
         <v>5615</v>
       </c>
       <c r="J7" s="45">
@@ -24370,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
@@ -24379,10 +24472,10 @@
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
@@ -24393,10 +24486,10 @@
       <c r="G8" s="62">
         <v>44624</v>
       </c>
-      <c r="H8" s="411" t="s">
-        <v>202</v>
-      </c>
-      <c r="I8" s="412">
+      <c r="H8" s="410" t="s">
+        <v>199</v>
+      </c>
+      <c r="I8" s="411">
         <v>21960</v>
       </c>
       <c r="J8" s="45">
@@ -24424,7 +24517,7 @@
         <v>11200</v>
       </c>
       <c r="T8" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
@@ -24447,10 +24540,10 @@
       <c r="G9" s="62">
         <v>44624</v>
       </c>
-      <c r="H9" s="411" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="412">
+      <c r="H9" s="410" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="411">
         <v>5270</v>
       </c>
       <c r="J9" s="45">
@@ -24478,7 +24571,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
@@ -24501,8 +24594,10 @@
       <c r="G10" s="62">
         <v>44626</v>
       </c>
-      <c r="H10" s="411"/>
-      <c r="I10" s="412">
+      <c r="H10" s="410" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" s="411">
         <v>22475</v>
       </c>
       <c r="J10" s="45">
@@ -24520,13 +24615,17 @@
       </c>
       <c r="O10" s="397"/>
       <c r="P10" s="398"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="67"/>
+      <c r="Q10" s="66">
+        <v>25140</v>
+      </c>
+      <c r="R10" s="67">
+        <v>44634</v>
+      </c>
       <c r="S10" s="51">
         <v>11200</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
@@ -24535,7 +24634,7 @@
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="58" t="s">
         <v>32</v>
@@ -24549,8 +24648,10 @@
       <c r="G11" s="62">
         <v>44626</v>
       </c>
-      <c r="H11" s="411"/>
-      <c r="I11" s="412">
+      <c r="H11" s="410" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" s="411">
         <v>5515</v>
       </c>
       <c r="J11" s="45">
@@ -24568,302 +24669,490 @@
       </c>
       <c r="O11" s="397"/>
       <c r="P11" s="398"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="67"/>
+      <c r="Q11" s="66">
+        <v>0</v>
+      </c>
+      <c r="R11" s="67">
+        <v>44634</v>
+      </c>
       <c r="S11" s="51">
         <v>0</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
       <c r="W11" s="53"/>
       <c r="X11" s="70"/>
     </row>
-    <row r="12" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="432"/>
+    <row r="12" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="448" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="431"/>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="411"/>
-      <c r="I12" s="412"/>
+      <c r="F12" s="61">
+        <v>12480</v>
+      </c>
+      <c r="G12" s="62">
+        <v>44628</v>
+      </c>
+      <c r="H12" s="447"/>
+      <c r="I12" s="411">
+        <v>12480</v>
+      </c>
       <c r="J12" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="46"/>
+      <c r="K12" s="46">
+        <v>43.8</v>
+      </c>
       <c r="L12" s="65"/>
       <c r="M12" s="65"/>
       <c r="N12" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>546624</v>
       </c>
       <c r="O12" s="397"/>
       <c r="P12" s="398"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
+      <c r="Q12" s="66">
+        <v>0</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="S12" s="51">
+        <v>0</v>
+      </c>
+      <c r="T12" s="52" t="s">
+        <v>229</v>
+      </c>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
       <c r="W12" s="53"/>
       <c r="X12" s="70"/>
     </row>
-    <row r="13" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="433"/>
+    <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="432"/>
       <c r="D13" s="60"/>
       <c r="E13" s="40"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="411"/>
-      <c r="I13" s="412"/>
+      <c r="F13" s="61">
+        <v>22550</v>
+      </c>
+      <c r="G13" s="62">
+        <v>44628</v>
+      </c>
+      <c r="H13" s="410" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="411">
+        <v>22675</v>
+      </c>
       <c r="J13" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="46"/>
+        <v>125</v>
+      </c>
+      <c r="K13" s="46">
+        <v>32</v>
+      </c>
       <c r="L13" s="65"/>
       <c r="M13" s="65"/>
       <c r="N13" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>725600</v>
       </c>
       <c r="O13" s="397"/>
       <c r="P13" s="398"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
+      <c r="Q13" s="66">
+        <v>24940</v>
+      </c>
+      <c r="R13" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S13" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T13" s="52" t="s">
+        <v>228</v>
+      </c>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
       <c r="W13" s="53"/>
       <c r="X13" s="70"/>
     </row>
     <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="411"/>
-      <c r="I14" s="412"/>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="62">
+        <v>44628</v>
+      </c>
+      <c r="H14" s="410" t="s">
+        <v>215</v>
+      </c>
+      <c r="I14" s="411">
+        <v>5600</v>
+      </c>
       <c r="J14" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46"/>
+        <v>5600</v>
+      </c>
+      <c r="K14" s="46">
+        <v>32</v>
+      </c>
       <c r="L14" s="65"/>
       <c r="M14" s="65"/>
       <c r="N14" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>179200</v>
       </c>
       <c r="O14" s="397"/>
       <c r="P14" s="398"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
+      <c r="Q14" s="66">
+        <v>0</v>
+      </c>
+      <c r="R14" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S14" s="51">
+        <v>0</v>
+      </c>
+      <c r="T14" s="52" t="s">
+        <v>228</v>
+      </c>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="53"/>
       <c r="X14" s="70"/>
     </row>
     <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="73"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
       <c r="E15" s="40"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="411"/>
-      <c r="I15" s="412"/>
+      <c r="F15" s="61">
+        <v>20460</v>
+      </c>
+      <c r="G15" s="62">
+        <v>44630</v>
+      </c>
+      <c r="H15" s="410" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="411">
+        <v>22670</v>
+      </c>
       <c r="J15" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="46"/>
+        <v>2210</v>
+      </c>
+      <c r="K15" s="46">
+        <v>32</v>
+      </c>
       <c r="L15" s="65"/>
       <c r="M15" s="65"/>
       <c r="N15" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>725440</v>
       </c>
       <c r="O15" s="397"/>
       <c r="P15" s="398"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="92"/>
+      <c r="Q15" s="66">
+        <v>23140</v>
+      </c>
+      <c r="R15" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S15" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T15" s="92" t="s">
+        <v>227</v>
+      </c>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
       <c r="W15" s="53"/>
       <c r="X15" s="70"/>
     </row>
-    <row r="16" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="58"/>
+    <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>210</v>
+      </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
       <c r="E16" s="40"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="411"/>
-      <c r="I16" s="412"/>
+      <c r="F16" s="61">
+        <v>0</v>
+      </c>
+      <c r="G16" s="62">
+        <v>44630</v>
+      </c>
+      <c r="H16" s="410" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="411">
+        <v>3295</v>
+      </c>
       <c r="J16" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="46"/>
+        <v>3295</v>
+      </c>
+      <c r="K16" s="46">
+        <v>32</v>
+      </c>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>105440</v>
       </c>
       <c r="O16" s="397"/>
       <c r="P16" s="398"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="92"/>
+      <c r="Q16" s="66">
+        <v>0</v>
+      </c>
+      <c r="R16" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S16" s="51">
+        <v>0</v>
+      </c>
+      <c r="T16" s="92" t="s">
+        <v>227</v>
+      </c>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
       <c r="W16" s="53"/>
       <c r="X16" s="70"/>
     </row>
-    <row r="17" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="75"/>
-      <c r="B17" s="58"/>
+    <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="75" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
       <c r="E17" s="40"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="411"/>
-      <c r="I17" s="412"/>
+      <c r="F17" s="61">
+        <v>23490</v>
+      </c>
+      <c r="G17" s="62">
+        <v>44631</v>
+      </c>
+      <c r="H17" s="410" t="s">
+        <v>217</v>
+      </c>
+      <c r="I17" s="411">
+        <v>23900</v>
+      </c>
       <c r="J17" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="76"/>
+        <v>410</v>
+      </c>
+      <c r="K17" s="76">
+        <v>32</v>
+      </c>
       <c r="L17" s="65"/>
       <c r="M17" s="65"/>
       <c r="N17" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>764800</v>
       </c>
       <c r="O17" s="397"/>
       <c r="P17" s="398"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="92"/>
+      <c r="Q17" s="66">
+        <v>25240</v>
+      </c>
+      <c r="R17" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S17" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T17" s="92" t="s">
+        <v>213</v>
+      </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="53"/>
       <c r="X17" s="70"/>
     </row>
-    <row r="18" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="78"/>
-      <c r="B18" s="58"/>
+    <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
       <c r="E18" s="40"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="411"/>
-      <c r="I18" s="412"/>
+      <c r="F18" s="61">
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <v>44631</v>
+      </c>
+      <c r="H18" s="410" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="411">
+        <v>5360</v>
+      </c>
       <c r="J18" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="76"/>
+        <v>5360</v>
+      </c>
+      <c r="K18" s="76">
+        <v>32</v>
+      </c>
       <c r="L18" s="65"/>
       <c r="M18" s="65"/>
       <c r="N18" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>171520</v>
       </c>
       <c r="O18" s="397"/>
       <c r="P18" s="398"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="92"/>
+      <c r="Q18" s="66">
+        <v>0</v>
+      </c>
+      <c r="R18" s="67">
+        <v>44634</v>
+      </c>
+      <c r="S18" s="51">
+        <v>0</v>
+      </c>
+      <c r="T18" s="92" t="s">
+        <v>213</v>
+      </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
       <c r="W18" s="53"/>
       <c r="X18" s="70"/>
     </row>
     <row r="19" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
       <c r="E19" s="40"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="411"/>
-      <c r="I19" s="412"/>
+      <c r="F19" s="61">
+        <v>21630</v>
+      </c>
+      <c r="G19" s="62">
+        <v>44633</v>
+      </c>
+      <c r="H19" s="410"/>
+      <c r="I19" s="411">
+        <v>21835</v>
+      </c>
       <c r="J19" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="76"/>
+        <v>205</v>
+      </c>
+      <c r="K19" s="76">
+        <v>32.5</v>
+      </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
       <c r="N19" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>709637.5</v>
       </c>
       <c r="O19" s="397"/>
       <c r="P19" s="398"/>
       <c r="Q19" s="79"/>
       <c r="R19" s="67"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="92"/>
+      <c r="S19" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T19" s="92" t="s">
+        <v>219</v>
+      </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
       <c r="W19" s="53"/>
       <c r="X19" s="70"/>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="80"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
       <c r="E20" s="40"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="411"/>
-      <c r="I20" s="412"/>
+      <c r="F20" s="61">
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <v>44633</v>
+      </c>
+      <c r="H20" s="410"/>
+      <c r="I20" s="411">
+        <v>5600</v>
+      </c>
       <c r="J20" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="76"/>
+        <v>5600</v>
+      </c>
+      <c r="K20" s="76">
+        <v>32.5</v>
+      </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
       <c r="N20" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182000</v>
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
       <c r="Q20" s="79"/>
       <c r="R20" s="67"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="92"/>
+      <c r="S20" s="51">
+        <v>0</v>
+      </c>
+      <c r="T20" s="92" t="s">
+        <v>219</v>
+      </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
       <c r="W20" s="53"/>
@@ -24877,8 +25166,8 @@
       <c r="E21" s="40"/>
       <c r="F21" s="61"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="411"/>
-      <c r="I21" s="412"/>
+      <c r="H21" s="410"/>
+      <c r="I21" s="411"/>
       <c r="J21" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24909,8 +25198,8 @@
       <c r="E22" s="40"/>
       <c r="F22" s="61"/>
       <c r="G22" s="62"/>
-      <c r="H22" s="411"/>
-      <c r="I22" s="412"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="411"/>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24941,8 +25230,8 @@
       <c r="E23" s="40"/>
       <c r="F23" s="61"/>
       <c r="G23" s="62"/>
-      <c r="H23" s="411"/>
-      <c r="I23" s="412"/>
+      <c r="H23" s="410"/>
+      <c r="I23" s="411"/>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24973,8 +25262,8 @@
       <c r="E24" s="40"/>
       <c r="F24" s="61"/>
       <c r="G24" s="62"/>
-      <c r="H24" s="411"/>
-      <c r="I24" s="412"/>
+      <c r="H24" s="410"/>
+      <c r="I24" s="411"/>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25005,8 +25294,8 @@
       <c r="E25" s="40"/>
       <c r="F25" s="61"/>
       <c r="G25" s="62"/>
-      <c r="H25" s="411"/>
-      <c r="I25" s="412"/>
+      <c r="H25" s="410"/>
+      <c r="I25" s="411"/>
       <c r="J25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25037,8 +25326,8 @@
       <c r="E26" s="40"/>
       <c r="F26" s="61"/>
       <c r="G26" s="62"/>
-      <c r="H26" s="411"/>
-      <c r="I26" s="412"/>
+      <c r="H26" s="410"/>
+      <c r="I26" s="411"/>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25069,8 +25358,8 @@
       <c r="E27" s="40"/>
       <c r="F27" s="61"/>
       <c r="G27" s="62"/>
-      <c r="H27" s="411"/>
-      <c r="I27" s="412"/>
+      <c r="H27" s="410"/>
+      <c r="I27" s="411"/>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25101,8 +25390,8 @@
       <c r="E28" s="40"/>
       <c r="F28" s="61"/>
       <c r="G28" s="62"/>
-      <c r="H28" s="411"/>
-      <c r="I28" s="412"/>
+      <c r="H28" s="410"/>
+      <c r="I28" s="411"/>
       <c r="J28" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25133,8 +25422,8 @@
       <c r="E29" s="40"/>
       <c r="F29" s="61"/>
       <c r="G29" s="62"/>
-      <c r="H29" s="411"/>
-      <c r="I29" s="412"/>
+      <c r="H29" s="410"/>
+      <c r="I29" s="411"/>
       <c r="J29" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25165,8 +25454,8 @@
       <c r="E30" s="40"/>
       <c r="F30" s="61"/>
       <c r="G30" s="62"/>
-      <c r="H30" s="411"/>
-      <c r="I30" s="412"/>
+      <c r="H30" s="410"/>
+      <c r="I30" s="411"/>
       <c r="J30" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -25953,8 +26242,8 @@
     </row>
     <row r="54" spans="1:24" s="161" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A54" s="147"/>
-      <c r="B54" s="438"/>
-      <c r="C54" s="436"/>
+      <c r="B54" s="437"/>
+      <c r="C54" s="435"/>
       <c r="D54" s="150"/>
       <c r="E54" s="40">
         <f t="shared" si="2"/>
@@ -25988,11 +26277,11 @@
       <c r="A55" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="439" t="s">
+      <c r="B55" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="440"/>
-      <c r="D55" s="441"/>
+      <c r="C55" s="439"/>
+      <c r="D55" s="440"/>
       <c r="E55" s="60"/>
       <c r="F55" s="151"/>
       <c r="G55" s="152"/>
@@ -26020,11 +26309,11 @@
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="80"/>
-      <c r="B56" s="439" t="s">
+      <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="440"/>
-      <c r="D56" s="442"/>
+      <c r="C56" s="439"/>
+      <c r="D56" s="441"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151"/>
       <c r="G56" s="152"/>
@@ -26054,10 +26343,10 @@
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="78"/>
-      <c r="B57" s="439" t="s">
+      <c r="B57" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="443"/>
+      <c r="C57" s="442"/>
       <c r="D57" s="168"/>
       <c r="E57" s="60"/>
       <c r="F57" s="151"/>
@@ -26086,10 +26375,10 @@
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="78"/>
-      <c r="B58" s="439" t="s">
+      <c r="B58" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="443"/>
+      <c r="C58" s="442"/>
       <c r="D58" s="168"/>
       <c r="E58" s="60"/>
       <c r="F58" s="151"/>
@@ -26118,11 +26407,11 @@
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="78"/>
-      <c r="B59" s="439" t="s">
+      <c r="B59" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="444"/>
-      <c r="D59" s="442"/>
+      <c r="C59" s="443"/>
+      <c r="D59" s="441"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
@@ -26152,10 +26441,10 @@
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="78"/>
-      <c r="B60" s="439" t="s">
+      <c r="B60" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="444"/>
+      <c r="C60" s="443"/>
       <c r="D60" s="168"/>
       <c r="E60" s="60"/>
       <c r="F60" s="151"/>
@@ -26184,7 +26473,7 @@
     </row>
     <row r="61" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="83"/>
-      <c r="B61" s="439"/>
+      <c r="B61" s="438"/>
       <c r="C61" s="171"/>
       <c r="D61" s="168"/>
       <c r="E61" s="60"/>
@@ -26540,7 +26829,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="187"/>
-      <c r="P72" s="437"/>
+      <c r="P72" s="436"/>
       <c r="Q72" s="164"/>
       <c r="R72" s="129"/>
       <c r="S72" s="180"/>
@@ -26749,8 +27038,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="451"/>
-      <c r="P79" s="465"/>
+      <c r="O79" s="475"/>
+      <c r="P79" s="477"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -26779,8 +27068,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="452"/>
-      <c r="P80" s="466"/>
+      <c r="O80" s="476"/>
+      <c r="P80" s="478"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -26809,8 +27098,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="451"/>
-      <c r="P81" s="465"/>
+      <c r="O81" s="475"/>
+      <c r="P81" s="477"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -26842,8 +27131,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="452"/>
-      <c r="P82" s="466"/>
+      <c r="O82" s="476"/>
+      <c r="P82" s="478"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -27001,8 +27290,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="467"/>
-      <c r="M87" s="468"/>
+      <c r="L87" s="479"/>
+      <c r="M87" s="480"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27034,8 +27323,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="467"/>
-      <c r="M88" s="468"/>
+      <c r="L88" s="479"/>
+      <c r="M88" s="480"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27238,8 +27527,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="451"/>
-      <c r="P94" s="461"/>
+      <c r="O94" s="475"/>
+      <c r="P94" s="471"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -27271,8 +27560,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="452"/>
-      <c r="P95" s="462"/>
+      <c r="O95" s="476"/>
+      <c r="P95" s="472"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -32664,14 +32953,14 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="463" t="s">
+      <c r="F259" s="473" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="463"/>
-      <c r="H259" s="464"/>
+      <c r="G259" s="473"/>
+      <c r="H259" s="474"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>112770</v>
+        <v>236185</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -32770,17 +33059,17 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>10395820</v>
+        <v>14506081.5</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>75740</v>
+        <v>174200</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>0</v>
+        <v>22400</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -32830,7 +33119,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>10471560</v>
+        <v>14702681.5</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -33242,11 +33531,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L87:M88"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
     <mergeCell ref="F259:H259"/>
@@ -33254,6 +33538,11 @@
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L87:M88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="255">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -623,12 +623,6 @@
     <t>T-8</t>
   </si>
   <si>
-    <t>20079--</t>
-  </si>
-  <si>
-    <t>20086--</t>
-  </si>
-  <si>
     <t>T-10</t>
   </si>
   <si>
@@ -671,18 +665,6 @@
     <t>T-13</t>
   </si>
   <si>
-    <t>20091--</t>
-  </si>
-  <si>
-    <t>20104--</t>
-  </si>
-  <si>
-    <t>20116--</t>
-  </si>
-  <si>
-    <t>20122--</t>
-  </si>
-  <si>
     <t>XXXXX</t>
   </si>
   <si>
@@ -718,6 +700,99 @@
   <si>
     <t>XXXX</t>
   </si>
+  <si>
+    <t>AGROPECUARIA LA CHEMITA  248</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LA CHEMITA   250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORCICOLA SAN BERNARDO </t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6946</t>
+  </si>
+  <si>
+    <t>A838</t>
+  </si>
+  <si>
+    <t>T-17</t>
+  </si>
+  <si>
+    <t>T-16</t>
+  </si>
+  <si>
+    <t>T-18</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 6956</t>
+  </si>
+  <si>
+    <t>A851</t>
+  </si>
+  <si>
+    <t>20079--10704</t>
+  </si>
+  <si>
+    <t>20079--3220</t>
+  </si>
+  <si>
+    <t>20086--10710</t>
+  </si>
+  <si>
+    <t>20086--3224</t>
+  </si>
+  <si>
+    <t>20091--10711</t>
+  </si>
+  <si>
+    <t>20104--4684</t>
+  </si>
+  <si>
+    <t>20104--3232</t>
+  </si>
+  <si>
+    <t>20091--8696</t>
+  </si>
+  <si>
+    <t>20132--</t>
+  </si>
+  <si>
+    <t>20143--</t>
+  </si>
+  <si>
+    <t>20161--</t>
+  </si>
+  <si>
+    <t>20169--</t>
+  </si>
+  <si>
+    <t>PULPA ESPALDILLA</t>
+  </si>
+  <si>
+    <t>FOLIO 10716</t>
+  </si>
+  <si>
+    <t>PECHO S/G</t>
+  </si>
+  <si>
+    <t>CABEZA DE LOMO</t>
+  </si>
+  <si>
+    <t>FOLIO 10710</t>
+  </si>
+  <si>
+    <t>20116--3242</t>
+  </si>
+  <si>
+    <t>20116--10726</t>
+  </si>
+  <si>
+    <t>20122--3239</t>
+  </si>
+  <si>
+    <t>20122--6729</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +805,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1116,6 +1191,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2028,7 +2111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="512">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3212,9 +3295,6 @@
     <xf numFmtId="0" fontId="30" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3243,6 +3323,93 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3276,84 +3443,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3384,8 +3479,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="49" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3715,18 +3840,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="478" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3740,22 +3865,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="451" t="s">
+      <c r="W1" s="479" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="452"/>
+      <c r="X1" s="480"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="450"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3809,10 +3934,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="453" t="s">
+      <c r="O3" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="454"/>
+      <c r="P3" s="482"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4481,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="455" t="s">
+      <c r="C12" s="483" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4420,7 +4545,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="456"/>
+      <c r="C13" s="484"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6422,13 +6547,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="467" t="s">
+      <c r="A56" s="462" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="469" t="s">
+      <c r="C56" s="464" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6439,7 +6564,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="461">
+      <c r="H56" s="466">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6468,11 +6593,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="468"/>
+      <c r="A57" s="463"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="470"/>
+      <c r="C57" s="465"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6481,7 +6606,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="462"/>
+      <c r="H57" s="467"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6508,13 +6633,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="467" t="s">
+      <c r="A58" s="462" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="469" t="s">
+      <c r="C58" s="464" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6525,7 +6650,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="461">
+      <c r="H58" s="466">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6544,10 +6669,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="463" t="s">
+      <c r="O58" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="465">
+      <c r="P58" s="489">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6558,11 +6683,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="468"/>
+      <c r="A59" s="463"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="470"/>
+      <c r="C59" s="465"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6571,7 +6696,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="462"/>
+      <c r="H59" s="467"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6588,8 +6713,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="464"/>
-      <c r="P59" s="466"/>
+      <c r="O59" s="469"/>
+      <c r="P59" s="490"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6598,13 +6723,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="459" t="s">
+      <c r="A60" s="487" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="457" t="s">
+      <c r="C60" s="485" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6618,7 +6743,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="461">
+      <c r="H60" s="466">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6637,10 +6762,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="463" t="s">
+      <c r="O60" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="465">
+      <c r="P60" s="489">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6653,11 +6778,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="460"/>
+      <c r="A61" s="488"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="458"/>
+      <c r="C61" s="486"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6669,7 +6794,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="462"/>
+      <c r="H61" s="467"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6686,8 +6811,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="464"/>
-      <c r="P61" s="466"/>
+      <c r="O61" s="469"/>
+      <c r="P61" s="490"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6753,7 +6878,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="483"/>
+      <c r="C63" s="456"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6761,7 +6886,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="485"/>
+      <c r="H63" s="458"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6790,7 +6915,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="484"/>
+      <c r="C64" s="457"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6798,7 +6923,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="486"/>
+      <c r="H64" s="459"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -6976,8 +7101,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="475"/>
-      <c r="P68" s="481"/>
+      <c r="O68" s="460"/>
+      <c r="P68" s="454"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7011,8 +7136,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="476"/>
-      <c r="P69" s="482"/>
+      <c r="O69" s="461"/>
+      <c r="P69" s="455"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7502,8 +7627,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="475"/>
-      <c r="P82" s="477"/>
+      <c r="O82" s="460"/>
+      <c r="P82" s="474"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7535,8 +7660,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="476"/>
-      <c r="P83" s="478"/>
+      <c r="O83" s="461"/>
+      <c r="P83" s="475"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7568,8 +7693,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="475"/>
-      <c r="P84" s="477"/>
+      <c r="O84" s="460"/>
+      <c r="P84" s="474"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7601,8 +7726,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="476"/>
-      <c r="P85" s="478"/>
+      <c r="O85" s="461"/>
+      <c r="P85" s="475"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7760,8 +7885,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="479"/>
-      <c r="M90" s="480"/>
+      <c r="L90" s="476"/>
+      <c r="M90" s="477"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7793,8 +7918,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="479"/>
-      <c r="M91" s="480"/>
+      <c r="L91" s="476"/>
+      <c r="M91" s="477"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7997,8 +8122,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="475"/>
-      <c r="P97" s="471"/>
+      <c r="O97" s="460"/>
+      <c r="P97" s="470"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8030,8 +8155,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="476"/>
-      <c r="P98" s="472"/>
+      <c r="O98" s="461"/>
+      <c r="P98" s="471"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13423,11 +13548,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="473" t="s">
+      <c r="F262" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="473"/>
-      <c r="H262" s="474"/>
+      <c r="G262" s="472"/>
+      <c r="H262" s="473"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14001,22 +14126,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14030,6 +14139,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14044,10 +14169,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14076,49 +14201,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="478" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="493" t="s">
+      <c r="S1" s="497" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="493"/>
+      <c r="T1" s="497"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="451" t="s">
+      <c r="W1" s="479" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="452"/>
+      <c r="X1" s="480"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="450"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14126,8 +14251,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="494"/>
-      <c r="T2" s="494"/>
+      <c r="S2" s="498"/>
+      <c r="T2" s="498"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14172,10 +14297,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="453" t="s">
+      <c r="O3" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="454"/>
+      <c r="P3" s="482"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14215,7 +14340,7 @@
       <c r="G4" s="42">
         <v>44594</v>
       </c>
-      <c r="H4" s="446" t="s">
+      <c r="H4" s="445" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="409">
@@ -15312,7 +15437,7 @@
         <v>44610</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I22" s="411">
         <f>22560-112.8</f>
@@ -15377,7 +15502,7 @@
         <v>44610</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I23" s="411">
         <v>5550</v>
@@ -15441,7 +15566,7 @@
         <v>44612</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I24" s="411">
         <v>22250</v>
@@ -15505,7 +15630,7 @@
         <v>44612</v>
       </c>
       <c r="H25" s="410" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I25" s="411">
         <v>5400</v>
@@ -15569,7 +15694,7 @@
         <v>44615</v>
       </c>
       <c r="H26" s="410" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I26" s="411">
         <f>21065-105.33</f>
@@ -15634,7 +15759,7 @@
         <v>44615</v>
       </c>
       <c r="H27" s="410" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I27" s="411">
         <v>5485</v>
@@ -15698,7 +15823,7 @@
         <v>44617</v>
       </c>
       <c r="H28" s="410" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I28" s="411">
         <v>21600</v>
@@ -15717,7 +15842,7 @@
         <v>702000</v>
       </c>
       <c r="O28" s="417" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P28" s="418">
         <v>44631</v>
@@ -15762,7 +15887,7 @@
         <v>44617</v>
       </c>
       <c r="H29" s="410" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I29" s="411">
         <v>5455</v>
@@ -15824,7 +15949,7 @@
         <v>44619</v>
       </c>
       <c r="H30" s="410" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="I30" s="411">
         <v>21935</v>
@@ -15848,10 +15973,10 @@
       <c r="P30" s="418">
         <v>44634</v>
       </c>
-      <c r="Q30" s="444">
+      <c r="Q30" s="443">
         <v>25140</v>
       </c>
-      <c r="R30" s="445">
+      <c r="R30" s="444">
         <v>44627</v>
       </c>
       <c r="S30" s="91">
@@ -15886,7 +16011,7 @@
         <v>44619</v>
       </c>
       <c r="H31" s="63" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I31" s="64">
         <v>5470</v>
@@ -15910,10 +16035,10 @@
       <c r="P31" s="418">
         <v>44634</v>
       </c>
-      <c r="Q31" s="444">
-        <v>0</v>
-      </c>
-      <c r="R31" s="445">
+      <c r="Q31" s="443">
+        <v>0</v>
+      </c>
+      <c r="R31" s="444">
         <v>44627</v>
       </c>
       <c r="S31" s="91">
@@ -16697,13 +16822,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="495" t="s">
+      <c r="A55" s="499" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="469" t="s">
+      <c r="C55" s="464" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -16714,7 +16839,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="485" t="s">
+      <c r="H55" s="458" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -16743,11 +16868,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="496"/>
+      <c r="A56" s="500"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="470"/>
+      <c r="C56" s="465"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16756,7 +16881,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="486"/>
+      <c r="H56" s="459"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16785,13 +16910,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="487" t="s">
+      <c r="A57" s="491" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="489" t="s">
+      <c r="C57" s="493" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -16802,7 +16927,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="485" t="s">
+      <c r="H57" s="458" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -16821,10 +16946,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="475" t="s">
+      <c r="O57" s="460" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="481">
+      <c r="P57" s="454">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16835,11 +16960,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="488"/>
+      <c r="A58" s="492"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="490"/>
+      <c r="C58" s="494"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16848,7 +16973,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="486"/>
+      <c r="H58" s="459"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16865,8 +16990,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="491"/>
-      <c r="P58" s="492"/>
+      <c r="O58" s="495"/>
+      <c r="P58" s="496"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -16874,31 +16999,49 @@
       <c r="U58" s="53"/>
       <c r="V58" s="54"/>
     </row>
-    <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="497"/>
+    <row r="59" spans="1:24" s="161" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="449" t="s">
+        <v>41</v>
+      </c>
       <c r="B59" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="483"/>
+      <c r="C59" s="451" t="s">
+        <v>227</v>
+      </c>
       <c r="D59" s="163"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="151"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="485"/>
-      <c r="I59" s="151"/>
+      <c r="F59" s="151">
+        <v>1544.2</v>
+      </c>
+      <c r="G59" s="152">
+        <v>44613</v>
+      </c>
+      <c r="H59" s="458" t="s">
+        <v>228</v>
+      </c>
+      <c r="I59" s="151">
+        <v>1544.2</v>
+      </c>
       <c r="J59" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K59" s="46"/>
+      <c r="K59" s="46">
+        <v>96</v>
+      </c>
       <c r="L59" s="65"/>
       <c r="M59" s="65"/>
       <c r="N59" s="154">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="164"/>
-      <c r="P59" s="62"/>
+        <v>148243.20000000001</v>
+      </c>
+      <c r="O59" s="414" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" s="453">
+        <v>44637</v>
+      </c>
       <c r="Q59" s="167"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -16909,16 +17052,16 @@
       <c r="X59"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="460"/>
+      <c r="A60" s="450"/>
       <c r="B60" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="484"/>
+      <c r="C60" s="452"/>
       <c r="D60" s="168"/>
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="486"/>
+      <c r="H60" s="459"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17121,28 +17264,48 @@
       <c r="V64" s="54"/>
     </row>
     <row r="65" spans="1:22" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="183"/>
+      <c r="A65" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="178" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" s="183" t="s">
+        <v>250</v>
+      </c>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
-      <c r="F65" s="151"/>
-      <c r="G65" s="152"/>
-      <c r="H65" s="388"/>
-      <c r="I65" s="151"/>
+      <c r="F65" s="151">
+        <v>282.8</v>
+      </c>
+      <c r="G65" s="152">
+        <v>44620</v>
+      </c>
+      <c r="H65" s="153">
+        <v>37140</v>
+      </c>
+      <c r="I65" s="151">
+        <v>282.8</v>
+      </c>
       <c r="J65" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="166"/>
+      <c r="K65" s="166">
+        <v>65</v>
+      </c>
       <c r="L65" s="99"/>
       <c r="M65" s="99"/>
       <c r="N65" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="475"/>
-      <c r="P65" s="481"/>
+        <v>18382</v>
+      </c>
+      <c r="O65" s="510" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" s="511">
+        <v>44643</v>
+      </c>
       <c r="Q65" s="164"/>
       <c r="R65" s="129"/>
       <c r="S65" s="180"/>
@@ -17171,8 +17334,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O66" s="476"/>
-      <c r="P66" s="482"/>
+      <c r="O66" s="172"/>
+      <c r="P66" s="42"/>
       <c r="Q66" s="164"/>
       <c r="R66" s="129"/>
       <c r="S66" s="180"/>
@@ -17561,8 +17724,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="475"/>
-      <c r="P79" s="477"/>
+      <c r="O79" s="460"/>
+      <c r="P79" s="474"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17591,8 +17754,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="476"/>
-      <c r="P80" s="478"/>
+      <c r="O80" s="461"/>
+      <c r="P80" s="475"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17621,8 +17784,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="475"/>
-      <c r="P81" s="477"/>
+      <c r="O81" s="460"/>
+      <c r="P81" s="474"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17654,8 +17817,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="476"/>
-      <c r="P82" s="478"/>
+      <c r="O82" s="461"/>
+      <c r="P82" s="475"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17813,8 +17976,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="479"/>
-      <c r="M87" s="480"/>
+      <c r="L87" s="476"/>
+      <c r="M87" s="477"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -17846,8 +18009,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="479"/>
-      <c r="M88" s="480"/>
+      <c r="L88" s="476"/>
+      <c r="M88" s="477"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18050,8 +18213,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="475"/>
-      <c r="P94" s="471"/>
+      <c r="O94" s="460"/>
+      <c r="P94" s="470"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18083,8 +18246,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="476"/>
-      <c r="P95" s="472"/>
+      <c r="O95" s="461"/>
+      <c r="P95" s="471"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23476,14 +23639,14 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="473" t="s">
+      <c r="F259" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="473"/>
-      <c r="H259" s="474"/>
+      <c r="G259" s="472"/>
+      <c r="H259" s="473"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>385380.97210000001</v>
+        <v>387207.97210000001</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -23582,7 +23745,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>13093365.9353</v>
+        <v>13259991.135299999</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -23642,7 +23805,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>13529625.9353</v>
+        <v>13696251.135299999</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -23800,7 +23963,7 @@
       <c r="E280" s="367"/>
       <c r="F280" s="368"/>
       <c r="G280" s="369"/>
-      <c r="H280" s="449"/>
+      <c r="H280" s="448"/>
       <c r="I280" s="371"/>
       <c r="J280"/>
       <c r="K280"/>
@@ -23820,7 +23983,7 @@
       <c r="E281" s="367"/>
       <c r="F281" s="368"/>
       <c r="G281" s="369"/>
-      <c r="H281" s="449"/>
+      <c r="H281" s="448"/>
       <c r="I281" s="371"/>
       <c r="J281"/>
       <c r="K281"/>
@@ -23840,7 +24003,7 @@
       <c r="E282" s="367"/>
       <c r="F282" s="368"/>
       <c r="G282" s="369"/>
-      <c r="H282" s="449"/>
+      <c r="H282" s="448"/>
       <c r="I282" s="371"/>
       <c r="J282"/>
       <c r="K282"/>
@@ -23860,7 +24023,7 @@
       <c r="E283" s="367"/>
       <c r="F283" s="368"/>
       <c r="G283" s="369"/>
-      <c r="H283" s="449"/>
+      <c r="H283" s="448"/>
       <c r="I283" s="371"/>
       <c r="J283"/>
       <c r="K283"/>
@@ -23880,7 +24043,7 @@
       <c r="E284" s="367"/>
       <c r="F284" s="368"/>
       <c r="G284" s="369"/>
-      <c r="H284" s="449"/>
+      <c r="H284" s="448"/>
       <c r="I284" s="371"/>
       <c r="J284"/>
       <c r="K284"/>
@@ -23900,7 +24063,7 @@
       <c r="E285" s="367"/>
       <c r="F285" s="368"/>
       <c r="G285" s="369"/>
-      <c r="H285" s="449"/>
+      <c r="H285" s="448"/>
       <c r="I285" s="371"/>
       <c r="J285"/>
       <c r="K285"/>
@@ -23920,7 +24083,7 @@
       <c r="E286" s="367"/>
       <c r="F286" s="368"/>
       <c r="G286" s="369"/>
-      <c r="H286" s="449"/>
+      <c r="H286" s="448"/>
       <c r="I286" s="371"/>
       <c r="J286"/>
       <c r="K286"/>
@@ -23940,7 +24103,7 @@
       <c r="E287" s="367"/>
       <c r="F287" s="368"/>
       <c r="G287" s="369"/>
-      <c r="H287" s="449"/>
+      <c r="H287" s="448"/>
       <c r="I287" s="371"/>
       <c r="J287"/>
       <c r="K287"/>
@@ -23960,7 +24123,7 @@
       <c r="E288" s="367"/>
       <c r="F288" s="368"/>
       <c r="G288" s="369"/>
-      <c r="H288" s="449"/>
+      <c r="H288" s="448"/>
       <c r="I288" s="371"/>
       <c r="J288"/>
       <c r="K288"/>
@@ -23980,7 +24143,7 @@
       <c r="E289" s="367"/>
       <c r="F289" s="368"/>
       <c r="G289" s="369"/>
-      <c r="H289" s="449"/>
+      <c r="H289" s="448"/>
       <c r="I289" s="371"/>
       <c r="J289"/>
       <c r="K289"/>
@@ -24000,7 +24163,7 @@
       <c r="E290" s="367"/>
       <c r="F290" s="368"/>
       <c r="G290" s="369"/>
-      <c r="H290" s="449"/>
+      <c r="H290" s="448"/>
       <c r="I290" s="371"/>
       <c r="J290"/>
       <c r="K290"/>
@@ -24020,7 +24183,7 @@
       <c r="E291" s="367"/>
       <c r="F291" s="368"/>
       <c r="G291" s="369"/>
-      <c r="H291" s="449"/>
+      <c r="H291" s="448"/>
       <c r="I291" s="371"/>
       <c r="J291"/>
       <c r="K291"/>
@@ -24040,7 +24203,7 @@
       <c r="E292" s="367"/>
       <c r="F292" s="368"/>
       <c r="G292" s="369"/>
-      <c r="H292" s="449"/>
+      <c r="H292" s="448"/>
       <c r="I292" s="371"/>
       <c r="J292"/>
       <c r="K292"/>
@@ -24053,15 +24216,13 @@
       <c r="V292"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="P65:P66"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="O65:O66"/>
+  <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -24073,12 +24234,10 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="H59:H60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24093,10 +24252,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24125,49 +24284,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="478" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
+      <c r="B1" s="478"/>
+      <c r="C1" s="478"/>
+      <c r="D1" s="478"/>
+      <c r="E1" s="478"/>
+      <c r="F1" s="478"/>
+      <c r="G1" s="478"/>
+      <c r="H1" s="478"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="493" t="s">
+      <c r="S1" s="497" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="493"/>
+      <c r="T1" s="497"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="451" t="s">
+      <c r="W1" s="479" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="452"/>
+      <c r="X1" s="480"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="450"/>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
+      <c r="A2" s="478"/>
+      <c r="B2" s="478"/>
+      <c r="C2" s="478"/>
+      <c r="D2" s="478"/>
+      <c r="E2" s="478"/>
+      <c r="F2" s="478"/>
+      <c r="G2" s="478"/>
+      <c r="H2" s="478"/>
+      <c r="I2" s="478"/>
+      <c r="J2" s="478"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24175,8 +24334,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="494"/>
-      <c r="T2" s="494"/>
+      <c r="S2" s="498"/>
+      <c r="T2" s="498"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24221,10 +24380,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="453" t="s">
+      <c r="O3" s="481" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="454"/>
+      <c r="P3" s="482"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24263,7 +24422,7 @@
         <v>44621</v>
       </c>
       <c r="H4" s="433" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I4" s="409">
         <v>24020</v>
@@ -24321,7 +24480,7 @@
         <v>44621</v>
       </c>
       <c r="H5" s="410" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I5" s="411">
         <v>5340</v>
@@ -24379,7 +24538,7 @@
         <v>44623</v>
       </c>
       <c r="H6" s="410" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="I6" s="411">
         <v>22575</v>
@@ -24389,16 +24548,20 @@
         <v>605</v>
       </c>
       <c r="K6" s="46">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
       <c r="N6" s="48">
         <f t="shared" si="1"/>
-        <v>7494900</v>
-      </c>
-      <c r="O6" s="395"/>
-      <c r="P6" s="396"/>
+        <v>722400</v>
+      </c>
+      <c r="O6" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="396">
+        <v>44637</v>
+      </c>
       <c r="Q6" s="66">
         <v>25140</v>
       </c>
@@ -24433,7 +24596,7 @@
         <v>44623</v>
       </c>
       <c r="H7" s="410" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="I7" s="411">
         <v>5615</v>
@@ -24451,8 +24614,12 @@
         <f t="shared" si="1"/>
         <v>179680</v>
       </c>
-      <c r="O7" s="395"/>
-      <c r="P7" s="396"/>
+      <c r="O7" s="395" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="396">
+        <v>44637</v>
+      </c>
       <c r="Q7" s="66">
         <v>0</v>
       </c>
@@ -24487,7 +24654,7 @@
         <v>44624</v>
       </c>
       <c r="H8" s="410" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="I8" s="411">
         <v>21960</v>
@@ -24505,8 +24672,12 @@
         <f t="shared" si="1"/>
         <v>702720</v>
       </c>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
+      <c r="O8" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="90">
+        <v>44638</v>
+      </c>
       <c r="Q8" s="66">
         <v>25360</v>
       </c>
@@ -24541,7 +24712,7 @@
         <v>44624</v>
       </c>
       <c r="H9" s="410" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="I9" s="411">
         <v>5270</v>
@@ -24559,8 +24730,12 @@
         <f t="shared" si="1"/>
         <v>168640</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="90"/>
+      <c r="O9" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="90">
+        <v>44638</v>
+      </c>
       <c r="Q9" s="66">
         <v>0</v>
       </c>
@@ -24578,7 +24753,7 @@
       <c r="W9" s="53"/>
       <c r="X9" s="70"/>
     </row>
-    <row r="10" spans="1:24" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
         <v>20</v>
       </c>
@@ -24595,7 +24770,7 @@
         <v>44626</v>
       </c>
       <c r="H10" s="410" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="I10" s="411">
         <v>22475</v>
@@ -24613,8 +24788,12 @@
         <f t="shared" si="1"/>
         <v>719200</v>
       </c>
-      <c r="O10" s="397"/>
-      <c r="P10" s="398"/>
+      <c r="O10" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="398">
+        <v>44642</v>
+      </c>
       <c r="Q10" s="66">
         <v>25140</v>
       </c>
@@ -24625,7 +24804,7 @@
         <v>11200</v>
       </c>
       <c r="T10" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
@@ -24649,7 +24828,7 @@
         <v>44626</v>
       </c>
       <c r="H11" s="410" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="I11" s="411">
         <v>5515</v>
@@ -24667,8 +24846,12 @@
         <f t="shared" si="1"/>
         <v>176480</v>
       </c>
-      <c r="O11" s="397"/>
-      <c r="P11" s="398"/>
+      <c r="O11" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="398">
+        <v>44642</v>
+      </c>
       <c r="Q11" s="66">
         <v>0</v>
       </c>
@@ -24679,7 +24862,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
@@ -24687,11 +24870,11 @@
       <c r="X11" s="70"/>
     </row>
     <row r="12" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="448" t="s">
+      <c r="A12" s="447" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C12" s="431"/>
       <c r="D12" s="60"/>
@@ -24702,7 +24885,9 @@
       <c r="G12" s="62">
         <v>44628</v>
       </c>
-      <c r="H12" s="447"/>
+      <c r="H12" s="446">
+        <v>37237</v>
+      </c>
       <c r="I12" s="411">
         <v>12480</v>
       </c>
@@ -24719,19 +24904,23 @@
         <f t="shared" si="1"/>
         <v>546624</v>
       </c>
-      <c r="O12" s="397"/>
-      <c r="P12" s="398"/>
+      <c r="O12" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="398">
+        <v>44643</v>
+      </c>
       <c r="Q12" s="66">
         <v>0</v>
       </c>
       <c r="R12" s="67" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S12" s="51">
         <v>0</v>
       </c>
       <c r="T12" s="52" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
@@ -24740,7 +24929,7 @@
     </row>
     <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B13" s="58" t="s">
         <v>52</v>
@@ -24755,7 +24944,7 @@
         <v>44628</v>
       </c>
       <c r="H13" s="410" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="I13" s="411">
         <v>22675</v>
@@ -24773,8 +24962,12 @@
         <f t="shared" si="1"/>
         <v>725600</v>
       </c>
-      <c r="O13" s="397"/>
-      <c r="P13" s="398"/>
+      <c r="O13" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="398">
+        <v>44642</v>
+      </c>
       <c r="Q13" s="66">
         <v>24940</v>
       </c>
@@ -24785,7 +24978,7 @@
         <v>11200</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
@@ -24809,7 +25002,7 @@
         <v>44628</v>
       </c>
       <c r="H14" s="410" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="I14" s="411">
         <v>5600</v>
@@ -24827,8 +25020,12 @@
         <f t="shared" si="1"/>
         <v>179200</v>
       </c>
-      <c r="O14" s="397"/>
-      <c r="P14" s="398"/>
+      <c r="O14" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="398">
+        <v>44642</v>
+      </c>
       <c r="Q14" s="66">
         <v>0</v>
       </c>
@@ -24839,16 +25036,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="52" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
       <c r="W14" s="53"/>
       <c r="X14" s="70"/>
     </row>
-    <row r="15" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>72</v>
@@ -24863,7 +25060,7 @@
         <v>44630</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="I15" s="411">
         <v>22670</v>
@@ -24881,8 +25078,12 @@
         <f t="shared" si="1"/>
         <v>725440</v>
       </c>
-      <c r="O15" s="397"/>
-      <c r="P15" s="398"/>
+      <c r="O15" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="398">
+        <v>44644</v>
+      </c>
       <c r="Q15" s="66">
         <v>23140</v>
       </c>
@@ -24893,7 +25094,7 @@
         <v>11200</v>
       </c>
       <c r="T15" s="92" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
@@ -24905,7 +25106,7 @@
         <v>105</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
@@ -24917,7 +25118,7 @@
         <v>44630</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="I16" s="411">
         <v>3295</v>
@@ -24935,8 +25136,12 @@
         <f t="shared" si="1"/>
         <v>105440</v>
       </c>
-      <c r="O16" s="397"/>
-      <c r="P16" s="398"/>
+      <c r="O16" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="398">
+        <v>44644</v>
+      </c>
       <c r="Q16" s="66">
         <v>0</v>
       </c>
@@ -24947,7 +25152,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="92" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
@@ -24956,7 +25161,7 @@
     </row>
     <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B17" s="58" t="s">
         <v>72</v>
@@ -24971,7 +25176,7 @@
         <v>44631</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="I17" s="411">
         <v>23900</v>
@@ -24989,8 +25194,12 @@
         <f t="shared" si="1"/>
         <v>764800</v>
       </c>
-      <c r="O17" s="397"/>
-      <c r="P17" s="398"/>
+      <c r="O17" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" s="398">
+        <v>44645</v>
+      </c>
       <c r="Q17" s="66">
         <v>25240</v>
       </c>
@@ -25001,7 +25210,7 @@
         <v>11200</v>
       </c>
       <c r="T17" s="92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
@@ -25025,7 +25234,7 @@
         <v>44631</v>
       </c>
       <c r="H18" s="410" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="I18" s="411">
         <v>5360</v>
@@ -25043,8 +25252,12 @@
         <f t="shared" si="1"/>
         <v>171520</v>
       </c>
-      <c r="O18" s="397"/>
-      <c r="P18" s="398"/>
+      <c r="O18" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" s="398">
+        <v>44645</v>
+      </c>
       <c r="Q18" s="66">
         <v>0</v>
       </c>
@@ -25055,7 +25268,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
@@ -25078,7 +25291,9 @@
       <c r="G19" s="62">
         <v>44633</v>
       </c>
-      <c r="H19" s="410"/>
+      <c r="H19" s="410" t="s">
+        <v>242</v>
+      </c>
       <c r="I19" s="411">
         <v>21835</v>
       </c>
@@ -25097,13 +25312,17 @@
       </c>
       <c r="O19" s="397"/>
       <c r="P19" s="398"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="67"/>
+      <c r="Q19" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R19" s="67">
+        <v>44642</v>
+      </c>
       <c r="S19" s="51">
         <v>11200</v>
       </c>
       <c r="T19" s="92" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
@@ -25112,7 +25331,7 @@
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" s="58" t="s">
         <v>32</v>
@@ -25126,7 +25345,9 @@
       <c r="G20" s="62">
         <v>44633</v>
       </c>
-      <c r="H20" s="410"/>
+      <c r="H20" s="410" t="s">
+        <v>242</v>
+      </c>
       <c r="I20" s="411">
         <v>5600</v>
       </c>
@@ -25145,13 +25366,17 @@
       </c>
       <c r="O20" s="89"/>
       <c r="P20" s="90"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="67"/>
+      <c r="Q20" s="79">
+        <v>0</v>
+      </c>
+      <c r="R20" s="67">
+        <v>44642</v>
+      </c>
       <c r="S20" s="51">
         <v>0</v>
       </c>
       <c r="T20" s="92" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
@@ -25159,116 +25384,196 @@
       <c r="X20" s="70"/>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
       <c r="E21" s="40"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="410"/>
-      <c r="I21" s="411"/>
+      <c r="F21" s="61">
+        <v>22290</v>
+      </c>
+      <c r="G21" s="62">
+        <v>44635</v>
+      </c>
+      <c r="H21" s="410" t="s">
+        <v>243</v>
+      </c>
+      <c r="I21" s="411">
+        <v>22920</v>
+      </c>
       <c r="J21" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="76"/>
+        <v>630</v>
+      </c>
+      <c r="K21" s="76">
+        <v>32.5</v>
+      </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>744900</v>
       </c>
       <c r="O21" s="89"/>
       <c r="P21" s="90"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="92"/>
+      <c r="Q21" s="79">
+        <v>25240</v>
+      </c>
+      <c r="R21" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S21" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T21" s="92" t="s">
+        <v>230</v>
+      </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
       <c r="W21" s="53"/>
       <c r="X21" s="70"/>
     </row>
     <row r="22" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="81"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
       <c r="E22" s="40"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="410"/>
-      <c r="I22" s="411"/>
+      <c r="F22" s="61">
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <v>44635</v>
+      </c>
+      <c r="H22" s="410" t="s">
+        <v>243</v>
+      </c>
+      <c r="I22" s="411">
+        <v>5365</v>
+      </c>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="76"/>
+        <v>5365</v>
+      </c>
+      <c r="K22" s="76">
+        <v>32.5</v>
+      </c>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>174362.5</v>
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="90"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="92"/>
+      <c r="Q22" s="79">
+        <v>0</v>
+      </c>
+      <c r="R22" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S22" s="51">
+        <v>0</v>
+      </c>
+      <c r="T22" s="92" t="s">
+        <v>230</v>
+      </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
       <c r="W22" s="53"/>
       <c r="X22" s="70"/>
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="82"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>72</v>
+      </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="410"/>
-      <c r="I23" s="411"/>
+      <c r="F23" s="61">
+        <v>23040</v>
+      </c>
+      <c r="G23" s="62">
+        <v>44637</v>
+      </c>
+      <c r="H23" s="410" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23" s="411">
+        <v>23330</v>
+      </c>
       <c r="J23" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="76"/>
+        <v>290</v>
+      </c>
+      <c r="K23" s="76">
+        <v>33</v>
+      </c>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>769890</v>
       </c>
       <c r="O23" s="89"/>
       <c r="P23" s="90"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="92"/>
+      <c r="Q23" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R23" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S23" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T23" s="92" t="s">
+        <v>229</v>
+      </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
       <c r="W23" s="53"/>
       <c r="X23" s="70"/>
     </row>
     <row r="24" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="83" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
       <c r="E24" s="40"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="410"/>
-      <c r="I24" s="411"/>
+      <c r="F24" s="61">
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <v>44637</v>
+      </c>
+      <c r="H24" s="410" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" s="411">
+        <v>0</v>
+      </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K24" s="76"/>
+      <c r="K24" s="76">
+        <v>33</v>
+      </c>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="48">
@@ -25277,74 +25582,126 @@
       </c>
       <c r="O24" s="397"/>
       <c r="P24" s="90"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="92"/>
+      <c r="Q24" s="79">
+        <v>0</v>
+      </c>
+      <c r="R24" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S24" s="91">
+        <v>0</v>
+      </c>
+      <c r="T24" s="92" t="s">
+        <v>229</v>
+      </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
       <c r="W24" s="53"/>
       <c r="X24" s="70"/>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="71"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
       <c r="E25" s="40"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="410"/>
-      <c r="I25" s="411"/>
+      <c r="F25" s="61">
+        <v>21410</v>
+      </c>
+      <c r="G25" s="62">
+        <v>44638</v>
+      </c>
+      <c r="H25" s="410" t="s">
+        <v>245</v>
+      </c>
+      <c r="I25" s="411">
+        <v>21330</v>
+      </c>
       <c r="J25" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="76"/>
+        <v>-80</v>
+      </c>
+      <c r="K25" s="76">
+        <v>33</v>
+      </c>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>703890</v>
       </c>
       <c r="O25" s="89"/>
       <c r="P25" s="90"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="92"/>
+      <c r="Q25" s="79">
+        <v>25140</v>
+      </c>
+      <c r="R25" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S25" s="51">
+        <v>11200</v>
+      </c>
+      <c r="T25" s="92" t="s">
+        <v>231</v>
+      </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
       <c r="W25" s="53"/>
       <c r="X25" s="70"/>
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="82"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
       <c r="E26" s="40"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="410"/>
-      <c r="I26" s="411"/>
+      <c r="F26" s="61">
+        <v>0</v>
+      </c>
+      <c r="G26" s="62">
+        <v>44638</v>
+      </c>
+      <c r="H26" s="410" t="s">
+        <v>245</v>
+      </c>
+      <c r="I26" s="411">
+        <v>5375</v>
+      </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="76"/>
+        <v>5375</v>
+      </c>
+      <c r="K26" s="76">
+        <v>33</v>
+      </c>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>177375</v>
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="90"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="92"/>
+      <c r="Q26" s="79">
+        <v>0</v>
+      </c>
+      <c r="R26" s="67">
+        <v>44642</v>
+      </c>
+      <c r="S26" s="51">
+        <v>0</v>
+      </c>
+      <c r="T26" s="92" t="s">
+        <v>231</v>
+      </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
       <c r="W26" s="53"/>
@@ -26273,33 +26630,49 @@
       <c r="U54" s="159"/>
       <c r="V54" s="160"/>
     </row>
-    <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="80" t="s">
+    <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="499" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="439"/>
-      <c r="D55" s="440"/>
+        <v>24</v>
+      </c>
+      <c r="C55" s="464" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="439"/>
       <c r="E55" s="60"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="390"/>
-      <c r="I55" s="151"/>
+      <c r="F55" s="151">
+        <v>181.6</v>
+      </c>
+      <c r="G55" s="152">
+        <v>44627</v>
+      </c>
+      <c r="H55" s="502" t="s">
+        <v>233</v>
+      </c>
+      <c r="I55" s="151">
+        <v>181.6</v>
+      </c>
       <c r="J55" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K55" s="46"/>
+      <c r="K55" s="46">
+        <v>104</v>
+      </c>
       <c r="L55" s="65"/>
       <c r="M55" s="65"/>
       <c r="N55" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="89"/>
-      <c r="P55" s="162"/>
+        <v>18886.399999999998</v>
+      </c>
+      <c r="O55" s="460" t="s">
+        <v>59</v>
+      </c>
+      <c r="P55" s="454">
+        <v>44645</v>
+      </c>
       <c r="Q55" s="128"/>
       <c r="R55" s="158"/>
       <c r="S55" s="92"/>
@@ -26308,30 +26681,38 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
+      <c r="A56" s="501"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="439"/>
-      <c r="D56" s="441"/>
+      <c r="C56" s="465"/>
+      <c r="D56" s="440"/>
       <c r="E56" s="60"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="390"/>
-      <c r="I56" s="151"/>
+      <c r="F56" s="151">
+        <v>967</v>
+      </c>
+      <c r="G56" s="152">
+        <v>44627</v>
+      </c>
+      <c r="H56" s="503"/>
+      <c r="I56" s="151">
+        <v>967</v>
+      </c>
       <c r="J56" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K56" s="46"/>
+      <c r="K56" s="46">
+        <v>96</v>
+      </c>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O56" s="164"/>
-      <c r="P56" s="162"/>
+        <v>92832</v>
+      </c>
+      <c r="O56" s="461"/>
+      <c r="P56" s="455"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -26346,7 +26727,7 @@
       <c r="B57" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="442"/>
+      <c r="C57" s="441"/>
       <c r="D57" s="168"/>
       <c r="E57" s="60"/>
       <c r="F57" s="151"/>
@@ -26378,7 +26759,7 @@
       <c r="B58" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="442"/>
+      <c r="C58" s="441"/>
       <c r="D58" s="168"/>
       <c r="E58" s="60"/>
       <c r="F58" s="151"/>
@@ -26410,8 +26791,8 @@
       <c r="B59" s="438" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="443"/>
-      <c r="D59" s="441"/>
+      <c r="C59" s="442"/>
+      <c r="D59" s="440"/>
       <c r="E59" s="60"/>
       <c r="F59" s="151"/>
       <c r="G59" s="152"/>
@@ -26444,7 +26825,7 @@
       <c r="B60" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="443"/>
+      <c r="C60" s="442"/>
       <c r="D60" s="168"/>
       <c r="E60" s="60"/>
       <c r="F60" s="151"/>
@@ -26502,30 +26883,48 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
+      <c r="A62" s="504" t="s">
+        <v>106</v>
+      </c>
       <c r="B62" s="178" t="s">
-        <v>155</v>
-      </c>
-      <c r="C62" s="171"/>
+        <v>246</v>
+      </c>
+      <c r="C62" s="506" t="s">
+        <v>247</v>
+      </c>
       <c r="D62" s="168"/>
       <c r="E62" s="60"/>
-      <c r="F62" s="151"/>
-      <c r="G62" s="152"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="151"/>
+      <c r="F62" s="151">
+        <v>152.6</v>
+      </c>
+      <c r="G62" s="152">
+        <v>44622</v>
+      </c>
+      <c r="H62" s="508">
+        <v>37162</v>
+      </c>
+      <c r="I62" s="151">
+        <v>152.6</v>
+      </c>
       <c r="J62" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="166"/>
+      <c r="K62" s="166">
+        <v>51</v>
+      </c>
       <c r="L62" s="99"/>
       <c r="M62" s="99"/>
       <c r="N62" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="164"/>
-      <c r="P62" s="162"/>
+        <v>7782.5999999999995</v>
+      </c>
+      <c r="O62" s="460" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" s="454">
+        <v>44643</v>
+      </c>
       <c r="Q62" s="164"/>
       <c r="R62" s="129"/>
       <c r="S62" s="92"/>
@@ -26534,30 +26933,38 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
+      <c r="A63" s="505"/>
       <c r="B63" s="178" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="171"/>
+        <v>248</v>
+      </c>
+      <c r="C63" s="507"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
-      <c r="F63" s="151"/>
-      <c r="G63" s="152"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="151"/>
+      <c r="F63" s="151">
+        <v>204.8</v>
+      </c>
+      <c r="G63" s="152">
+        <v>44622</v>
+      </c>
+      <c r="H63" s="509"/>
+      <c r="I63" s="151">
+        <v>204.8</v>
+      </c>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="166"/>
+      <c r="K63" s="166">
+        <v>83</v>
+      </c>
       <c r="L63" s="99"/>
       <c r="M63" s="99"/>
       <c r="N63" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="164"/>
-      <c r="P63" s="162"/>
+        <v>16998.400000000001</v>
+      </c>
+      <c r="O63" s="461"/>
+      <c r="P63" s="455"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -26567,9 +26974,7 @@
     </row>
     <row r="64" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="80"/>
-      <c r="B64" s="178" t="s">
-        <v>153</v>
-      </c>
+      <c r="B64" s="178"/>
       <c r="C64" s="183"/>
       <c r="D64" s="171"/>
       <c r="E64" s="60"/>
@@ -27038,8 +27443,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="475"/>
-      <c r="P79" s="477"/>
+      <c r="O79" s="460"/>
+      <c r="P79" s="474"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -27068,8 +27473,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="476"/>
-      <c r="P80" s="478"/>
+      <c r="O80" s="461"/>
+      <c r="P80" s="475"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -27098,8 +27503,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="475"/>
-      <c r="P81" s="477"/>
+      <c r="O81" s="460"/>
+      <c r="P81" s="474"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -27131,8 +27536,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="476"/>
-      <c r="P82" s="478"/>
+      <c r="O82" s="461"/>
+      <c r="P82" s="475"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -27290,8 +27695,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="479"/>
-      <c r="M87" s="480"/>
+      <c r="L87" s="476"/>
+      <c r="M87" s="477"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27323,8 +27728,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="479"/>
-      <c r="M88" s="480"/>
+      <c r="L88" s="476"/>
+      <c r="M88" s="477"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27527,8 +27932,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="475"/>
-      <c r="P94" s="471"/>
+      <c r="O94" s="460"/>
+      <c r="P94" s="470"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -27560,8 +27965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="476"/>
-      <c r="P95" s="472"/>
+      <c r="O95" s="461"/>
+      <c r="P95" s="471"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -32953,14 +33358,14 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="473" t="s">
+      <c r="F259" s="472" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="473"/>
-      <c r="H259" s="474"/>
+      <c r="G259" s="472"/>
+      <c r="H259" s="473"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>236185</v>
+        <v>316010.99999999994</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -33059,17 +33464,17 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>14506081.5</v>
+        <v>10440498.4</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>174200</v>
+        <v>274860</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>22400</v>
+        <v>56000</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -33119,7 +33524,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>14702681.5</v>
+        <v>10771358.4</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -33530,7 +33935,22 @@
       <c r="V292"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
     <mergeCell ref="O94:O95"/>
     <mergeCell ref="P94:P95"/>
     <mergeCell ref="F259:H259"/>
@@ -33538,11 +33958,6 @@
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="O81:O82"/>
     <mergeCell ref="P81:P82"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L87:M88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="269">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -755,16 +755,7 @@
     <t>20091--8696</t>
   </si>
   <si>
-    <t>20132--</t>
-  </si>
-  <si>
-    <t>20143--</t>
-  </si>
-  <si>
     <t>20161--</t>
-  </si>
-  <si>
-    <t>20169--</t>
   </si>
   <si>
     <t>PULPA ESPALDILLA</t>
@@ -792,6 +783,57 @@
   </si>
   <si>
     <t>20122--6729</t>
+  </si>
+  <si>
+    <t>PORCICOLA SAN BERNARDO  250</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LA GABY</t>
+  </si>
+  <si>
+    <t>CANALES 51</t>
+  </si>
+  <si>
+    <t>PORCICOLA SAN BERNARDO  251</t>
+  </si>
+  <si>
+    <t>CANALES 201</t>
+  </si>
+  <si>
+    <t>PORCICOLA SAN BERNARDO   250</t>
+  </si>
+  <si>
+    <t>CANALES  51</t>
+  </si>
+  <si>
+    <t>T-23</t>
+  </si>
+  <si>
+    <t>P-508</t>
+  </si>
+  <si>
+    <t>20161--6736</t>
+  </si>
+  <si>
+    <t>20132--10728.</t>
+  </si>
+  <si>
+    <t>20132--4689</t>
+  </si>
+  <si>
+    <t>20143--4694--NC-186</t>
+  </si>
+  <si>
+    <t>CANALES 50-2</t>
+  </si>
+  <si>
+    <t>20143--6733</t>
+  </si>
+  <si>
+    <t>20169--6737</t>
+  </si>
+  <si>
+    <t>20169--4706</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="513">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3338,6 +3380,105 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3356,99 +3497,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3506,12 +3554,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3840,18 +3883,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="456" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3865,22 +3908,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="479" t="s">
+      <c r="W1" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="480"/>
+      <c r="X1" s="458"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3934,10 +3977,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="481" t="s">
+      <c r="O3" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="482"/>
+      <c r="P3" s="460"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4481,7 +4524,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="483" t="s">
+      <c r="C12" s="461" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4545,7 +4588,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="484"/>
+      <c r="C13" s="462"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6547,13 +6590,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="462" t="s">
+      <c r="A56" s="473" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="464" t="s">
+      <c r="C56" s="475" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6564,7 +6607,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="466">
+      <c r="H56" s="467">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6593,11 +6636,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="463"/>
+      <c r="A57" s="474"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="465"/>
+      <c r="C57" s="476"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6606,7 +6649,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="467"/>
+      <c r="H57" s="468"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6633,13 +6676,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="462" t="s">
+      <c r="A58" s="473" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="464" t="s">
+      <c r="C58" s="475" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6650,7 +6693,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="466">
+      <c r="H58" s="467">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6669,10 +6712,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="468" t="s">
+      <c r="O58" s="469" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="489">
+      <c r="P58" s="471">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6683,11 +6726,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="463"/>
+      <c r="A59" s="474"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="465"/>
+      <c r="C59" s="476"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6696,7 +6739,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="467"/>
+      <c r="H59" s="468"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6713,8 +6756,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="469"/>
-      <c r="P59" s="490"/>
+      <c r="O59" s="470"/>
+      <c r="P59" s="472"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6723,13 +6766,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="487" t="s">
+      <c r="A60" s="465" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="485" t="s">
+      <c r="C60" s="463" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6743,7 +6786,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="466">
+      <c r="H60" s="467">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6762,10 +6805,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="468" t="s">
+      <c r="O60" s="469" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="489">
+      <c r="P60" s="471">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6778,11 +6821,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="488"/>
+      <c r="A61" s="466"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="486"/>
+      <c r="C61" s="464"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6794,7 +6837,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="467"/>
+      <c r="H61" s="468"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6811,8 +6854,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="469"/>
-      <c r="P61" s="490"/>
+      <c r="O61" s="470"/>
+      <c r="P61" s="472"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6878,7 +6921,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="456"/>
+      <c r="C63" s="489"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6886,7 +6929,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="458"/>
+      <c r="H63" s="491"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6915,7 +6958,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="457"/>
+      <c r="C64" s="490"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6923,7 +6966,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="459"/>
+      <c r="H64" s="492"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7101,8 +7144,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="460"/>
-      <c r="P68" s="454"/>
+      <c r="O68" s="481"/>
+      <c r="P68" s="487"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7136,8 +7179,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="461"/>
-      <c r="P69" s="455"/>
+      <c r="O69" s="482"/>
+      <c r="P69" s="488"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7627,8 +7670,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="460"/>
-      <c r="P82" s="474"/>
+      <c r="O82" s="481"/>
+      <c r="P82" s="483"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7660,8 +7703,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="461"/>
-      <c r="P83" s="475"/>
+      <c r="O83" s="482"/>
+      <c r="P83" s="484"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7693,8 +7736,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="460"/>
-      <c r="P84" s="474"/>
+      <c r="O84" s="481"/>
+      <c r="P84" s="483"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7726,8 +7769,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="461"/>
-      <c r="P85" s="475"/>
+      <c r="O85" s="482"/>
+      <c r="P85" s="484"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7885,8 +7928,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="476"/>
-      <c r="M90" s="477"/>
+      <c r="L90" s="485"/>
+      <c r="M90" s="486"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7918,8 +7961,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="476"/>
-      <c r="M91" s="477"/>
+      <c r="L91" s="485"/>
+      <c r="M91" s="486"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8122,8 +8165,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="460"/>
-      <c r="P97" s="470"/>
+      <c r="O97" s="481"/>
+      <c r="P97" s="477"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8155,8 +8198,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="461"/>
-      <c r="P98" s="471"/>
+      <c r="O98" s="482"/>
+      <c r="P98" s="478"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13548,11 +13591,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="472" t="s">
+      <c r="F262" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="472"/>
-      <c r="H262" s="473"/>
+      <c r="G262" s="479"/>
+      <c r="H262" s="480"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14126,6 +14169,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14139,22 +14198,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14169,10 +14212,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14201,49 +14244,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="456" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="497" t="s">
+      <c r="S1" s="499" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="497"/>
+      <c r="T1" s="499"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="479" t="s">
+      <c r="W1" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="480"/>
+      <c r="X1" s="458"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14251,8 +14294,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="498"/>
-      <c r="T2" s="498"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="500"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14297,10 +14340,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="481" t="s">
+      <c r="O3" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="482"/>
+      <c r="P3" s="460"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -16822,13 +16865,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="499" t="s">
+      <c r="A55" s="501" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="464" t="s">
+      <c r="C55" s="475" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -16839,7 +16882,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="458" t="s">
+      <c r="H55" s="491" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -16868,11 +16911,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="500"/>
+      <c r="A56" s="502"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="465"/>
+      <c r="C56" s="476"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16881,7 +16924,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="459"/>
+      <c r="H56" s="492"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16910,13 +16953,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="491" t="s">
+      <c r="A57" s="493" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="493" t="s">
+      <c r="C57" s="495" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -16927,7 +16970,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="458" t="s">
+      <c r="H57" s="491" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -16946,10 +16989,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="460" t="s">
+      <c r="O57" s="481" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="454">
+      <c r="P57" s="487">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -16960,11 +17003,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="492"/>
+      <c r="A58" s="494"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="494"/>
+      <c r="C58" s="496"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -16973,7 +17016,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="459"/>
+      <c r="H58" s="492"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -16990,8 +17033,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="495"/>
-      <c r="P58" s="496"/>
+      <c r="O58" s="497"/>
+      <c r="P58" s="498"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17017,7 +17060,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="458" t="s">
+      <c r="H59" s="491" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17061,7 +17104,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="459"/>
+      <c r="H60" s="492"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17268,10 +17311,10 @@
         <v>106</v>
       </c>
       <c r="B65" s="178" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C65" s="183" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D65" s="171"/>
       <c r="E65" s="60"/>
@@ -17300,10 +17343,10 @@
         <f t="shared" si="1"/>
         <v>18382</v>
       </c>
-      <c r="O65" s="510" t="s">
+      <c r="O65" s="454" t="s">
         <v>61</v>
       </c>
-      <c r="P65" s="511">
+      <c r="P65" s="455">
         <v>44643</v>
       </c>
       <c r="Q65" s="164"/>
@@ -17724,8 +17767,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="460"/>
-      <c r="P79" s="474"/>
+      <c r="O79" s="481"/>
+      <c r="P79" s="483"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17754,8 +17797,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="461"/>
-      <c r="P80" s="475"/>
+      <c r="O80" s="482"/>
+      <c r="P80" s="484"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17784,8 +17827,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="460"/>
-      <c r="P81" s="474"/>
+      <c r="O81" s="481"/>
+      <c r="P81" s="483"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17817,8 +17860,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="461"/>
-      <c r="P82" s="475"/>
+      <c r="O82" s="482"/>
+      <c r="P82" s="484"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -17976,8 +18019,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="476"/>
-      <c r="M87" s="477"/>
+      <c r="L87" s="485"/>
+      <c r="M87" s="486"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18009,8 +18052,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="476"/>
-      <c r="M88" s="477"/>
+      <c r="L88" s="485"/>
+      <c r="M88" s="486"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18213,8 +18256,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="460"/>
-      <c r="P94" s="470"/>
+      <c r="O94" s="481"/>
+      <c r="P94" s="477"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18246,8 +18289,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="461"/>
-      <c r="P95" s="471"/>
+      <c r="O95" s="482"/>
+      <c r="P95" s="478"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23639,11 +23682,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="472" t="s">
+      <c r="F259" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="472"/>
-      <c r="H259" s="473"/>
+      <c r="G259" s="479"/>
+      <c r="H259" s="480"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24217,12 +24260,10 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="H59:H60"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="A57:A58"/>
@@ -24234,10 +24275,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24252,10 +24295,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="M15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O18" sqref="O18"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24284,49 +24327,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="478" t="s">
+      <c r="A1" s="456" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="478"/>
-      <c r="C1" s="478"/>
-      <c r="D1" s="478"/>
-      <c r="E1" s="478"/>
-      <c r="F1" s="478"/>
-      <c r="G1" s="478"/>
-      <c r="H1" s="478"/>
-      <c r="I1" s="478"/>
-      <c r="J1" s="478"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="497" t="s">
+      <c r="S1" s="499" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="497"/>
+      <c r="T1" s="499"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="479" t="s">
+      <c r="W1" s="457" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="480"/>
+      <c r="X1" s="458"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="478"/>
-      <c r="B2" s="478"/>
-      <c r="C2" s="478"/>
-      <c r="D2" s="478"/>
-      <c r="E2" s="478"/>
-      <c r="F2" s="478"/>
-      <c r="G2" s="478"/>
-      <c r="H2" s="478"/>
-      <c r="I2" s="478"/>
-      <c r="J2" s="478"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24334,8 +24377,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="498"/>
-      <c r="T2" s="498"/>
+      <c r="S2" s="500"/>
+      <c r="T2" s="500"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24380,10 +24423,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="481" t="s">
+      <c r="O3" s="459" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="482"/>
+      <c r="P3" s="460"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24460,8 +24503,12 @@
       </c>
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="56"/>
+      <c r="W4" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="X4" s="56">
+        <v>4176</v>
+      </c>
     </row>
     <row r="5" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
@@ -24518,8 +24565,12 @@
       </c>
       <c r="U5" s="53"/>
       <c r="V5" s="54"/>
-      <c r="W5" s="68"/>
-      <c r="X5" s="69"/>
+      <c r="W5" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="X5" s="69">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="57" t="s">
@@ -24576,8 +24627,12 @@
       </c>
       <c r="U6" s="53"/>
       <c r="V6" s="54"/>
-      <c r="W6" s="53"/>
-      <c r="X6" s="70"/>
+      <c r="W6" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X6" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="7" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
@@ -24634,8 +24689,12 @@
       </c>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="70"/>
+      <c r="W7" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X7" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="57" t="s">
@@ -24692,8 +24751,12 @@
       </c>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="70"/>
+      <c r="W8" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X8" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="9" spans="1:24" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
@@ -24750,8 +24813,12 @@
       </c>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="70"/>
+      <c r="W9" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X9" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="10" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="71" t="s">
@@ -24808,8 +24875,12 @@
       </c>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="70"/>
+      <c r="W10" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X10" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="11" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="71" t="s">
@@ -24866,8 +24937,12 @@
       </c>
       <c r="U11" s="53"/>
       <c r="V11" s="54"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="70"/>
+      <c r="W11" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X11" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="12" spans="1:24" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="447" t="s">
@@ -24924,8 +24999,12 @@
       </c>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="70"/>
+      <c r="W12" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="X12" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71" t="s">
@@ -24982,8 +25061,12 @@
       </c>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="70"/>
+      <c r="W13" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X13" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="14" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
@@ -25040,8 +25123,12 @@
       </c>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="70"/>
+      <c r="W14" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X14" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
@@ -25060,7 +25147,7 @@
         <v>44630</v>
       </c>
       <c r="H15" s="410" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I15" s="411">
         <v>22670</v>
@@ -25098,8 +25185,12 @@
       </c>
       <c r="U15" s="53"/>
       <c r="V15" s="54"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="70"/>
+      <c r="W15" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X15" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="16" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71" t="s">
@@ -25118,7 +25209,7 @@
         <v>44630</v>
       </c>
       <c r="H16" s="410" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I16" s="411">
         <v>3295</v>
@@ -25156,8 +25247,12 @@
       </c>
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="70"/>
+      <c r="W16" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X16" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="75" t="s">
@@ -25176,7 +25271,7 @@
         <v>44631</v>
       </c>
       <c r="H17" s="410" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I17" s="411">
         <v>23900</v>
@@ -25214,8 +25309,12 @@
       </c>
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="70"/>
+      <c r="W17" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X17" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="18" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="78" t="s">
@@ -25234,7 +25333,7 @@
         <v>44631</v>
       </c>
       <c r="H18" s="410" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I18" s="411">
         <v>5360</v>
@@ -25272,10 +25371,14 @@
       </c>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="70"/>
-    </row>
-    <row r="19" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W18" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X18" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>20</v>
       </c>
@@ -25292,7 +25395,7 @@
         <v>44633</v>
       </c>
       <c r="H19" s="410" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="I19" s="411">
         <v>21835</v>
@@ -25310,8 +25413,12 @@
         <f t="shared" si="1"/>
         <v>709637.5</v>
       </c>
-      <c r="O19" s="397"/>
-      <c r="P19" s="398"/>
+      <c r="O19" s="397" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="398">
+        <v>44648</v>
+      </c>
       <c r="Q19" s="79">
         <v>25140</v>
       </c>
@@ -25326,8 +25433,12 @@
       </c>
       <c r="U19" s="53"/>
       <c r="V19" s="54"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="70"/>
+      <c r="W19" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X19" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="20" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="80" t="s">
@@ -25346,7 +25457,7 @@
         <v>44633</v>
       </c>
       <c r="H20" s="410" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="I20" s="411">
         <v>5600</v>
@@ -25364,8 +25475,12 @@
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
-      <c r="O20" s="89"/>
-      <c r="P20" s="90"/>
+      <c r="O20" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="90">
+        <v>44648</v>
+      </c>
       <c r="Q20" s="79">
         <v>0</v>
       </c>
@@ -25380,8 +25495,12 @@
       </c>
       <c r="U20" s="53"/>
       <c r="V20" s="54"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="70"/>
+      <c r="W20" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X20" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="78" t="s">
@@ -25400,7 +25519,7 @@
         <v>44635</v>
       </c>
       <c r="H21" s="410" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="I21" s="411">
         <v>22920</v>
@@ -25418,8 +25537,12 @@
         <f t="shared" si="1"/>
         <v>744900</v>
       </c>
-      <c r="O21" s="89"/>
-      <c r="P21" s="90"/>
+      <c r="O21" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="90">
+        <v>44649</v>
+      </c>
       <c r="Q21" s="79">
         <v>25240</v>
       </c>
@@ -25434,15 +25557,19 @@
       </c>
       <c r="U21" s="53"/>
       <c r="V21" s="54"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="70"/>
-    </row>
-    <row r="22" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W21" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X21" s="70">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
@@ -25454,14 +25581,15 @@
         <v>44635</v>
       </c>
       <c r="H22" s="410" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="I22" s="411">
-        <v>5365</v>
+        <f>5365-214.6</f>
+        <v>5150.3999999999996</v>
       </c>
       <c r="J22" s="45">
         <f t="shared" si="0"/>
-        <v>5365</v>
+        <v>5150.3999999999996</v>
       </c>
       <c r="K22" s="76">
         <v>32.5</v>
@@ -25470,10 +25598,14 @@
       <c r="M22" s="65"/>
       <c r="N22" s="48">
         <f t="shared" si="1"/>
-        <v>174362.5</v>
-      </c>
-      <c r="O22" s="89"/>
-      <c r="P22" s="90"/>
+        <v>167388</v>
+      </c>
+      <c r="O22" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="90">
+        <v>44649</v>
+      </c>
       <c r="Q22" s="79">
         <v>0</v>
       </c>
@@ -25488,8 +25620,12 @@
       </c>
       <c r="U22" s="53"/>
       <c r="V22" s="54"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="70"/>
+      <c r="W22" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X22" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="82" t="s">
@@ -25508,7 +25644,7 @@
         <v>44637</v>
       </c>
       <c r="H23" s="410" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="I23" s="411">
         <v>23330</v>
@@ -25526,8 +25662,12 @@
         <f t="shared" si="1"/>
         <v>769890</v>
       </c>
-      <c r="O23" s="89"/>
-      <c r="P23" s="90"/>
+      <c r="O23" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="90">
+        <v>44651</v>
+      </c>
       <c r="Q23" s="79">
         <v>25140</v>
       </c>
@@ -25542,8 +25682,12 @@
       </c>
       <c r="U23" s="53"/>
       <c r="V23" s="54"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="70"/>
+      <c r="W23" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X23" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="24" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="83" t="s">
@@ -25562,14 +25706,14 @@
         <v>44637</v>
       </c>
       <c r="H24" s="410" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I24" s="411">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="J24" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="K24" s="76">
         <v>33</v>
@@ -25578,10 +25722,14 @@
       <c r="M24" s="65"/>
       <c r="N24" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="397"/>
-      <c r="P24" s="90"/>
+        <v>179025</v>
+      </c>
+      <c r="O24" s="397" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="90">
+        <v>44651</v>
+      </c>
       <c r="Q24" s="79">
         <v>0</v>
       </c>
@@ -25596,8 +25744,12 @@
       </c>
       <c r="U24" s="53"/>
       <c r="V24" s="54"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="70"/>
+      <c r="W24" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X24" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71" t="s">
@@ -25616,7 +25768,7 @@
         <v>44638</v>
       </c>
       <c r="H25" s="410" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="I25" s="411">
         <v>21330</v>
@@ -25634,8 +25786,12 @@
         <f t="shared" si="1"/>
         <v>703890</v>
       </c>
-      <c r="O25" s="89"/>
-      <c r="P25" s="90"/>
+      <c r="O25" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="90">
+        <v>44651</v>
+      </c>
       <c r="Q25" s="79">
         <v>25140</v>
       </c>
@@ -25650,8 +25806,12 @@
       </c>
       <c r="U25" s="53"/>
       <c r="V25" s="54"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="70"/>
+      <c r="W25" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X25" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="26" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="82" t="s">
@@ -25670,14 +25830,14 @@
         <v>44638</v>
       </c>
       <c r="H26" s="410" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="I26" s="411">
-        <v>5375</v>
+        <v>5675</v>
       </c>
       <c r="J26" s="45">
         <f t="shared" si="0"/>
-        <v>5375</v>
+        <v>5675</v>
       </c>
       <c r="K26" s="76">
         <v>33</v>
@@ -25686,10 +25846,14 @@
       <c r="M26" s="65"/>
       <c r="N26" s="48">
         <f t="shared" si="1"/>
-        <v>177375</v>
-      </c>
-      <c r="O26" s="89"/>
-      <c r="P26" s="90"/>
+        <v>187275</v>
+      </c>
+      <c r="O26" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="90">
+        <v>44651</v>
+      </c>
       <c r="Q26" s="79">
         <v>0</v>
       </c>
@@ -25704,29 +25868,45 @@
       </c>
       <c r="U26" s="53"/>
       <c r="V26" s="54"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="70"/>
+      <c r="W26" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X26" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="58" t="s">
+        <v>31</v>
+      </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
       <c r="E27" s="40"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="62"/>
+      <c r="F27" s="61">
+        <v>22760</v>
+      </c>
+      <c r="G27" s="62">
+        <v>44640</v>
+      </c>
       <c r="H27" s="410"/>
-      <c r="I27" s="411"/>
+      <c r="I27" s="411">
+        <v>22460</v>
+      </c>
       <c r="J27" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="76"/>
+        <v>-300</v>
+      </c>
+      <c r="K27" s="76">
+        <v>33.5</v>
+      </c>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>752410</v>
       </c>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
@@ -25736,29 +25916,45 @@
       <c r="T27" s="92"/>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="70"/>
+      <c r="W27" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="28" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>254</v>
+      </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
+      <c r="F28" s="61">
+        <v>0</v>
+      </c>
+      <c r="G28" s="62">
+        <v>44640</v>
+      </c>
       <c r="H28" s="410"/>
-      <c r="I28" s="411"/>
+      <c r="I28" s="411">
+        <v>5885</v>
+      </c>
       <c r="J28" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="76"/>
+        <v>5885</v>
+      </c>
+      <c r="K28" s="76">
+        <v>33.5</v>
+      </c>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>197147.5</v>
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
@@ -25768,29 +25964,45 @@
       <c r="T28" s="92"/>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="70"/>
+      <c r="W28" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X28" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="93"/>
+      <c r="A29" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>256</v>
+      </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="61">
+        <v>22940</v>
+      </c>
+      <c r="G29" s="62">
+        <v>44642</v>
+      </c>
       <c r="H29" s="410"/>
-      <c r="I29" s="411"/>
+      <c r="I29" s="411">
+        <v>23180</v>
+      </c>
       <c r="J29" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="76"/>
+        <v>240</v>
+      </c>
+      <c r="K29" s="76">
+        <v>33.5</v>
+      </c>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>776530</v>
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
@@ -25800,29 +26012,45 @@
       <c r="T29" s="92"/>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="70"/>
+      <c r="W29" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X29" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="30" spans="1:24" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="61">
+        <v>0</v>
+      </c>
+      <c r="G30" s="62">
+        <v>44642</v>
+      </c>
       <c r="H30" s="410"/>
-      <c r="I30" s="411"/>
+      <c r="I30" s="411">
+        <v>5785</v>
+      </c>
       <c r="J30" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="76"/>
+        <v>5785</v>
+      </c>
+      <c r="K30" s="76">
+        <v>33.5</v>
+      </c>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>193797.5</v>
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="90"/>
@@ -25832,29 +26060,45 @@
       <c r="T30" s="92"/>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="70"/>
+      <c r="W30" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X30" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="71"/>
-      <c r="B31" s="93"/>
+      <c r="A31" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="61">
+        <v>21380</v>
+      </c>
+      <c r="G31" s="62">
+        <v>44644</v>
+      </c>
       <c r="H31" s="63"/>
-      <c r="I31" s="64"/>
+      <c r="I31" s="64">
+        <v>21470</v>
+      </c>
       <c r="J31" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="76"/>
+        <v>90</v>
+      </c>
+      <c r="K31" s="76">
+        <v>34</v>
+      </c>
       <c r="L31" s="65"/>
       <c r="M31" s="65"/>
       <c r="N31" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>729980</v>
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
@@ -25864,29 +26108,45 @@
       <c r="T31" s="92"/>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="70"/>
+      <c r="W31" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X31" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="32" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
-      <c r="B32" s="93"/>
+      <c r="A32" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="93" t="s">
+        <v>32</v>
+      </c>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="F32" s="61">
+        <v>0</v>
+      </c>
+      <c r="G32" s="62">
+        <v>44644</v>
+      </c>
       <c r="H32" s="63"/>
-      <c r="I32" s="64"/>
+      <c r="I32" s="64">
+        <v>5210</v>
+      </c>
       <c r="J32" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="76"/>
+        <v>5210</v>
+      </c>
+      <c r="K32" s="76">
+        <v>34</v>
+      </c>
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>177140</v>
       </c>
       <c r="O32" s="98"/>
       <c r="P32" s="90"/>
@@ -25896,29 +26156,45 @@
       <c r="T32" s="92"/>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
-      <c r="W32" s="53"/>
-      <c r="X32" s="70"/>
+      <c r="W32" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X32" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>40</v>
+      </c>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="F33" s="61">
+        <v>20770</v>
+      </c>
+      <c r="G33" s="62">
+        <v>44645</v>
+      </c>
       <c r="H33" s="63"/>
-      <c r="I33" s="64"/>
+      <c r="I33" s="64">
+        <v>20790</v>
+      </c>
       <c r="J33" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="76"/>
+        <v>20</v>
+      </c>
+      <c r="K33" s="76">
+        <v>34</v>
+      </c>
       <c r="L33" s="99"/>
       <c r="M33" s="99"/>
       <c r="N33" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>706860</v>
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="90"/>
@@ -25928,29 +26204,45 @@
       <c r="T33" s="92"/>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="70"/>
+      <c r="W33" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X33" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="34" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="82"/>
-      <c r="B34" s="93"/>
+      <c r="A34" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>258</v>
+      </c>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="F34" s="61">
+        <v>0</v>
+      </c>
+      <c r="G34" s="62">
+        <v>44645</v>
+      </c>
       <c r="H34" s="63"/>
-      <c r="I34" s="64"/>
+      <c r="I34" s="64">
+        <v>5360</v>
+      </c>
       <c r="J34" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K34" s="76"/>
+        <v>5360</v>
+      </c>
+      <c r="K34" s="76">
+        <v>34</v>
+      </c>
       <c r="L34" s="99"/>
       <c r="M34" s="99"/>
       <c r="N34" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>182240</v>
       </c>
       <c r="O34" s="98"/>
       <c r="P34" s="90"/>
@@ -25960,72 +26252,116 @@
       <c r="T34" s="92"/>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
-      <c r="W34" s="53"/>
-      <c r="X34" s="70"/>
+      <c r="W34" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X34" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="82"/>
-      <c r="B35" s="93"/>
+      <c r="A35" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="F35" s="61">
+        <v>22000</v>
+      </c>
+      <c r="G35" s="62">
+        <v>44647</v>
+      </c>
       <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
+      <c r="I35" s="64">
+        <v>22460</v>
+      </c>
       <c r="J35" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="100"/>
+        <v>460</v>
+      </c>
+      <c r="K35" s="100">
+        <v>34</v>
+      </c>
       <c r="L35" s="99"/>
       <c r="M35" s="99"/>
       <c r="N35" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>763640</v>
       </c>
       <c r="O35" s="98"/>
       <c r="P35" s="90"/>
       <c r="Q35" s="94"/>
       <c r="R35" s="95"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="92"/>
+      <c r="S35" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T35" s="92" t="s">
+        <v>259</v>
+      </c>
       <c r="U35" s="53"/>
       <c r="V35" s="54"/>
-      <c r="W35" s="53"/>
-      <c r="X35" s="70"/>
+      <c r="W35" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X35" s="70">
+        <v>4176</v>
+      </c>
     </row>
     <row r="36" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="93" t="s">
+        <v>37</v>
+      </c>
       <c r="C36" s="59"/>
       <c r="D36" s="60"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="61">
+        <v>0</v>
+      </c>
+      <c r="G36" s="62">
+        <v>44647</v>
+      </c>
       <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
+      <c r="I36" s="64">
+        <v>5885</v>
+      </c>
       <c r="J36" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="100"/>
+        <v>5885</v>
+      </c>
+      <c r="K36" s="100">
+        <v>34</v>
+      </c>
       <c r="L36" s="99"/>
       <c r="M36" s="99"/>
       <c r="N36" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>200090</v>
       </c>
       <c r="O36" s="98"/>
       <c r="P36" s="90"/>
       <c r="Q36" s="94"/>
       <c r="R36" s="95"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="92"/>
+      <c r="S36" s="91">
+        <v>0</v>
+      </c>
+      <c r="T36" s="92" t="s">
+        <v>259</v>
+      </c>
       <c r="U36" s="53"/>
       <c r="V36" s="54"/>
-      <c r="W36" s="53"/>
-      <c r="X36" s="70"/>
+      <c r="W36" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X36" s="70">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="71"/>
@@ -26056,8 +26392,12 @@
       <c r="T37" s="92"/>
       <c r="U37" s="53"/>
       <c r="V37" s="54"/>
-      <c r="W37" s="53"/>
-      <c r="X37" s="70"/>
+      <c r="W37" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X37" s="512">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="71"/>
@@ -26088,8 +26428,12 @@
       <c r="T38" s="92"/>
       <c r="U38" s="53"/>
       <c r="V38" s="54"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="70"/>
+      <c r="W38" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X38" s="512">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="71"/>
@@ -26120,8 +26464,12 @@
       <c r="T39" s="92"/>
       <c r="U39" s="53"/>
       <c r="V39" s="54"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="70"/>
+      <c r="W39" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X39" s="512">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="82"/>
@@ -26152,8 +26500,12 @@
       <c r="T40" s="92"/>
       <c r="U40" s="53"/>
       <c r="V40" s="54"/>
-      <c r="W40" s="53"/>
-      <c r="X40" s="70"/>
+      <c r="W40" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="X40" s="512">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="78"/>
@@ -26185,7 +26537,9 @@
       <c r="U41" s="53"/>
       <c r="V41" s="54"/>
       <c r="W41" s="105"/>
-      <c r="X41" s="106"/>
+      <c r="X41" s="106">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="107"/>
@@ -26220,7 +26574,10 @@
       <c r="U42" s="53"/>
       <c r="V42" s="54"/>
       <c r="W42" s="105"/>
-      <c r="X42" s="110"/>
+      <c r="X42" s="110">
+        <f>SUM(X4:X41)</f>
+        <v>75168</v>
+      </c>
     </row>
     <row r="43" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="57"/>
@@ -26631,13 +26988,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="499" t="s">
+      <c r="A55" s="501" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="464" t="s">
+      <c r="C55" s="475" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -26648,7 +27005,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="502" t="s">
+      <c r="H55" s="504" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="151">
@@ -26667,10 +27024,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="460" t="s">
+      <c r="O55" s="481" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="454">
+      <c r="P55" s="487">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -26681,11 +27038,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="501"/>
+      <c r="A56" s="503"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="465"/>
+      <c r="C56" s="476"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -26694,7 +27051,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="503"/>
+      <c r="H56" s="505"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -26711,8 +27068,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="461"/>
-      <c r="P56" s="455"/>
+      <c r="O56" s="482"/>
+      <c r="P56" s="488"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -26883,14 +27240,14 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="504" t="s">
+      <c r="A62" s="506" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
-        <v>246</v>
-      </c>
-      <c r="C62" s="506" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+      <c r="C62" s="508" t="s">
+        <v>244</v>
       </c>
       <c r="D62" s="168"/>
       <c r="E62" s="60"/>
@@ -26900,7 +27257,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="508">
+      <c r="H62" s="510">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -26919,10 +27276,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="460" t="s">
+      <c r="O62" s="481" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="454">
+      <c r="P62" s="487">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -26933,11 +27290,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="505"/>
+      <c r="A63" s="507"/>
       <c r="B63" s="178" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="507"/>
+        <v>245</v>
+      </c>
+      <c r="C63" s="509"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -26946,7 +27303,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="509"/>
+      <c r="H63" s="511"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -26963,8 +27320,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="461"/>
-      <c r="P63" s="455"/>
+      <c r="O63" s="482"/>
+      <c r="P63" s="488"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -27443,8 +27800,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="460"/>
-      <c r="P79" s="474"/>
+      <c r="O79" s="481"/>
+      <c r="P79" s="483"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -27473,8 +27830,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="461"/>
-      <c r="P80" s="475"/>
+      <c r="O80" s="482"/>
+      <c r="P80" s="484"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -27503,8 +27860,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="460"/>
-      <c r="P81" s="474"/>
+      <c r="O81" s="481"/>
+      <c r="P81" s="483"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -27536,8 +27893,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="461"/>
-      <c r="P82" s="475"/>
+      <c r="O82" s="482"/>
+      <c r="P82" s="484"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -27695,8 +28052,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="476"/>
-      <c r="M87" s="477"/>
+      <c r="L87" s="485"/>
+      <c r="M87" s="486"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27728,8 +28085,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="476"/>
-      <c r="M88" s="477"/>
+      <c r="L88" s="485"/>
+      <c r="M88" s="486"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -27932,8 +28289,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="460"/>
-      <c r="P94" s="470"/>
+      <c r="O94" s="481"/>
+      <c r="P94" s="477"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -27965,8 +28322,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="461"/>
-      <c r="P95" s="471"/>
+      <c r="O95" s="482"/>
+      <c r="P95" s="478"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -33358,14 +33715,14 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="472" t="s">
+      <c r="F259" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="472"/>
-      <c r="H259" s="473"/>
+      <c r="G259" s="479"/>
+      <c r="H259" s="480"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>316010.99999999994</v>
+        <v>460006.39999999997</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -33464,7 +33821,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>10440498.4</v>
+        <v>15302283.9</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -33474,7 +33831,7 @@
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>56000</v>
+        <v>67200</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -33524,7 +33881,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>10771358.4</v>
+        <v>15644343.9</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -33936,6 +34293,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -33951,13 +34315,6 @@
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="277">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -834,6 +834,30 @@
   </si>
   <si>
     <t>20169--4706</t>
+  </si>
+  <si>
+    <t>T-22</t>
+  </si>
+  <si>
+    <t>T-21</t>
+  </si>
+  <si>
+    <t>T-20</t>
+  </si>
+  <si>
+    <t>T-19</t>
+  </si>
+  <si>
+    <t>20173--</t>
+  </si>
+  <si>
+    <t>20187--</t>
+  </si>
+  <si>
+    <t>20208--</t>
+  </si>
+  <si>
+    <t>20215--</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="513">
+  <cellXfs count="514">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3386,6 +3410,7 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3554,7 +3579,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3883,18 +3908,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="457" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3908,22 +3933,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="459"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="457"/>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -3977,10 +4002,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="461"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4524,7 +4549,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="461" t="s">
+      <c r="C12" s="462" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4588,7 +4613,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="462"/>
+      <c r="C13" s="463"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6590,13 +6615,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="473" t="s">
+      <c r="A56" s="474" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="475" t="s">
+      <c r="C56" s="476" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6607,7 +6632,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="467">
+      <c r="H56" s="468">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6636,11 +6661,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="474"/>
+      <c r="A57" s="475"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="476"/>
+      <c r="C57" s="477"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6649,7 +6674,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="468"/>
+      <c r="H57" s="469"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6676,13 +6701,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="473" t="s">
+      <c r="A58" s="474" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="475" t="s">
+      <c r="C58" s="476" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6693,7 +6718,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="467">
+      <c r="H58" s="468">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6712,10 +6737,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="469" t="s">
+      <c r="O58" s="470" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="471">
+      <c r="P58" s="472">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6726,11 +6751,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="474"/>
+      <c r="A59" s="475"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="476"/>
+      <c r="C59" s="477"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6739,7 +6764,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="468"/>
+      <c r="H59" s="469"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6756,8 +6781,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="470"/>
-      <c r="P59" s="472"/>
+      <c r="O59" s="471"/>
+      <c r="P59" s="473"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6766,13 +6791,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="465" t="s">
+      <c r="A60" s="466" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="463" t="s">
+      <c r="C60" s="464" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6786,7 +6811,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="467">
+      <c r="H60" s="468">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6805,10 +6830,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="469" t="s">
+      <c r="O60" s="470" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="471">
+      <c r="P60" s="472">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6821,11 +6846,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="466"/>
+      <c r="A61" s="467"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="464"/>
+      <c r="C61" s="465"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6837,7 +6862,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="468"/>
+      <c r="H61" s="469"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6854,8 +6879,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="470"/>
-      <c r="P61" s="472"/>
+      <c r="O61" s="471"/>
+      <c r="P61" s="473"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6921,7 +6946,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="489"/>
+      <c r="C63" s="490"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6929,7 +6954,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="491"/>
+      <c r="H63" s="492"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6958,7 +6983,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="490"/>
+      <c r="C64" s="491"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6966,7 +6991,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="492"/>
+      <c r="H64" s="493"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7144,8 +7169,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="481"/>
-      <c r="P68" s="487"/>
+      <c r="O68" s="482"/>
+      <c r="P68" s="488"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7179,8 +7204,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="482"/>
-      <c r="P69" s="488"/>
+      <c r="O69" s="483"/>
+      <c r="P69" s="489"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7670,8 +7695,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="481"/>
-      <c r="P82" s="483"/>
+      <c r="O82" s="482"/>
+      <c r="P82" s="484"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7703,8 +7728,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="482"/>
-      <c r="P83" s="484"/>
+      <c r="O83" s="483"/>
+      <c r="P83" s="485"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7736,8 +7761,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="481"/>
-      <c r="P84" s="483"/>
+      <c r="O84" s="482"/>
+      <c r="P84" s="484"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7769,8 +7794,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="482"/>
-      <c r="P85" s="484"/>
+      <c r="O85" s="483"/>
+      <c r="P85" s="485"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7928,8 +7953,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="485"/>
-      <c r="M90" s="486"/>
+      <c r="L90" s="486"/>
+      <c r="M90" s="487"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7961,8 +7986,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="485"/>
-      <c r="M91" s="486"/>
+      <c r="L91" s="486"/>
+      <c r="M91" s="487"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8165,8 +8190,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="481"/>
-      <c r="P97" s="477"/>
+      <c r="O97" s="482"/>
+      <c r="P97" s="478"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8198,8 +8223,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="482"/>
-      <c r="P98" s="478"/>
+      <c r="O98" s="483"/>
+      <c r="P98" s="479"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13591,11 +13616,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="479" t="s">
+      <c r="F262" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="479"/>
-      <c r="H262" s="480"/>
+      <c r="G262" s="480"/>
+      <c r="H262" s="481"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14244,49 +14269,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="457" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="499" t="s">
+      <c r="S1" s="500" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="499"/>
+      <c r="T1" s="500"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="459"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="457"/>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14294,8 +14319,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
+      <c r="S2" s="501"/>
+      <c r="T2" s="501"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14340,10 +14365,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="461"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -16865,13 +16890,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="501" t="s">
+      <c r="A55" s="502" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="475" t="s">
+      <c r="C55" s="476" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -16882,7 +16907,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="491" t="s">
+      <c r="H55" s="492" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -16911,11 +16936,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="502"/>
+      <c r="A56" s="503"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="476"/>
+      <c r="C56" s="477"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16924,7 +16949,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="492"/>
+      <c r="H56" s="493"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16953,13 +16978,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="493" t="s">
+      <c r="A57" s="494" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="495" t="s">
+      <c r="C57" s="496" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -16970,7 +16995,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="491" t="s">
+      <c r="H57" s="492" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -16989,10 +17014,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="481" t="s">
+      <c r="O57" s="482" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="487">
+      <c r="P57" s="488">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17003,11 +17028,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="494"/>
+      <c r="A58" s="495"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="496"/>
+      <c r="C58" s="497"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17016,7 +17041,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="492"/>
+      <c r="H58" s="493"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17033,8 +17058,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="497"/>
-      <c r="P58" s="498"/>
+      <c r="O58" s="498"/>
+      <c r="P58" s="499"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17060,7 +17085,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="491" t="s">
+      <c r="H59" s="492" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17104,7 +17129,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="492"/>
+      <c r="H60" s="493"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17767,8 +17792,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="481"/>
-      <c r="P79" s="483"/>
+      <c r="O79" s="482"/>
+      <c r="P79" s="484"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17797,8 +17822,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="482"/>
-      <c r="P80" s="484"/>
+      <c r="O80" s="483"/>
+      <c r="P80" s="485"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17827,8 +17852,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="481"/>
-      <c r="P81" s="483"/>
+      <c r="O81" s="482"/>
+      <c r="P81" s="484"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17860,8 +17885,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="482"/>
-      <c r="P82" s="484"/>
+      <c r="O82" s="483"/>
+      <c r="P82" s="485"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18019,8 +18044,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="485"/>
-      <c r="M87" s="486"/>
+      <c r="L87" s="486"/>
+      <c r="M87" s="487"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18052,8 +18077,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="485"/>
-      <c r="M88" s="486"/>
+      <c r="L88" s="486"/>
+      <c r="M88" s="487"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18256,8 +18281,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="481"/>
-      <c r="P94" s="477"/>
+      <c r="O94" s="482"/>
+      <c r="P94" s="478"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18289,8 +18314,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="482"/>
-      <c r="P95" s="478"/>
+      <c r="O95" s="483"/>
+      <c r="P95" s="479"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23682,11 +23707,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="479" t="s">
+      <c r="F259" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="479"/>
-      <c r="H259" s="480"/>
+      <c r="G259" s="480"/>
+      <c r="H259" s="481"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24295,10 +24320,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G32:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24327,49 +24352,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="456" t="s">
+      <c r="A1" s="457" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="456"/>
-      <c r="C1" s="456"/>
-      <c r="D1" s="456"/>
-      <c r="E1" s="456"/>
-      <c r="F1" s="456"/>
-      <c r="G1" s="456"/>
-      <c r="H1" s="456"/>
-      <c r="I1" s="456"/>
-      <c r="J1" s="456"/>
+      <c r="B1" s="457"/>
+      <c r="C1" s="457"/>
+      <c r="D1" s="457"/>
+      <c r="E1" s="457"/>
+      <c r="F1" s="457"/>
+      <c r="G1" s="457"/>
+      <c r="H1" s="457"/>
+      <c r="I1" s="457"/>
+      <c r="J1" s="457"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="499" t="s">
+      <c r="S1" s="500" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="499"/>
+      <c r="T1" s="500"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="457" t="s">
+      <c r="W1" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="458"/>
+      <c r="X1" s="459"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="456"/>
-      <c r="B2" s="456"/>
-      <c r="C2" s="456"/>
-      <c r="D2" s="456"/>
-      <c r="E2" s="456"/>
-      <c r="F2" s="456"/>
-      <c r="G2" s="456"/>
-      <c r="H2" s="456"/>
-      <c r="I2" s="456"/>
-      <c r="J2" s="456"/>
+      <c r="A2" s="457"/>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24377,8 +24402,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="500"/>
-      <c r="T2" s="500"/>
+      <c r="S2" s="501"/>
+      <c r="T2" s="501"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24423,10 +24448,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="459" t="s">
+      <c r="O3" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="460"/>
+      <c r="P3" s="461"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -25891,7 +25916,9 @@
       <c r="G27" s="62">
         <v>44640</v>
       </c>
-      <c r="H27" s="410"/>
+      <c r="H27" s="410" t="s">
+        <v>273</v>
+      </c>
       <c r="I27" s="411">
         <v>22460</v>
       </c>
@@ -25910,10 +25937,18 @@
       </c>
       <c r="O27" s="89"/>
       <c r="P27" s="90"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="91"/>
-      <c r="T27" s="92"/>
+      <c r="Q27" s="79">
+        <v>25240</v>
+      </c>
+      <c r="R27" s="67">
+        <v>44645</v>
+      </c>
+      <c r="S27" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T27" s="92" t="s">
+        <v>272</v>
+      </c>
       <c r="U27" s="53"/>
       <c r="V27" s="54"/>
       <c r="W27" s="53" t="s">
@@ -25939,7 +25974,9 @@
       <c r="G28" s="62">
         <v>44640</v>
       </c>
-      <c r="H28" s="410"/>
+      <c r="H28" s="410" t="s">
+        <v>273</v>
+      </c>
       <c r="I28" s="411">
         <v>5885</v>
       </c>
@@ -25958,10 +25995,18 @@
       </c>
       <c r="O28" s="89"/>
       <c r="P28" s="90"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="91"/>
-      <c r="T28" s="92"/>
+      <c r="Q28" s="66">
+        <v>0</v>
+      </c>
+      <c r="R28" s="67">
+        <v>44645</v>
+      </c>
+      <c r="S28" s="91">
+        <v>0</v>
+      </c>
+      <c r="T28" s="92" t="s">
+        <v>272</v>
+      </c>
       <c r="U28" s="53"/>
       <c r="V28" s="54"/>
       <c r="W28" s="53" t="s">
@@ -25987,7 +26032,9 @@
       <c r="G29" s="62">
         <v>44642</v>
       </c>
-      <c r="H29" s="410"/>
+      <c r="H29" s="410" t="s">
+        <v>274</v>
+      </c>
       <c r="I29" s="411">
         <v>23180</v>
       </c>
@@ -26006,10 +26053,18 @@
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="92"/>
+      <c r="Q29" s="513">
+        <v>25280</v>
+      </c>
+      <c r="R29" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S29" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T29" s="92" t="s">
+        <v>271</v>
+      </c>
       <c r="U29" s="53"/>
       <c r="V29" s="54"/>
       <c r="W29" s="53" t="s">
@@ -26035,7 +26090,9 @@
       <c r="G30" s="62">
         <v>44642</v>
       </c>
-      <c r="H30" s="410"/>
+      <c r="H30" s="410" t="s">
+        <v>274</v>
+      </c>
       <c r="I30" s="411">
         <v>5785</v>
       </c>
@@ -26054,10 +26111,18 @@
       </c>
       <c r="O30" s="89"/>
       <c r="P30" s="90"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="91"/>
-      <c r="T30" s="92"/>
+      <c r="Q30" s="94">
+        <v>0</v>
+      </c>
+      <c r="R30" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S30" s="91">
+        <v>0</v>
+      </c>
+      <c r="T30" s="92" t="s">
+        <v>271</v>
+      </c>
       <c r="U30" s="53"/>
       <c r="V30" s="54"/>
       <c r="W30" s="53" t="s">
@@ -26083,7 +26148,9 @@
       <c r="G31" s="62">
         <v>44644</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="63" t="s">
+        <v>275</v>
+      </c>
       <c r="I31" s="64">
         <v>21470</v>
       </c>
@@ -26102,10 +26169,18 @@
       </c>
       <c r="O31" s="89"/>
       <c r="P31" s="90"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="91"/>
-      <c r="T31" s="92"/>
+      <c r="Q31" s="94">
+        <v>25140</v>
+      </c>
+      <c r="R31" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S31" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T31" s="92" t="s">
+        <v>270</v>
+      </c>
       <c r="U31" s="53"/>
       <c r="V31" s="54"/>
       <c r="W31" s="53" t="s">
@@ -26131,7 +26206,9 @@
       <c r="G32" s="62">
         <v>44644</v>
       </c>
-      <c r="H32" s="63"/>
+      <c r="H32" s="63" t="s">
+        <v>275</v>
+      </c>
       <c r="I32" s="64">
         <v>5210</v>
       </c>
@@ -26150,10 +26227,18 @@
       </c>
       <c r="O32" s="98"/>
       <c r="P32" s="90"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="91"/>
-      <c r="T32" s="92"/>
+      <c r="Q32" s="94">
+        <v>0</v>
+      </c>
+      <c r="R32" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S32" s="91">
+        <v>0</v>
+      </c>
+      <c r="T32" s="92" t="s">
+        <v>270</v>
+      </c>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="53" t="s">
@@ -26179,7 +26264,9 @@
       <c r="G33" s="62">
         <v>44645</v>
       </c>
-      <c r="H33" s="63"/>
+      <c r="H33" s="63" t="s">
+        <v>276</v>
+      </c>
       <c r="I33" s="64">
         <v>20790</v>
       </c>
@@ -26198,10 +26285,18 @@
       </c>
       <c r="O33" s="98"/>
       <c r="P33" s="90"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="91"/>
-      <c r="T33" s="92"/>
+      <c r="Q33" s="94">
+        <v>25240</v>
+      </c>
+      <c r="R33" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S33" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T33" s="92" t="s">
+        <v>269</v>
+      </c>
       <c r="U33" s="53"/>
       <c r="V33" s="54"/>
       <c r="W33" s="53" t="s">
@@ -26227,7 +26322,9 @@
       <c r="G34" s="62">
         <v>44645</v>
       </c>
-      <c r="H34" s="63"/>
+      <c r="H34" s="63" t="s">
+        <v>276</v>
+      </c>
       <c r="I34" s="64">
         <v>5360</v>
       </c>
@@ -26246,10 +26343,18 @@
       </c>
       <c r="O34" s="98"/>
       <c r="P34" s="90"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="92"/>
+      <c r="Q34" s="94">
+        <v>0</v>
+      </c>
+      <c r="R34" s="95">
+        <v>44645</v>
+      </c>
+      <c r="S34" s="91">
+        <v>0</v>
+      </c>
+      <c r="T34" s="92" t="s">
+        <v>269</v>
+      </c>
       <c r="U34" s="53"/>
       <c r="V34" s="54"/>
       <c r="W34" s="53" t="s">
@@ -26395,7 +26500,7 @@
       <c r="W37" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X37" s="512">
+      <c r="X37" s="456">
         <v>0</v>
       </c>
     </row>
@@ -26431,7 +26536,7 @@
       <c r="W38" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X38" s="512">
+      <c r="X38" s="456">
         <v>0</v>
       </c>
     </row>
@@ -26467,7 +26572,7 @@
       <c r="W39" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X39" s="512">
+      <c r="X39" s="456">
         <v>0</v>
       </c>
     </row>
@@ -26503,7 +26608,7 @@
       <c r="W40" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X40" s="512">
+      <c r="X40" s="456">
         <v>0</v>
       </c>
     </row>
@@ -26988,13 +27093,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="501" t="s">
+      <c r="A55" s="502" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="475" t="s">
+      <c r="C55" s="476" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -27005,7 +27110,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="504" t="s">
+      <c r="H55" s="505" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="151">
@@ -27024,10 +27129,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="481" t="s">
+      <c r="O55" s="482" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="487">
+      <c r="P55" s="488">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27038,11 +27143,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="503"/>
+      <c r="A56" s="504"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="476"/>
+      <c r="C56" s="477"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27051,7 +27156,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="505"/>
+      <c r="H56" s="506"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -27068,8 +27173,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="482"/>
-      <c r="P56" s="488"/>
+      <c r="O56" s="483"/>
+      <c r="P56" s="489"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27240,13 +27345,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="506" t="s">
+      <c r="A62" s="507" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="508" t="s">
+      <c r="C62" s="509" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="168"/>
@@ -27257,7 +27362,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="510">
+      <c r="H62" s="511">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -27276,10 +27381,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="481" t="s">
+      <c r="O62" s="482" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="487">
+      <c r="P62" s="488">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -27290,11 +27395,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="507"/>
+      <c r="A63" s="508"/>
       <c r="B63" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="509"/>
+      <c r="C63" s="510"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -27303,7 +27408,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="511"/>
+      <c r="H63" s="512"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -27320,8 +27425,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="482"/>
-      <c r="P63" s="488"/>
+      <c r="O63" s="483"/>
+      <c r="P63" s="489"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -27800,8 +27905,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="481"/>
-      <c r="P79" s="483"/>
+      <c r="O79" s="482"/>
+      <c r="P79" s="484"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -27830,8 +27935,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="482"/>
-      <c r="P80" s="484"/>
+      <c r="O80" s="483"/>
+      <c r="P80" s="485"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -27860,8 +27965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="481"/>
-      <c r="P81" s="483"/>
+      <c r="O81" s="482"/>
+      <c r="P81" s="484"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -27893,8 +27998,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="482"/>
-      <c r="P82" s="484"/>
+      <c r="O82" s="483"/>
+      <c r="P82" s="485"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28052,8 +28157,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="485"/>
-      <c r="M87" s="486"/>
+      <c r="L87" s="486"/>
+      <c r="M87" s="487"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28085,8 +28190,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="485"/>
-      <c r="M88" s="486"/>
+      <c r="L88" s="486"/>
+      <c r="M88" s="487"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28289,8 +28394,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="481"/>
-      <c r="P94" s="477"/>
+      <c r="O94" s="482"/>
+      <c r="P94" s="478"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -28322,8 +28427,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="482"/>
-      <c r="P95" s="478"/>
+      <c r="O95" s="483"/>
+      <c r="P95" s="479"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -33715,11 +33820,11 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="479" t="s">
+      <c r="F259" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="479"/>
-      <c r="H259" s="480"/>
+      <c r="G259" s="480"/>
+      <c r="H259" s="481"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>460006.39999999997</v>
@@ -33826,12 +33931,12 @@
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
         <f>SUM(Q4:Q262)</f>
-        <v>274860</v>
+        <v>375760</v>
       </c>
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>67200</v>
+        <v>112000</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -33881,7 +33986,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>15644343.9</v>
+        <v>15790043.9</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="286">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -859,6 +859,33 @@
   <si>
     <t>20215--</t>
   </si>
+  <si>
+    <t>AGROPECUARIA LA GABY   236</t>
+  </si>
+  <si>
+    <t>CANALES  36</t>
+  </si>
+  <si>
+    <t>AGROPECUARIA LAS RESES   250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGROPECUARIA LAS RESES     </t>
+  </si>
+  <si>
+    <t>CANALES  60</t>
+  </si>
+  <si>
+    <t>D-3740</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>D-3801</t>
+  </si>
+  <si>
+    <t>T-24</t>
+  </si>
 </sst>
 </file>
 
@@ -871,7 +898,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,6 +1292,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2177,7 +2212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3410,7 +3445,87 @@
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3444,84 +3559,12 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3579,7 +3622,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3908,18 +3950,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="485" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3933,22 +3975,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="458" t="s">
+      <c r="W1" s="486" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="459"/>
+      <c r="X1" s="487"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="457"/>
-      <c r="B2" s="457"/>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="457"/>
-      <c r="G2" s="457"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="457"/>
-      <c r="J2" s="457"/>
+      <c r="A2" s="485"/>
+      <c r="B2" s="485"/>
+      <c r="C2" s="485"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4002,10 +4044,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="460" t="s">
+      <c r="O3" s="488" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="461"/>
+      <c r="P3" s="489"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4549,7 +4591,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="462" t="s">
+      <c r="C12" s="490" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4613,7 +4655,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="463"/>
+      <c r="C13" s="491"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6615,13 +6657,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="474" t="s">
+      <c r="A56" s="469" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="476" t="s">
+      <c r="C56" s="471" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6632,7 +6674,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="468">
+      <c r="H56" s="473">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6661,11 +6703,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="475"/>
+      <c r="A57" s="470"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="477"/>
+      <c r="C57" s="472"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6674,7 +6716,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="469"/>
+      <c r="H57" s="474"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6701,13 +6743,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="474" t="s">
+      <c r="A58" s="469" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="476" t="s">
+      <c r="C58" s="471" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6718,7 +6760,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="468">
+      <c r="H58" s="473">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6737,10 +6779,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="470" t="s">
+      <c r="O58" s="475" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="472">
+      <c r="P58" s="496">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6751,11 +6793,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="475"/>
+      <c r="A59" s="470"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="477"/>
+      <c r="C59" s="472"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6764,7 +6806,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="469"/>
+      <c r="H59" s="474"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6781,8 +6823,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="471"/>
-      <c r="P59" s="473"/>
+      <c r="O59" s="476"/>
+      <c r="P59" s="497"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6791,13 +6833,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="466" t="s">
+      <c r="A60" s="494" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="464" t="s">
+      <c r="C60" s="492" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6811,7 +6853,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="468">
+      <c r="H60" s="473">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6830,10 +6872,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="470" t="s">
+      <c r="O60" s="475" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="472">
+      <c r="P60" s="496">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6846,11 +6888,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="467"/>
+      <c r="A61" s="495"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="465"/>
+      <c r="C61" s="493"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6862,7 +6904,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="469"/>
+      <c r="H61" s="474"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6879,8 +6921,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="471"/>
-      <c r="P61" s="473"/>
+      <c r="O61" s="476"/>
+      <c r="P61" s="497"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6946,7 +6988,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="490"/>
+      <c r="C63" s="463"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6954,7 +6996,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="492"/>
+      <c r="H63" s="465"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -6983,7 +7025,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="491"/>
+      <c r="C64" s="464"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -6991,7 +7033,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="493"/>
+      <c r="H64" s="466"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7169,8 +7211,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="482"/>
-      <c r="P68" s="488"/>
+      <c r="O68" s="467"/>
+      <c r="P68" s="461"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7204,8 +7246,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="483"/>
-      <c r="P69" s="489"/>
+      <c r="O69" s="468"/>
+      <c r="P69" s="462"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7695,8 +7737,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="482"/>
-      <c r="P82" s="484"/>
+      <c r="O82" s="467"/>
+      <c r="P82" s="481"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7728,8 +7770,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="483"/>
-      <c r="P83" s="485"/>
+      <c r="O83" s="468"/>
+      <c r="P83" s="482"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7761,8 +7803,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="482"/>
-      <c r="P84" s="484"/>
+      <c r="O84" s="467"/>
+      <c r="P84" s="481"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7794,8 +7836,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="483"/>
-      <c r="P85" s="485"/>
+      <c r="O85" s="468"/>
+      <c r="P85" s="482"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7953,8 +7995,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="486"/>
-      <c r="M90" s="487"/>
+      <c r="L90" s="483"/>
+      <c r="M90" s="484"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -7986,8 +8028,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="486"/>
-      <c r="M91" s="487"/>
+      <c r="L91" s="483"/>
+      <c r="M91" s="484"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8190,8 +8232,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="482"/>
-      <c r="P97" s="478"/>
+      <c r="O97" s="467"/>
+      <c r="P97" s="477"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8223,8 +8265,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="483"/>
-      <c r="P98" s="479"/>
+      <c r="O98" s="468"/>
+      <c r="P98" s="478"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13616,11 +13658,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="480" t="s">
+      <c r="F262" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="480"/>
-      <c r="H262" s="481"/>
+      <c r="G262" s="479"/>
+      <c r="H262" s="480"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14194,22 +14236,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14223,6 +14249,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14237,10 +14279,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14269,49 +14311,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="485" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="500" t="s">
+      <c r="S1" s="504" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="500"/>
+      <c r="T1" s="504"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="458" t="s">
+      <c r="W1" s="486" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="459"/>
+      <c r="X1" s="487"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="457"/>
-      <c r="B2" s="457"/>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="457"/>
-      <c r="G2" s="457"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="457"/>
-      <c r="J2" s="457"/>
+      <c r="A2" s="485"/>
+      <c r="B2" s="485"/>
+      <c r="C2" s="485"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14319,8 +14361,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="501"/>
+      <c r="S2" s="505"/>
+      <c r="T2" s="505"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14365,10 +14407,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="460" t="s">
+      <c r="O3" s="488" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="461"/>
+      <c r="P3" s="489"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -14441,8 +14483,12 @@
       </c>
       <c r="S4" s="51"/>
       <c r="T4" s="52"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="54"/>
+      <c r="U4" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V4" s="54">
+        <v>5104</v>
+      </c>
       <c r="W4" s="55" t="s">
         <v>173</v>
       </c>
@@ -14501,8 +14547,12 @@
       </c>
       <c r="S5" s="51"/>
       <c r="T5" s="52"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V5" s="54">
+        <v>0</v>
+      </c>
       <c r="W5" s="68" t="s">
         <v>173</v>
       </c>
@@ -14561,8 +14611,12 @@
       </c>
       <c r="S6" s="51"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
-      <c r="V6" s="54"/>
+      <c r="U6" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="V6" s="54">
+        <v>0</v>
+      </c>
       <c r="W6" s="53" t="s">
         <v>56</v>
       </c>
@@ -14621,8 +14675,12 @@
       </c>
       <c r="S7" s="51"/>
       <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="54"/>
+      <c r="U7" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V7" s="54">
+        <v>5104</v>
+      </c>
       <c r="W7" s="53" t="s">
         <v>173</v>
       </c>
@@ -14681,8 +14739,12 @@
       </c>
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="54"/>
+      <c r="U8" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V8" s="54">
+        <v>0</v>
+      </c>
       <c r="W8" s="53" t="s">
         <v>173</v>
       </c>
@@ -14741,8 +14803,12 @@
       </c>
       <c r="S9" s="51"/>
       <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="54"/>
+      <c r="U9" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V9" s="54">
+        <v>5104</v>
+      </c>
       <c r="W9" s="53" t="s">
         <v>173</v>
       </c>
@@ -14801,8 +14867,12 @@
       </c>
       <c r="S10" s="51"/>
       <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
+      <c r="U10" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V10" s="54">
+        <v>0</v>
+      </c>
       <c r="W10" s="53" t="s">
         <v>173</v>
       </c>
@@ -14861,8 +14931,12 @@
       </c>
       <c r="S11" s="51"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="54"/>
+      <c r="U11" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V11" s="54">
+        <v>5104</v>
+      </c>
       <c r="W11" s="53" t="s">
         <v>173</v>
       </c>
@@ -14921,8 +14995,12 @@
       </c>
       <c r="S12" s="51"/>
       <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="54"/>
+      <c r="U12" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V12" s="54">
+        <v>0</v>
+      </c>
       <c r="W12" s="53" t="s">
         <v>173</v>
       </c>
@@ -14981,8 +15059,12 @@
       </c>
       <c r="S13" s="51"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="54"/>
+      <c r="U13" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V13" s="54">
+        <v>5104</v>
+      </c>
       <c r="W13" s="53" t="s">
         <v>173</v>
       </c>
@@ -15041,8 +15123,12 @@
       </c>
       <c r="S14" s="51"/>
       <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="54"/>
+      <c r="U14" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V14" s="54">
+        <v>0</v>
+      </c>
       <c r="W14" s="53" t="s">
         <v>173</v>
       </c>
@@ -15101,8 +15187,12 @@
       </c>
       <c r="S15" s="51"/>
       <c r="T15" s="92"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54"/>
+      <c r="U15" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V15" s="54">
+        <v>4640</v>
+      </c>
       <c r="W15" s="53" t="s">
         <v>173</v>
       </c>
@@ -15161,8 +15251,12 @@
       </c>
       <c r="S16" s="51"/>
       <c r="T16" s="92"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="54"/>
+      <c r="U16" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V16" s="54">
+        <v>0</v>
+      </c>
       <c r="W16" s="53" t="s">
         <v>173</v>
       </c>
@@ -15225,8 +15319,12 @@
       <c r="T17" s="92" t="s">
         <v>143</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="54"/>
+      <c r="U17" s="457" t="s">
+        <v>283</v>
+      </c>
+      <c r="V17" s="458">
+        <v>0</v>
+      </c>
       <c r="W17" s="53" t="s">
         <v>173</v>
       </c>
@@ -15289,8 +15387,12 @@
       <c r="T18" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
+      <c r="U18" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="V18" s="54">
+        <v>4640</v>
+      </c>
       <c r="W18" s="53" t="s">
         <v>173</v>
       </c>
@@ -15353,7 +15455,9 @@
       <c r="T19" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="U19" s="53"/>
+      <c r="U19" s="53" t="s">
+        <v>282</v>
+      </c>
       <c r="V19" s="54"/>
       <c r="W19" s="53" t="s">
         <v>173</v>
@@ -15415,8 +15519,12 @@
       <c r="T20" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="U20" s="53"/>
-      <c r="V20" s="54"/>
+      <c r="U20" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V20" s="460">
+        <v>4640</v>
+      </c>
       <c r="W20" s="53" t="s">
         <v>173</v>
       </c>
@@ -15477,8 +15585,12 @@
       <c r="T21" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="U21" s="53"/>
-      <c r="V21" s="54"/>
+      <c r="U21" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V21" s="460">
+        <v>0</v>
+      </c>
       <c r="W21" s="53" t="s">
         <v>173</v>
       </c>
@@ -15542,8 +15654,12 @@
       <c r="T22" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="U22" s="53"/>
-      <c r="V22" s="54"/>
+      <c r="U22" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V22" s="460">
+        <v>4640</v>
+      </c>
       <c r="W22" s="53" t="s">
         <v>173</v>
       </c>
@@ -15606,8 +15722,12 @@
       <c r="T23" s="92" t="s">
         <v>146</v>
       </c>
-      <c r="U23" s="53"/>
-      <c r="V23" s="54"/>
+      <c r="U23" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V23" s="460">
+        <v>0</v>
+      </c>
       <c r="W23" s="53" t="s">
         <v>173</v>
       </c>
@@ -15670,8 +15790,12 @@
       <c r="T24" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="U24" s="53"/>
-      <c r="V24" s="54"/>
+      <c r="U24" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V24" s="460">
+        <v>4640</v>
+      </c>
       <c r="W24" s="53" t="s">
         <v>173</v>
       </c>
@@ -15734,8 +15858,12 @@
       <c r="T25" s="92" t="s">
         <v>171</v>
       </c>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54"/>
+      <c r="U25" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V25" s="460">
+        <v>0</v>
+      </c>
       <c r="W25" s="53" t="s">
         <v>173</v>
       </c>
@@ -15799,8 +15927,12 @@
       <c r="T26" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="U26" s="53"/>
-      <c r="V26" s="54"/>
+      <c r="U26" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V26" s="460">
+        <v>4640</v>
+      </c>
       <c r="W26" s="53" t="s">
         <v>173</v>
       </c>
@@ -15863,8 +15995,12 @@
       <c r="T27" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="U27" s="53"/>
-      <c r="V27" s="54"/>
+      <c r="U27" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V27" s="460">
+        <v>0</v>
+      </c>
       <c r="W27" s="53" t="s">
         <v>173</v>
       </c>
@@ -15927,8 +16063,12 @@
       <c r="T28" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="U28" s="53"/>
-      <c r="V28" s="54"/>
+      <c r="U28" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V28" s="460">
+        <v>4640</v>
+      </c>
       <c r="W28" s="53" t="s">
         <v>173</v>
       </c>
@@ -15991,8 +16131,12 @@
       <c r="T29" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="U29" s="53"/>
-      <c r="V29" s="54"/>
+      <c r="U29" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V29" s="460">
+        <v>0</v>
+      </c>
       <c r="W29" s="53" t="s">
         <v>173</v>
       </c>
@@ -16053,8 +16197,12 @@
       <c r="T30" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="U30" s="53"/>
-      <c r="V30" s="54"/>
+      <c r="U30" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V30" s="460">
+        <v>4640</v>
+      </c>
       <c r="W30" s="53" t="s">
         <v>173</v>
       </c>
@@ -16115,8 +16263,12 @@
       <c r="T31" s="92" t="s">
         <v>195</v>
       </c>
-      <c r="U31" s="53"/>
-      <c r="V31" s="54"/>
+      <c r="U31" s="459" t="s">
+        <v>284</v>
+      </c>
+      <c r="V31" s="460">
+        <v>0</v>
+      </c>
       <c r="W31" s="53" t="s">
         <v>173</v>
       </c>
@@ -16890,13 +17042,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="502" t="s">
+      <c r="A55" s="506" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="476" t="s">
+      <c r="C55" s="471" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -16907,7 +17059,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="492" t="s">
+      <c r="H55" s="465" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -16936,11 +17088,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="503"/>
+      <c r="A56" s="507"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="477"/>
+      <c r="C56" s="472"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -16949,7 +17101,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="493"/>
+      <c r="H56" s="466"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -16978,13 +17130,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="494" t="s">
+      <c r="A57" s="498" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="496" t="s">
+      <c r="C57" s="500" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -16995,7 +17147,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="492" t="s">
+      <c r="H57" s="465" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17014,10 +17166,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="482" t="s">
+      <c r="O57" s="467" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="488">
+      <c r="P57" s="461">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17028,11 +17180,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="495"/>
+      <c r="A58" s="499"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="497"/>
+      <c r="C58" s="501"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17041,7 +17193,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="493"/>
+      <c r="H58" s="466"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17058,8 +17210,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="498"/>
-      <c r="P58" s="499"/>
+      <c r="O58" s="502"/>
+      <c r="P58" s="503"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17085,7 +17237,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="492" t="s">
+      <c r="H59" s="465" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17129,7 +17281,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="493"/>
+      <c r="H60" s="466"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17792,8 +17944,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="482"/>
-      <c r="P79" s="484"/>
+      <c r="O79" s="467"/>
+      <c r="P79" s="481"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17822,8 +17974,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="483"/>
-      <c r="P80" s="485"/>
+      <c r="O80" s="468"/>
+      <c r="P80" s="482"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -17852,8 +18004,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="482"/>
-      <c r="P81" s="484"/>
+      <c r="O81" s="467"/>
+      <c r="P81" s="481"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -17885,8 +18037,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="483"/>
-      <c r="P82" s="485"/>
+      <c r="O82" s="468"/>
+      <c r="P82" s="482"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18044,8 +18196,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="486"/>
-      <c r="M87" s="487"/>
+      <c r="L87" s="483"/>
+      <c r="M87" s="484"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18077,8 +18229,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="486"/>
-      <c r="M88" s="487"/>
+      <c r="L88" s="483"/>
+      <c r="M88" s="484"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18281,8 +18433,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="482"/>
-      <c r="P94" s="478"/>
+      <c r="O94" s="467"/>
+      <c r="P94" s="477"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18314,8 +18466,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="483"/>
-      <c r="P95" s="479"/>
+      <c r="O95" s="468"/>
+      <c r="P95" s="478"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23707,11 +23859,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="480" t="s">
+      <c r="F259" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="480"/>
-      <c r="H259" s="481"/>
+      <c r="G259" s="479"/>
+      <c r="H259" s="480"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24285,6 +24437,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24300,12 +24458,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24320,10 +24472,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="Q20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="R26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G32:G33"/>
+      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24352,49 +24504,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="457" t="s">
+      <c r="A1" s="485" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="457"/>
-      <c r="C1" s="457"/>
-      <c r="D1" s="457"/>
-      <c r="E1" s="457"/>
-      <c r="F1" s="457"/>
-      <c r="G1" s="457"/>
-      <c r="H1" s="457"/>
-      <c r="I1" s="457"/>
-      <c r="J1" s="457"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
+      <c r="E1" s="485"/>
+      <c r="F1" s="485"/>
+      <c r="G1" s="485"/>
+      <c r="H1" s="485"/>
+      <c r="I1" s="485"/>
+      <c r="J1" s="485"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="500" t="s">
+      <c r="S1" s="504" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="500"/>
+      <c r="T1" s="504"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="458" t="s">
+      <c r="W1" s="486" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="459"/>
+      <c r="X1" s="487"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="457"/>
-      <c r="B2" s="457"/>
-      <c r="C2" s="457"/>
-      <c r="D2" s="457"/>
-      <c r="E2" s="457"/>
-      <c r="F2" s="457"/>
-      <c r="G2" s="457"/>
-      <c r="H2" s="457"/>
-      <c r="I2" s="457"/>
-      <c r="J2" s="457"/>
+      <c r="A2" s="485"/>
+      <c r="B2" s="485"/>
+      <c r="C2" s="485"/>
+      <c r="D2" s="485"/>
+      <c r="E2" s="485"/>
+      <c r="F2" s="485"/>
+      <c r="G2" s="485"/>
+      <c r="H2" s="485"/>
+      <c r="I2" s="485"/>
+      <c r="J2" s="485"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24402,8 +24554,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="501"/>
-      <c r="T2" s="501"/>
+      <c r="S2" s="505"/>
+      <c r="T2" s="505"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24448,10 +24600,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="460" t="s">
+      <c r="O3" s="488" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="461"/>
+      <c r="P3" s="489"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26053,7 +26205,7 @@
       </c>
       <c r="O29" s="89"/>
       <c r="P29" s="90"/>
-      <c r="Q29" s="513">
+      <c r="Q29" s="456">
         <v>25280</v>
       </c>
       <c r="R29" s="95">
@@ -26469,97 +26621,141 @@
       </c>
     </row>
     <row r="37" spans="1:24" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
-      <c r="B37" s="93"/>
+      <c r="A37" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="61">
+        <v>19780</v>
+      </c>
+      <c r="G37" s="62">
+        <v>44649</v>
+      </c>
       <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
+      <c r="I37" s="64">
+        <v>21235</v>
+      </c>
       <c r="J37" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K37" s="100"/>
+        <v>1455</v>
+      </c>
+      <c r="K37" s="100">
+        <v>34</v>
+      </c>
       <c r="L37" s="99"/>
       <c r="M37" s="99"/>
       <c r="N37" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>721990</v>
       </c>
       <c r="O37" s="98"/>
       <c r="P37" s="90"/>
       <c r="Q37" s="94"/>
       <c r="R37" s="95"/>
-      <c r="S37" s="91"/>
-      <c r="T37" s="92"/>
+      <c r="S37" s="91">
+        <v>11200</v>
+      </c>
+      <c r="T37" s="92" t="s">
+        <v>285</v>
+      </c>
       <c r="U37" s="53"/>
       <c r="V37" s="54"/>
       <c r="W37" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X37" s="456">
-        <v>0</v>
+      <c r="X37" s="106">
+        <v>4176</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="71"/>
-      <c r="B38" s="93"/>
+      <c r="A38" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>278</v>
+      </c>
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
+      <c r="F38" s="61">
+        <v>0</v>
+      </c>
+      <c r="G38" s="62">
+        <v>44649</v>
+      </c>
       <c r="H38" s="63"/>
-      <c r="I38" s="64"/>
+      <c r="I38" s="64">
+        <v>4005</v>
+      </c>
       <c r="J38" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="100"/>
+        <v>4005</v>
+      </c>
+      <c r="K38" s="100">
+        <v>34</v>
+      </c>
       <c r="L38" s="99"/>
       <c r="M38" s="99"/>
       <c r="N38" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136170</v>
       </c>
       <c r="O38" s="101"/>
       <c r="P38" s="102"/>
       <c r="Q38" s="94"/>
       <c r="R38" s="95"/>
-      <c r="S38" s="91"/>
-      <c r="T38" s="92"/>
+      <c r="S38" s="91">
+        <v>0</v>
+      </c>
+      <c r="T38" s="92" t="s">
+        <v>285</v>
+      </c>
       <c r="U38" s="53"/>
       <c r="V38" s="54"/>
       <c r="W38" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X38" s="456">
+      <c r="X38" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="71"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="71" t="s">
+        <v>279</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>72</v>
+      </c>
       <c r="C39" s="59"/>
       <c r="D39" s="60"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="61">
+        <v>24750</v>
+      </c>
+      <c r="G39" s="62">
+        <v>44651</v>
+      </c>
       <c r="H39" s="63"/>
-      <c r="I39" s="64"/>
+      <c r="I39" s="64">
+        <v>24360</v>
+      </c>
       <c r="J39" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="100"/>
+        <v>-390</v>
+      </c>
+      <c r="K39" s="100">
+        <v>35</v>
+      </c>
       <c r="L39" s="99"/>
       <c r="M39" s="99"/>
       <c r="N39" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>852600</v>
       </c>
       <c r="O39" s="103"/>
       <c r="P39" s="104"/>
@@ -26572,30 +26768,42 @@
       <c r="W39" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X39" s="456">
-        <v>0</v>
+      <c r="X39" s="106">
+        <v>4176</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="82"/>
-      <c r="B40" s="93"/>
+      <c r="A40" s="82" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="93" t="s">
+        <v>281</v>
+      </c>
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
+      <c r="F40" s="61">
+        <v>0</v>
+      </c>
+      <c r="G40" s="62">
+        <v>44651</v>
+      </c>
       <c r="H40" s="63"/>
-      <c r="I40" s="64"/>
+      <c r="I40" s="64">
+        <v>6165</v>
+      </c>
       <c r="J40" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="100"/>
+        <v>6165</v>
+      </c>
+      <c r="K40" s="100">
+        <v>35</v>
+      </c>
       <c r="L40" s="99"/>
       <c r="M40" s="99"/>
       <c r="N40" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>215775</v>
       </c>
       <c r="O40" s="98"/>
       <c r="P40" s="90"/>
@@ -26608,7 +26816,7 @@
       <c r="W40" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="X40" s="456">
+      <c r="X40" s="106">
         <v>0</v>
       </c>
     </row>
@@ -26681,7 +26889,7 @@
       <c r="W42" s="105"/>
       <c r="X42" s="110">
         <f>SUM(X4:X41)</f>
-        <v>75168</v>
+        <v>83520</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -27093,13 +27301,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="502" t="s">
+      <c r="A55" s="506" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="476" t="s">
+      <c r="C55" s="471" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -27110,7 +27318,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="505" t="s">
+      <c r="H55" s="509" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="151">
@@ -27129,10 +27337,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="482" t="s">
+      <c r="O55" s="467" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="488">
+      <c r="P55" s="461">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27143,11 +27351,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="504"/>
+      <c r="A56" s="508"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="477"/>
+      <c r="C56" s="472"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27156,7 +27364,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="506"/>
+      <c r="H56" s="510"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -27173,8 +27381,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="483"/>
-      <c r="P56" s="489"/>
+      <c r="O56" s="468"/>
+      <c r="P56" s="462"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27345,13 +27553,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="507" t="s">
+      <c r="A62" s="511" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="509" t="s">
+      <c r="C62" s="513" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="168"/>
@@ -27362,7 +27570,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="511">
+      <c r="H62" s="515">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -27381,10 +27589,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="482" t="s">
+      <c r="O62" s="467" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="488">
+      <c r="P62" s="461">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -27395,11 +27603,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="508"/>
+      <c r="A63" s="512"/>
       <c r="B63" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="510"/>
+      <c r="C63" s="514"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -27408,7 +27616,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="512"/>
+      <c r="H63" s="516"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -27425,8 +27633,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="483"/>
-      <c r="P63" s="489"/>
+      <c r="O63" s="468"/>
+      <c r="P63" s="462"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -27905,8 +28113,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="482"/>
-      <c r="P79" s="484"/>
+      <c r="O79" s="467"/>
+      <c r="P79" s="481"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -27935,8 +28143,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="483"/>
-      <c r="P80" s="485"/>
+      <c r="O80" s="468"/>
+      <c r="P80" s="482"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -27965,8 +28173,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="482"/>
-      <c r="P81" s="484"/>
+      <c r="O81" s="467"/>
+      <c r="P81" s="481"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -27998,8 +28206,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="483"/>
-      <c r="P82" s="485"/>
+      <c r="O82" s="468"/>
+      <c r="P82" s="482"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28157,8 +28365,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="486"/>
-      <c r="M87" s="487"/>
+      <c r="L87" s="483"/>
+      <c r="M87" s="484"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28190,8 +28398,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="486"/>
-      <c r="M88" s="487"/>
+      <c r="L88" s="483"/>
+      <c r="M88" s="484"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28394,8 +28602,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="482"/>
-      <c r="P94" s="478"/>
+      <c r="O94" s="467"/>
+      <c r="P94" s="477"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -28427,8 +28635,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="483"/>
-      <c r="P95" s="479"/>
+      <c r="O95" s="468"/>
+      <c r="P95" s="478"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -33820,14 +34028,14 @@
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="480" t="s">
+      <c r="F259" s="479" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="480"/>
-      <c r="H259" s="481"/>
+      <c r="G259" s="479"/>
+      <c r="H259" s="480"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
-        <v>460006.39999999997</v>
+        <v>515771.39999999997</v>
       </c>
       <c r="J259" s="318"/>
       <c r="K259" s="314"/>
@@ -33926,7 +34134,7 @@
       <c r="M263" s="336"/>
       <c r="N263" s="337">
         <f>SUM(N4:N262)</f>
-        <v>15302283.9</v>
+        <v>17228818.899999999</v>
       </c>
       <c r="O263" s="338"/>
       <c r="Q263" s="339">
@@ -33936,7 +34144,7 @@
       <c r="R263" s="8"/>
       <c r="S263" s="340">
         <f>SUM(S17:S262)</f>
-        <v>112000</v>
+        <v>123200</v>
       </c>
       <c r="T263" s="341"/>
       <c r="U263" s="342"/>
@@ -33986,7 +34194,7 @@
       <c r="M266" s="352"/>
       <c r="N266" s="353">
         <f>V263+S263+Q263+N263+L263</f>
-        <v>15790043.9</v>
+        <v>17727778.899999999</v>
       </c>
       <c r="O266" s="354"/>
       <c r="R266" s="324"/>
@@ -34398,13 +34606,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -34420,6 +34621,13 @@
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CANALES  ENERO  2022   " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="288">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -885,6 +885,12 @@
   </si>
   <si>
     <t>T-24</t>
+  </si>
+  <si>
+    <t>0312 Z</t>
+  </si>
+  <si>
+    <t>0322 Z</t>
   </si>
 </sst>
 </file>
@@ -2212,7 +2218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="518">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3454,6 +3460,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="50" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3918,7 +3927,7 @@
   <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="U25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
@@ -3929,8 +3938,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="11" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="331" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="310" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="331" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -3950,18 +3959,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="486" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="485"/>
-      <c r="C1" s="485"/>
-      <c r="D1" s="485"/>
-      <c r="E1" s="485"/>
-      <c r="F1" s="485"/>
-      <c r="G1" s="485"/>
-      <c r="H1" s="485"/>
-      <c r="I1" s="485"/>
-      <c r="J1" s="485"/>
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3975,22 +3984,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="486" t="s">
+      <c r="W1" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="487"/>
+      <c r="X1" s="488"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="485"/>
-      <c r="B2" s="485"/>
-      <c r="C2" s="485"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="485"/>
-      <c r="J2" s="485"/>
+      <c r="A2" s="486"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4044,10 +4053,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="488" t="s">
+      <c r="O3" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="489"/>
+      <c r="P3" s="490"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4591,7 +4600,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="490" t="s">
+      <c r="C12" s="491" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4655,7 +4664,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="491"/>
+      <c r="C13" s="492"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6657,13 +6666,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="469" t="s">
+      <c r="A56" s="470" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="471" t="s">
+      <c r="C56" s="472" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6674,7 +6683,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="473">
+      <c r="H56" s="474">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6703,11 +6712,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="470"/>
+      <c r="A57" s="471"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="472"/>
+      <c r="C57" s="473"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6716,7 +6725,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="474"/>
+      <c r="H57" s="475"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6743,13 +6752,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="469" t="s">
+      <c r="A58" s="470" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="471" t="s">
+      <c r="C58" s="472" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6760,7 +6769,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="473">
+      <c r="H58" s="474">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6779,10 +6788,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="475" t="s">
+      <c r="O58" s="476" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="496">
+      <c r="P58" s="497">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6793,11 +6802,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="470"/>
+      <c r="A59" s="471"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="472"/>
+      <c r="C59" s="473"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6806,7 +6815,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="474"/>
+      <c r="H59" s="475"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6823,8 +6832,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="476"/>
-      <c r="P59" s="497"/>
+      <c r="O59" s="477"/>
+      <c r="P59" s="498"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6833,13 +6842,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="494" t="s">
+      <c r="A60" s="495" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="492" t="s">
+      <c r="C60" s="493" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6853,7 +6862,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="473">
+      <c r="H60" s="474">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6872,10 +6881,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="475" t="s">
+      <c r="O60" s="476" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="496">
+      <c r="P60" s="497">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6888,11 +6897,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="495"/>
+      <c r="A61" s="496"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="493"/>
+      <c r="C61" s="494"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6904,7 +6913,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="474"/>
+      <c r="H61" s="475"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6921,8 +6930,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="476"/>
-      <c r="P61" s="497"/>
+      <c r="O61" s="477"/>
+      <c r="P61" s="498"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6988,7 +6997,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="463"/>
+      <c r="C63" s="464"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -6996,7 +7005,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="465"/>
+      <c r="H63" s="466"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7025,7 +7034,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="464"/>
+      <c r="C64" s="465"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7033,7 +7042,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="466"/>
+      <c r="H64" s="467"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7211,8 +7220,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="467"/>
-      <c r="P68" s="461"/>
+      <c r="O68" s="468"/>
+      <c r="P68" s="462"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7246,8 +7255,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="468"/>
-      <c r="P69" s="462"/>
+      <c r="O69" s="469"/>
+      <c r="P69" s="463"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7737,8 +7746,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="467"/>
-      <c r="P82" s="481"/>
+      <c r="O82" s="468"/>
+      <c r="P82" s="482"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7770,8 +7779,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="468"/>
-      <c r="P83" s="482"/>
+      <c r="O83" s="469"/>
+      <c r="P83" s="483"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7803,8 +7812,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="467"/>
-      <c r="P84" s="481"/>
+      <c r="O84" s="468"/>
+      <c r="P84" s="482"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7836,8 +7845,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="468"/>
-      <c r="P85" s="482"/>
+      <c r="O85" s="469"/>
+      <c r="P85" s="483"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -7995,8 +8004,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="483"/>
-      <c r="M90" s="484"/>
+      <c r="L90" s="484"/>
+      <c r="M90" s="485"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8028,8 +8037,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="483"/>
-      <c r="M91" s="484"/>
+      <c r="L91" s="484"/>
+      <c r="M91" s="485"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8232,8 +8241,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="467"/>
-      <c r="P97" s="477"/>
+      <c r="O97" s="468"/>
+      <c r="P97" s="478"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8265,8 +8274,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="468"/>
-      <c r="P98" s="478"/>
+      <c r="O98" s="469"/>
+      <c r="P98" s="479"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13658,11 +13667,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="479" t="s">
+      <c r="F262" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="479"/>
-      <c r="H262" s="480"/>
+      <c r="G262" s="480"/>
+      <c r="H262" s="481"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14279,19 +14288,19 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="W30" sqref="W30"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="11" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="331" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="310" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="310" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="331" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -14311,49 +14320,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="486" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="485"/>
-      <c r="C1" s="485"/>
-      <c r="D1" s="485"/>
-      <c r="E1" s="485"/>
-      <c r="F1" s="485"/>
-      <c r="G1" s="485"/>
-      <c r="H1" s="485"/>
-      <c r="I1" s="485"/>
-      <c r="J1" s="485"/>
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="504" t="s">
+      <c r="S1" s="505" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="504"/>
+      <c r="T1" s="505"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="486" t="s">
+      <c r="W1" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="487"/>
+      <c r="X1" s="488"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="485"/>
-      <c r="B2" s="485"/>
-      <c r="C2" s="485"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="485"/>
-      <c r="J2" s="485"/>
+      <c r="A2" s="486"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14361,8 +14370,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="505"/>
-      <c r="T2" s="505"/>
+      <c r="S2" s="506"/>
+      <c r="T2" s="506"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14407,10 +14416,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="488" t="s">
+      <c r="O3" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="489"/>
+      <c r="P3" s="490"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -16151,7 +16160,9 @@
       <c r="B30" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="461" t="s">
+        <v>286</v>
+      </c>
       <c r="D30" s="60"/>
       <c r="E30" s="40"/>
       <c r="F30" s="61">
@@ -16217,7 +16228,9 @@
       <c r="B31" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="461" t="s">
+        <v>286</v>
+      </c>
       <c r="D31" s="60"/>
       <c r="E31" s="40"/>
       <c r="F31" s="61">
@@ -17042,13 +17055,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="506" t="s">
+      <c r="A55" s="507" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="471" t="s">
+      <c r="C55" s="472" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17059,7 +17072,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="465" t="s">
+      <c r="H55" s="466" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17088,11 +17101,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="507"/>
+      <c r="A56" s="508"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="472"/>
+      <c r="C56" s="473"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17101,7 +17114,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="466"/>
+      <c r="H56" s="467"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17130,13 +17143,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="498" t="s">
+      <c r="A57" s="499" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="500" t="s">
+      <c r="C57" s="501" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17147,7 +17160,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="465" t="s">
+      <c r="H57" s="466" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17166,10 +17179,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="467" t="s">
+      <c r="O57" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="461">
+      <c r="P57" s="462">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17180,11 +17193,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="499"/>
+      <c r="A58" s="500"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="501"/>
+      <c r="C58" s="502"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17193,7 +17206,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="466"/>
+      <c r="H58" s="467"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17210,8 +17223,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="502"/>
-      <c r="P58" s="503"/>
+      <c r="O58" s="503"/>
+      <c r="P58" s="504"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17237,7 +17250,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="465" t="s">
+      <c r="H59" s="466" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17281,7 +17294,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="466"/>
+      <c r="H60" s="467"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17944,8 +17957,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="467"/>
-      <c r="P79" s="481"/>
+      <c r="O79" s="468"/>
+      <c r="P79" s="482"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17974,8 +17987,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="468"/>
-      <c r="P80" s="482"/>
+      <c r="O80" s="469"/>
+      <c r="P80" s="483"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18004,8 +18017,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="467"/>
-      <c r="P81" s="481"/>
+      <c r="O81" s="468"/>
+      <c r="P81" s="482"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18037,8 +18050,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="468"/>
-      <c r="P82" s="482"/>
+      <c r="O82" s="469"/>
+      <c r="P82" s="483"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18196,8 +18209,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="483"/>
-      <c r="M87" s="484"/>
+      <c r="L87" s="484"/>
+      <c r="M87" s="485"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18229,8 +18242,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="483"/>
-      <c r="M88" s="484"/>
+      <c r="L88" s="484"/>
+      <c r="M88" s="485"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18433,8 +18446,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="467"/>
-      <c r="P94" s="477"/>
+      <c r="O94" s="468"/>
+      <c r="P94" s="478"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18466,8 +18479,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="468"/>
-      <c r="P95" s="478"/>
+      <c r="O95" s="469"/>
+      <c r="P95" s="479"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23859,11 +23872,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="479" t="s">
+      <c r="F259" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="479"/>
-      <c r="H259" s="480"/>
+      <c r="G259" s="480"/>
+      <c r="H259" s="481"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24472,10 +24485,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="R26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T39" sqref="T39"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24483,8 +24496,8 @@
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="310" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" style="310" customWidth="1"/>
-    <col min="4" max="4" width="11" style="310" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="331" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="310" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="331" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="311" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="312" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="315" customWidth="1"/>
@@ -24504,49 +24517,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="486" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="485"/>
-      <c r="C1" s="485"/>
-      <c r="D1" s="485"/>
-      <c r="E1" s="485"/>
-      <c r="F1" s="485"/>
-      <c r="G1" s="485"/>
-      <c r="H1" s="485"/>
-      <c r="I1" s="485"/>
-      <c r="J1" s="485"/>
+      <c r="B1" s="486"/>
+      <c r="C1" s="486"/>
+      <c r="D1" s="486"/>
+      <c r="E1" s="486"/>
+      <c r="F1" s="486"/>
+      <c r="G1" s="486"/>
+      <c r="H1" s="486"/>
+      <c r="I1" s="486"/>
+      <c r="J1" s="486"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="504" t="s">
+      <c r="S1" s="505" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="504"/>
+      <c r="T1" s="505"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="486" t="s">
+      <c r="W1" s="487" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="487"/>
+      <c r="X1" s="488"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="485"/>
-      <c r="B2" s="485"/>
-      <c r="C2" s="485"/>
-      <c r="D2" s="485"/>
-      <c r="E2" s="485"/>
-      <c r="F2" s="485"/>
-      <c r="G2" s="485"/>
-      <c r="H2" s="485"/>
-      <c r="I2" s="485"/>
-      <c r="J2" s="485"/>
+      <c r="A2" s="486"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24554,8 +24567,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="505"/>
-      <c r="T2" s="505"/>
+      <c r="S2" s="506"/>
+      <c r="T2" s="506"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24600,10 +24613,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="488" t="s">
+      <c r="O3" s="489" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="489"/>
+      <c r="P3" s="490"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24632,9 +24645,16 @@
       <c r="B4" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
+      <c r="C4" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="39">
+        <v>46</v>
+      </c>
+      <c r="E4" s="40">
+        <f>F4*D4</f>
+        <v>1079620</v>
+      </c>
       <c r="F4" s="41">
         <v>23470</v>
       </c>
@@ -24694,9 +24714,16 @@
       <c r="B5" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f t="shared" ref="E5:E41" si="2">F5*D5</f>
+        <v>0</v>
+      </c>
       <c r="F5" s="61">
         <v>0</v>
       </c>
@@ -24758,7 +24785,10 @@
       </c>
       <c r="C6" s="59"/>
       <c r="D6" s="60"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F6" s="61">
         <v>21970</v>
       </c>
@@ -24820,7 +24850,10 @@
       </c>
       <c r="C7" s="59"/>
       <c r="D7" s="60"/>
-      <c r="E7" s="40"/>
+      <c r="E7" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="61">
         <v>0</v>
       </c>
@@ -24882,7 +24915,10 @@
       </c>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="61">
         <v>21220</v>
       </c>
@@ -24944,7 +24980,10 @@
       </c>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="61">
         <v>0</v>
       </c>
@@ -25006,7 +25045,10 @@
       </c>
       <c r="C10" s="59"/>
       <c r="D10" s="72"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="61">
         <v>22010</v>
       </c>
@@ -25068,7 +25110,10 @@
       </c>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="61">
         <v>0</v>
       </c>
@@ -25130,7 +25175,10 @@
       </c>
       <c r="C12" s="431"/>
       <c r="D12" s="60"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="61">
         <v>12480</v>
       </c>
@@ -25192,7 +25240,10 @@
       </c>
       <c r="C13" s="432"/>
       <c r="D13" s="60"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="61">
         <v>22550</v>
       </c>
@@ -25254,7 +25305,10 @@
       </c>
       <c r="C14" s="59"/>
       <c r="D14" s="60"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="61">
         <v>0</v>
       </c>
@@ -25316,7 +25370,10 @@
       </c>
       <c r="C15" s="59"/>
       <c r="D15" s="60"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="61">
         <v>20460</v>
       </c>
@@ -25378,7 +25435,10 @@
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="60"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="61">
         <v>0</v>
       </c>
@@ -25440,7 +25500,10 @@
       </c>
       <c r="C17" s="59"/>
       <c r="D17" s="60"/>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="61">
         <v>23490</v>
       </c>
@@ -25502,7 +25565,10 @@
       </c>
       <c r="C18" s="59"/>
       <c r="D18" s="60"/>
-      <c r="E18" s="40"/>
+      <c r="E18" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="61">
         <v>0</v>
       </c>
@@ -25564,7 +25630,10 @@
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="60"/>
-      <c r="E19" s="40"/>
+      <c r="E19" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="61">
         <v>21630</v>
       </c>
@@ -25626,7 +25695,10 @@
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="60"/>
-      <c r="E20" s="40"/>
+      <c r="E20" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="61">
         <v>0</v>
       </c>
@@ -25688,7 +25760,10 @@
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F21" s="61">
         <v>22290</v>
       </c>
@@ -25750,7 +25825,10 @@
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="60"/>
-      <c r="E22" s="40"/>
+      <c r="E22" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="61">
         <v>0</v>
       </c>
@@ -25813,7 +25891,10 @@
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
-      <c r="E23" s="40"/>
+      <c r="E23" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F23" s="61">
         <v>23040</v>
       </c>
@@ -25875,7 +25956,10 @@
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="60"/>
-      <c r="E24" s="40"/>
+      <c r="E24" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="61">
         <v>0</v>
       </c>
@@ -25937,7 +26021,10 @@
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="61">
         <v>21410</v>
       </c>
@@ -25999,7 +26086,10 @@
       </c>
       <c r="C26" s="59"/>
       <c r="D26" s="60"/>
-      <c r="E26" s="40"/>
+      <c r="E26" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="61">
         <v>0</v>
       </c>
@@ -26061,7 +26151,10 @@
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="60"/>
-      <c r="E27" s="40"/>
+      <c r="E27" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="61">
         <v>22760</v>
       </c>
@@ -26119,7 +26212,10 @@
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="60"/>
-      <c r="E28" s="40"/>
+      <c r="E28" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="61">
         <v>0</v>
       </c>
@@ -26177,7 +26273,10 @@
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="60"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="61">
         <v>22940</v>
       </c>
@@ -26235,7 +26334,10 @@
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="60"/>
-      <c r="E30" s="40"/>
+      <c r="E30" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="61">
         <v>0</v>
       </c>
@@ -26293,7 +26395,10 @@
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="60"/>
-      <c r="E31" s="40"/>
+      <c r="E31" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="61">
         <v>21380</v>
       </c>
@@ -26351,7 +26456,10 @@
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="60"/>
-      <c r="E32" s="40"/>
+      <c r="E32" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="61">
         <v>0</v>
       </c>
@@ -26409,7 +26517,10 @@
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="60"/>
-      <c r="E33" s="40"/>
+      <c r="E33" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="61">
         <v>20770</v>
       </c>
@@ -26467,7 +26578,10 @@
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="60"/>
-      <c r="E34" s="40"/>
+      <c r="E34" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="61">
         <v>0</v>
       </c>
@@ -26525,7 +26639,10 @@
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="60"/>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="61">
         <v>22000</v>
       </c>
@@ -26577,7 +26694,10 @@
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="60"/>
-      <c r="E36" s="40"/>
+      <c r="E36" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="61">
         <v>0</v>
       </c>
@@ -26629,7 +26749,10 @@
       </c>
       <c r="C37" s="59"/>
       <c r="D37" s="60"/>
-      <c r="E37" s="40"/>
+      <c r="E37" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="61">
         <v>19780</v>
       </c>
@@ -26681,7 +26804,10 @@
       </c>
       <c r="C38" s="59"/>
       <c r="D38" s="60"/>
-      <c r="E38" s="40"/>
+      <c r="E38" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F38" s="61">
         <v>0</v>
       </c>
@@ -26733,7 +26859,10 @@
       </c>
       <c r="C39" s="59"/>
       <c r="D39" s="60"/>
-      <c r="E39" s="40"/>
+      <c r="E39" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="61">
         <v>24750</v>
       </c>
@@ -26781,7 +26910,10 @@
       </c>
       <c r="C40" s="59"/>
       <c r="D40" s="60"/>
-      <c r="E40" s="40"/>
+      <c r="E40" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F40" s="61">
         <v>0</v>
       </c>
@@ -26825,7 +26957,10 @@
       <c r="B41" s="93"/>
       <c r="C41" s="59"/>
       <c r="D41" s="60"/>
-      <c r="E41" s="40"/>
+      <c r="E41" s="40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="61"/>
       <c r="G41" s="62"/>
       <c r="H41" s="63"/>
@@ -26860,7 +26995,7 @@
       <c r="C42" s="108"/>
       <c r="D42" s="109"/>
       <c r="E42" s="40">
-        <f t="shared" ref="E42:E106" si="2">D42*F42</f>
+        <f t="shared" ref="E42:E106" si="3">D42*F42</f>
         <v>0</v>
       </c>
       <c r="F42" s="61"/>
@@ -26898,7 +27033,7 @@
       <c r="C43" s="59"/>
       <c r="D43" s="109"/>
       <c r="E43" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" s="61"/>
@@ -26933,7 +27068,7 @@
       <c r="C44" s="59"/>
       <c r="D44" s="109"/>
       <c r="E44" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" s="61"/>
@@ -26968,7 +27103,7 @@
       <c r="C45" s="59"/>
       <c r="D45" s="109"/>
       <c r="E45" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F45" s="61"/>
@@ -27003,7 +27138,7 @@
       <c r="C46" s="115"/>
       <c r="D46" s="109"/>
       <c r="E46" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" s="116"/>
@@ -27038,7 +27173,7 @@
       <c r="C47" s="119"/>
       <c r="D47" s="109"/>
       <c r="E47" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" s="116"/>
@@ -27073,7 +27208,7 @@
       <c r="C48" s="119"/>
       <c r="D48" s="109"/>
       <c r="E48" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" s="116"/>
@@ -27107,7 +27242,7 @@
       <c r="C49" s="119"/>
       <c r="D49" s="109"/>
       <c r="E49" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" s="116"/>
@@ -27141,7 +27276,7 @@
       <c r="C50" s="119"/>
       <c r="D50" s="109"/>
       <c r="E50" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" s="116"/>
@@ -27174,7 +27309,7 @@
       <c r="C51" s="119"/>
       <c r="D51" s="119"/>
       <c r="E51" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" s="116"/>
@@ -27207,7 +27342,7 @@
       <c r="C52" s="119"/>
       <c r="D52" s="119"/>
       <c r="E52" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" s="64"/>
@@ -27240,7 +27375,7 @@
       <c r="C53" s="132"/>
       <c r="D53" s="132"/>
       <c r="E53" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" s="133"/>
@@ -27273,7 +27408,7 @@
       <c r="C54" s="435"/>
       <c r="D54" s="150"/>
       <c r="E54" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" s="383"/>
@@ -27301,13 +27436,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="506" t="s">
+      <c r="A55" s="507" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="471" t="s">
+      <c r="C55" s="472" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -27318,7 +27453,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="509" t="s">
+      <c r="H55" s="510" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="151">
@@ -27337,10 +27472,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="467" t="s">
+      <c r="O55" s="468" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="461">
+      <c r="P55" s="462">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27351,11 +27486,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="508"/>
+      <c r="A56" s="509"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="472"/>
+      <c r="C56" s="473"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27364,7 +27499,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="510"/>
+      <c r="H56" s="511"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -27381,8 +27516,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="468"/>
-      <c r="P56" s="462"/>
+      <c r="O56" s="469"/>
+      <c r="P56" s="463"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27553,13 +27688,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="511" t="s">
+      <c r="A62" s="512" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="513" t="s">
+      <c r="C62" s="514" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="168"/>
@@ -27570,7 +27705,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="515">
+      <c r="H62" s="516">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -27589,10 +27724,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="467" t="s">
+      <c r="O62" s="468" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="461">
+      <c r="P62" s="462">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -27603,11 +27738,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="512"/>
+      <c r="A63" s="513"/>
       <c r="B63" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="514"/>
+      <c r="C63" s="515"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -27616,7 +27751,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="516"/>
+      <c r="H63" s="517"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -27633,8 +27768,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="468"/>
-      <c r="P63" s="462"/>
+      <c r="O63" s="469"/>
+      <c r="P63" s="463"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28113,8 +28248,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="467"/>
-      <c r="P79" s="481"/>
+      <c r="O79" s="468"/>
+      <c r="P79" s="482"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28143,8 +28278,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="468"/>
-      <c r="P80" s="482"/>
+      <c r="O80" s="469"/>
+      <c r="P80" s="483"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28173,8 +28308,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="467"/>
-      <c r="P81" s="481"/>
+      <c r="O81" s="468"/>
+      <c r="P81" s="482"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -28188,7 +28323,7 @@
       <c r="C82" s="183"/>
       <c r="D82" s="190"/>
       <c r="E82" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F82" s="151"/>
@@ -28206,8 +28341,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="468"/>
-      <c r="P82" s="482"/>
+      <c r="O82" s="469"/>
+      <c r="P82" s="483"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28221,7 +28356,7 @@
       <c r="C83" s="191"/>
       <c r="D83" s="192"/>
       <c r="E83" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F83" s="151"/>
@@ -28254,7 +28389,7 @@
       <c r="C84" s="193"/>
       <c r="D84" s="192"/>
       <c r="E84" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F84" s="151"/>
@@ -28287,7 +28422,7 @@
       <c r="C85" s="192"/>
       <c r="D85" s="195"/>
       <c r="E85" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F85" s="151"/>
@@ -28320,7 +28455,7 @@
       <c r="C86" s="189"/>
       <c r="D86" s="197"/>
       <c r="E86" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F86" s="64"/>
@@ -28353,7 +28488,7 @@
       <c r="C87" s="199"/>
       <c r="D87" s="197"/>
       <c r="E87" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F87" s="64"/>
@@ -28365,8 +28500,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="483"/>
-      <c r="M87" s="484"/>
+      <c r="L87" s="484"/>
+      <c r="M87" s="485"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28386,7 +28521,7 @@
       <c r="C88" s="200"/>
       <c r="D88" s="197"/>
       <c r="E88" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F88" s="64"/>
@@ -28398,8 +28533,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="483"/>
-      <c r="M88" s="484"/>
+      <c r="L88" s="484"/>
+      <c r="M88" s="485"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28419,7 +28554,7 @@
       <c r="C89" s="202"/>
       <c r="D89" s="197"/>
       <c r="E89" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F89" s="64"/>
@@ -28452,7 +28587,7 @@
       <c r="C90" s="205"/>
       <c r="D90" s="197"/>
       <c r="E90" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F90" s="64"/>
@@ -28485,7 +28620,7 @@
       <c r="C91" s="197"/>
       <c r="D91" s="197"/>
       <c r="E91" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F91" s="64"/>
@@ -28518,7 +28653,7 @@
       <c r="C92" s="197"/>
       <c r="D92" s="197"/>
       <c r="E92" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F92" s="64"/>
@@ -28551,7 +28686,7 @@
       <c r="C93" s="197"/>
       <c r="D93" s="197"/>
       <c r="E93" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F93" s="64"/>
@@ -28584,7 +28719,7 @@
       <c r="C94" s="189"/>
       <c r="D94" s="197"/>
       <c r="E94" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F94" s="64"/>
@@ -28602,8 +28737,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="467"/>
-      <c r="P94" s="477"/>
+      <c r="O94" s="468"/>
+      <c r="P94" s="478"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -28617,7 +28752,7 @@
       <c r="C95" s="189"/>
       <c r="D95" s="197"/>
       <c r="E95" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F95" s="64"/>
@@ -28635,8 +28770,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="468"/>
-      <c r="P95" s="478"/>
+      <c r="O95" s="469"/>
+      <c r="P95" s="479"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -28650,7 +28785,7 @@
       <c r="C96" s="197"/>
       <c r="D96" s="197"/>
       <c r="E96" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F96" s="64"/>
@@ -28683,7 +28818,7 @@
       <c r="C97" s="197"/>
       <c r="D97" s="197"/>
       <c r="E97" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F97" s="64"/>
@@ -28716,7 +28851,7 @@
       <c r="C98" s="207"/>
       <c r="D98" s="207"/>
       <c r="E98" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F98" s="64"/>
@@ -28749,7 +28884,7 @@
       <c r="C99" s="202"/>
       <c r="D99" s="202"/>
       <c r="E99" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F99" s="64"/>
@@ -28782,7 +28917,7 @@
       <c r="C100" s="207"/>
       <c r="D100" s="207"/>
       <c r="E100" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F100" s="64"/>
@@ -28815,7 +28950,7 @@
       <c r="C101" s="207"/>
       <c r="D101" s="207"/>
       <c r="E101" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F101" s="64"/>
@@ -28848,7 +28983,7 @@
       <c r="C102" s="207"/>
       <c r="D102" s="207"/>
       <c r="E102" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F102" s="64"/>
@@ -28881,7 +29016,7 @@
       <c r="C103" s="207"/>
       <c r="D103" s="207"/>
       <c r="E103" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F103" s="64"/>
@@ -28914,7 +29049,7 @@
       <c r="C104" s="207"/>
       <c r="D104" s="207"/>
       <c r="E104" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F104" s="64"/>
@@ -28947,7 +29082,7 @@
       <c r="C105" s="207"/>
       <c r="D105" s="207"/>
       <c r="E105" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F105" s="64"/>
@@ -28980,7 +29115,7 @@
       <c r="C106" s="207"/>
       <c r="D106" s="207"/>
       <c r="E106" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F106" s="64"/>
@@ -29013,7 +29148,7 @@
       <c r="C107" s="207"/>
       <c r="D107" s="207"/>
       <c r="E107" s="60">
-        <f t="shared" ref="E107:E176" si="3">D107*F107</f>
+        <f t="shared" ref="E107:E176" si="4">D107*F107</f>
         <v>0</v>
       </c>
       <c r="F107" s="64"/>
@@ -29046,7 +29181,7 @@
       <c r="C108" s="207"/>
       <c r="D108" s="207"/>
       <c r="E108" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F108" s="64"/>
@@ -29079,7 +29214,7 @@
       <c r="C109" s="384"/>
       <c r="D109" s="384"/>
       <c r="E109" s="385">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F109" s="44"/>
@@ -29112,7 +29247,7 @@
       <c r="C110" s="207"/>
       <c r="D110" s="207"/>
       <c r="E110" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F110" s="64"/>
@@ -29145,7 +29280,7 @@
       <c r="C111" s="207"/>
       <c r="D111" s="207"/>
       <c r="E111" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F111" s="64"/>
@@ -29178,7 +29313,7 @@
       <c r="C112" s="207"/>
       <c r="D112" s="207"/>
       <c r="E112" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F112" s="64"/>
@@ -29211,7 +29346,7 @@
       <c r="C113" s="207"/>
       <c r="D113" s="207"/>
       <c r="E113" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F113" s="64"/>
@@ -29244,7 +29379,7 @@
       <c r="C114" s="207"/>
       <c r="D114" s="207"/>
       <c r="E114" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F114" s="64"/>
@@ -29277,7 +29412,7 @@
       <c r="C115" s="207"/>
       <c r="D115" s="207"/>
       <c r="E115" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F115" s="64"/>
@@ -29292,7 +29427,7 @@
       <c r="L115" s="99"/>
       <c r="M115" s="99"/>
       <c r="N115" s="48">
-        <f t="shared" ref="N115:N178" si="4">K115*I115</f>
+        <f t="shared" ref="N115:N178" si="5">K115*I115</f>
         <v>0</v>
       </c>
       <c r="O115" s="164"/>
@@ -29310,7 +29445,7 @@
       <c r="C116" s="207"/>
       <c r="D116" s="207"/>
       <c r="E116" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F116" s="64"/>
@@ -29325,7 +29460,7 @@
       <c r="L116" s="99"/>
       <c r="M116" s="99"/>
       <c r="N116" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O116" s="164"/>
@@ -29343,7 +29478,7 @@
       <c r="C117" s="207"/>
       <c r="D117" s="207"/>
       <c r="E117" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F117" s="64"/>
@@ -29358,7 +29493,7 @@
       <c r="L117" s="99"/>
       <c r="M117" s="99"/>
       <c r="N117" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O117" s="164"/>
@@ -29376,7 +29511,7 @@
       <c r="C118" s="207"/>
       <c r="D118" s="207"/>
       <c r="E118" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F118" s="64"/>
@@ -29391,7 +29526,7 @@
       <c r="L118" s="99"/>
       <c r="M118" s="99"/>
       <c r="N118" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O118" s="164"/>
@@ -29409,7 +29544,7 @@
       <c r="C119" s="207"/>
       <c r="D119" s="207"/>
       <c r="E119" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F119" s="64"/>
@@ -29424,7 +29559,7 @@
       <c r="L119" s="99"/>
       <c r="M119" s="99"/>
       <c r="N119" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O119" s="164"/>
@@ -29442,7 +29577,7 @@
       <c r="C120" s="207"/>
       <c r="D120" s="207"/>
       <c r="E120" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F120" s="64"/>
@@ -29457,7 +29592,7 @@
       <c r="L120" s="99"/>
       <c r="M120" s="99"/>
       <c r="N120" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O120" s="164"/>
@@ -29475,7 +29610,7 @@
       <c r="C121" s="205"/>
       <c r="D121" s="205"/>
       <c r="E121" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F121" s="64"/>
@@ -29490,7 +29625,7 @@
       <c r="L121" s="99"/>
       <c r="M121" s="99"/>
       <c r="N121" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O121" s="164"/>
@@ -29508,7 +29643,7 @@
       <c r="C122" s="207"/>
       <c r="D122" s="207"/>
       <c r="E122" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F122" s="64"/>
@@ -29523,7 +29658,7 @@
       <c r="L122" s="99"/>
       <c r="M122" s="99"/>
       <c r="N122" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O122" s="164"/>
@@ -29541,7 +29676,7 @@
       <c r="C123" s="205"/>
       <c r="D123" s="205"/>
       <c r="E123" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F123" s="64"/>
@@ -29556,7 +29691,7 @@
       <c r="L123" s="99"/>
       <c r="M123" s="99"/>
       <c r="N123" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O123" s="164"/>
@@ -29574,7 +29709,7 @@
       <c r="C124" s="207"/>
       <c r="D124" s="207"/>
       <c r="E124" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F124" s="64"/>
@@ -29589,7 +29724,7 @@
       <c r="L124" s="99"/>
       <c r="M124" s="99"/>
       <c r="N124" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O124" s="164"/>
@@ -29607,7 +29742,7 @@
       <c r="C125" s="202"/>
       <c r="D125" s="202"/>
       <c r="E125" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F125" s="64"/>
@@ -29622,7 +29757,7 @@
       <c r="L125" s="99"/>
       <c r="M125" s="99"/>
       <c r="N125" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O125" s="164"/>
@@ -29640,7 +29775,7 @@
       <c r="C126" s="207"/>
       <c r="D126" s="207"/>
       <c r="E126" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F126" s="64"/>
@@ -29655,7 +29790,7 @@
       <c r="L126" s="99"/>
       <c r="M126" s="99"/>
       <c r="N126" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O126" s="164"/>
@@ -29673,7 +29808,7 @@
       <c r="C127" s="207"/>
       <c r="D127" s="207"/>
       <c r="E127" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F127" s="64"/>
@@ -29688,7 +29823,7 @@
       <c r="L127" s="99"/>
       <c r="M127" s="99"/>
       <c r="N127" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O127" s="164"/>
@@ -29706,7 +29841,7 @@
       <c r="C128" s="207"/>
       <c r="D128" s="207"/>
       <c r="E128" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F128" s="64"/>
@@ -29721,7 +29856,7 @@
       <c r="L128" s="99"/>
       <c r="M128" s="99"/>
       <c r="N128" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O128" s="164"/>
@@ -29739,7 +29874,7 @@
       <c r="C129" s="207"/>
       <c r="D129" s="207"/>
       <c r="E129" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F129" s="64"/>
@@ -29754,7 +29889,7 @@
       <c r="L129" s="99"/>
       <c r="M129" s="99"/>
       <c r="N129" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O129" s="164"/>
@@ -29772,7 +29907,7 @@
       <c r="C130" s="207"/>
       <c r="D130" s="207"/>
       <c r="E130" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F130" s="64"/>
@@ -29787,7 +29922,7 @@
       <c r="L130" s="99"/>
       <c r="M130" s="99"/>
       <c r="N130" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O130" s="98"/>
@@ -29805,7 +29940,7 @@
       <c r="C131" s="207"/>
       <c r="D131" s="207"/>
       <c r="E131" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F131" s="64"/>
@@ -29820,7 +29955,7 @@
       <c r="L131" s="99"/>
       <c r="M131" s="99"/>
       <c r="N131" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O131" s="98"/>
@@ -29838,7 +29973,7 @@
       <c r="C132" s="219"/>
       <c r="D132" s="219"/>
       <c r="E132" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F132" s="64"/>
@@ -29853,7 +29988,7 @@
       <c r="L132" s="99"/>
       <c r="M132" s="99"/>
       <c r="N132" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O132" s="98"/>
@@ -29871,7 +30006,7 @@
       <c r="C133" s="219"/>
       <c r="D133" s="219"/>
       <c r="E133" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F133" s="64"/>
@@ -29886,7 +30021,7 @@
       <c r="L133" s="99"/>
       <c r="M133" s="99"/>
       <c r="N133" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O133" s="98"/>
@@ -29904,7 +30039,7 @@
       <c r="C134" s="219"/>
       <c r="D134" s="219"/>
       <c r="E134" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F134" s="64"/>
@@ -29919,7 +30054,7 @@
       <c r="L134" s="99"/>
       <c r="M134" s="99"/>
       <c r="N134" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O134" s="98"/>
@@ -29937,7 +30072,7 @@
       <c r="C135" s="219"/>
       <c r="D135" s="219"/>
       <c r="E135" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F135" s="64"/>
@@ -29952,7 +30087,7 @@
       <c r="L135" s="99"/>
       <c r="M135" s="99"/>
       <c r="N135" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O135" s="98"/>
@@ -29970,7 +30105,7 @@
       <c r="C136" s="219"/>
       <c r="D136" s="219"/>
       <c r="E136" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F136" s="64"/>
@@ -29985,7 +30120,7 @@
       <c r="L136" s="99"/>
       <c r="M136" s="99"/>
       <c r="N136" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O136" s="98"/>
@@ -30003,7 +30138,7 @@
       <c r="C137" s="207"/>
       <c r="D137" s="207"/>
       <c r="E137" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F137" s="64"/>
@@ -30018,7 +30153,7 @@
       <c r="L137" s="99"/>
       <c r="M137" s="99"/>
       <c r="N137" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O137" s="98"/>
@@ -30036,7 +30171,7 @@
       <c r="C138" s="200"/>
       <c r="D138" s="200"/>
       <c r="E138" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F138" s="64"/>
@@ -30051,7 +30186,7 @@
       <c r="L138" s="99"/>
       <c r="M138" s="99"/>
       <c r="N138" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O138" s="98"/>
@@ -30069,7 +30204,7 @@
       <c r="C139" s="200"/>
       <c r="D139" s="200"/>
       <c r="E139" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F139" s="64"/>
@@ -30084,7 +30219,7 @@
       <c r="L139" s="99"/>
       <c r="M139" s="99"/>
       <c r="N139" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O139" s="98"/>
@@ -30102,7 +30237,7 @@
       <c r="C140" s="200"/>
       <c r="D140" s="200"/>
       <c r="E140" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F140" s="64"/>
@@ -30117,7 +30252,7 @@
       <c r="L140" s="99"/>
       <c r="M140" s="99"/>
       <c r="N140" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O140" s="98"/>
@@ -30135,7 +30270,7 @@
       <c r="C141" s="207"/>
       <c r="D141" s="207"/>
       <c r="E141" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F141" s="64"/>
@@ -30150,7 +30285,7 @@
       <c r="L141" s="99"/>
       <c r="M141" s="99"/>
       <c r="N141" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O141" s="98"/>
@@ -30168,7 +30303,7 @@
       <c r="C142" s="207"/>
       <c r="D142" s="207"/>
       <c r="E142" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F142" s="64"/>
@@ -30183,7 +30318,7 @@
       <c r="L142" s="99"/>
       <c r="M142" s="99"/>
       <c r="N142" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O142" s="98"/>
@@ -30201,7 +30336,7 @@
       <c r="C143" s="207"/>
       <c r="D143" s="207"/>
       <c r="E143" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F143" s="64"/>
@@ -30216,7 +30351,7 @@
       <c r="L143" s="99"/>
       <c r="M143" s="99"/>
       <c r="N143" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O143" s="98"/>
@@ -30234,7 +30369,7 @@
       <c r="C144" s="207"/>
       <c r="D144" s="207"/>
       <c r="E144" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F144" s="64"/>
@@ -30249,7 +30384,7 @@
       <c r="L144" s="99"/>
       <c r="M144" s="99"/>
       <c r="N144" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O144" s="98"/>
@@ -30267,7 +30402,7 @@
       <c r="C145" s="207"/>
       <c r="D145" s="207"/>
       <c r="E145" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F145" s="64"/>
@@ -30282,7 +30417,7 @@
       <c r="L145" s="99"/>
       <c r="M145" s="99"/>
       <c r="N145" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O145" s="227"/>
@@ -30300,7 +30435,7 @@
       <c r="C146" s="207"/>
       <c r="D146" s="207"/>
       <c r="E146" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F146" s="64"/>
@@ -30315,7 +30450,7 @@
       <c r="L146" s="99"/>
       <c r="M146" s="99"/>
       <c r="N146" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O146" s="234"/>
@@ -30333,7 +30468,7 @@
       <c r="C147" s="207"/>
       <c r="D147" s="207"/>
       <c r="E147" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F147" s="64"/>
@@ -30348,7 +30483,7 @@
       <c r="L147" s="99"/>
       <c r="M147" s="99"/>
       <c r="N147" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O147" s="234"/>
@@ -30366,7 +30501,7 @@
       <c r="C148" s="207"/>
       <c r="D148" s="207"/>
       <c r="E148" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F148" s="64"/>
@@ -30383,7 +30518,7 @@
         <v>25</v>
       </c>
       <c r="N148" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O148" s="227"/>
@@ -30401,7 +30536,7 @@
       <c r="C149" s="207"/>
       <c r="D149" s="207"/>
       <c r="E149" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F149" s="64"/>
@@ -30416,7 +30551,7 @@
       <c r="L149" s="99"/>
       <c r="M149" s="99"/>
       <c r="N149" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O149" s="234"/>
@@ -30434,7 +30569,7 @@
       <c r="C150" s="237"/>
       <c r="D150" s="237"/>
       <c r="E150" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F150" s="64"/>
@@ -30449,7 +30584,7 @@
       <c r="L150" s="99"/>
       <c r="M150" s="99"/>
       <c r="N150" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O150" s="239"/>
@@ -30467,7 +30602,7 @@
       <c r="C151" s="207"/>
       <c r="D151" s="207"/>
       <c r="E151" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F151" s="64"/>
@@ -30475,14 +30610,14 @@
       <c r="H151" s="212"/>
       <c r="I151" s="64"/>
       <c r="J151" s="45">
-        <f t="shared" ref="J151:J214" si="5">I151-F151</f>
+        <f t="shared" ref="J151:J214" si="6">I151-F151</f>
         <v>0</v>
       </c>
       <c r="K151" s="236"/>
       <c r="L151" s="242"/>
       <c r="M151" s="242"/>
       <c r="N151" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O151" s="239"/>
@@ -30500,7 +30635,7 @@
       <c r="C152" s="207"/>
       <c r="D152" s="207"/>
       <c r="E152" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F152" s="64"/>
@@ -30508,14 +30643,14 @@
       <c r="H152" s="212"/>
       <c r="I152" s="64"/>
       <c r="J152" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K152" s="236"/>
       <c r="L152" s="242"/>
       <c r="M152" s="242"/>
       <c r="N152" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O152" s="98"/>
@@ -30533,7 +30668,7 @@
       <c r="C153" s="207"/>
       <c r="D153" s="207"/>
       <c r="E153" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F153" s="64"/>
@@ -30541,14 +30676,14 @@
       <c r="H153" s="243"/>
       <c r="I153" s="64"/>
       <c r="J153" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K153" s="244"/>
       <c r="L153" s="242"/>
       <c r="M153" s="242"/>
       <c r="N153" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O153" s="234"/>
@@ -30566,7 +30701,7 @@
       <c r="C154" s="207"/>
       <c r="D154" s="207"/>
       <c r="E154" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F154" s="64"/>
@@ -30574,14 +30709,14 @@
       <c r="H154" s="212"/>
       <c r="I154" s="64"/>
       <c r="J154" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K154" s="246"/>
       <c r="L154" s="247"/>
       <c r="M154" s="247"/>
       <c r="N154" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O154" s="227"/>
@@ -30599,7 +30734,7 @@
       <c r="C155" s="207"/>
       <c r="D155" s="207"/>
       <c r="E155" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F155" s="249"/>
@@ -30607,14 +30742,14 @@
       <c r="H155" s="224"/>
       <c r="I155" s="64"/>
       <c r="J155" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K155" s="246"/>
       <c r="L155" s="250"/>
       <c r="M155" s="250"/>
       <c r="N155" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O155" s="234"/>
@@ -30632,7 +30767,7 @@
       <c r="C156" s="207"/>
       <c r="D156" s="207"/>
       <c r="E156" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F156" s="64"/>
@@ -30640,14 +30775,14 @@
       <c r="H156" s="212"/>
       <c r="I156" s="64"/>
       <c r="J156" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K156" s="246"/>
       <c r="L156" s="242"/>
       <c r="M156" s="242"/>
       <c r="N156" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O156" s="227"/>
@@ -30665,7 +30800,7 @@
       <c r="C157" s="207"/>
       <c r="D157" s="207"/>
       <c r="E157" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F157" s="64"/>
@@ -30673,14 +30808,14 @@
       <c r="H157" s="251"/>
       <c r="I157" s="64"/>
       <c r="J157" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K157" s="100"/>
       <c r="L157" s="242"/>
       <c r="M157" s="242"/>
       <c r="N157" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O157" s="227"/>
@@ -30698,7 +30833,7 @@
       <c r="C158" s="207"/>
       <c r="D158" s="207"/>
       <c r="E158" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F158" s="64"/>
@@ -30706,14 +30841,14 @@
       <c r="H158" s="226"/>
       <c r="I158" s="64"/>
       <c r="J158" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K158" s="246"/>
       <c r="L158" s="242"/>
       <c r="M158" s="242"/>
       <c r="N158" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O158" s="227"/>
@@ -30731,7 +30866,7 @@
       <c r="C159" s="207"/>
       <c r="D159" s="207"/>
       <c r="E159" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F159" s="64"/>
@@ -30739,14 +30874,14 @@
       <c r="H159" s="252"/>
       <c r="I159" s="64"/>
       <c r="J159" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K159" s="246"/>
       <c r="L159" s="242"/>
       <c r="M159" s="242"/>
       <c r="N159" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O159" s="227"/>
@@ -30764,7 +30899,7 @@
       <c r="C160" s="207"/>
       <c r="D160" s="207"/>
       <c r="E160" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F160" s="64"/>
@@ -30772,14 +30907,14 @@
       <c r="H160" s="253"/>
       <c r="I160" s="64"/>
       <c r="J160" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K160" s="246"/>
       <c r="L160" s="254"/>
       <c r="M160" s="254"/>
       <c r="N160" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O160" s="227"/>
@@ -30797,7 +30932,7 @@
       <c r="C161" s="207"/>
       <c r="D161" s="207"/>
       <c r="E161" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F161" s="64"/>
@@ -30805,14 +30940,14 @@
       <c r="H161" s="252"/>
       <c r="I161" s="64"/>
       <c r="J161" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K161" s="246"/>
       <c r="L161" s="254"/>
       <c r="M161" s="254"/>
       <c r="N161" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O161" s="227"/>
@@ -30830,7 +30965,7 @@
       <c r="C162" s="207"/>
       <c r="D162" s="207"/>
       <c r="E162" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F162" s="64"/>
@@ -30838,14 +30973,14 @@
       <c r="H162" s="252"/>
       <c r="I162" s="64"/>
       <c r="J162" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K162" s="246"/>
       <c r="L162" s="254"/>
       <c r="M162" s="254"/>
       <c r="N162" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O162" s="227"/>
@@ -30863,7 +30998,7 @@
       <c r="C163" s="207"/>
       <c r="D163" s="207"/>
       <c r="E163" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F163" s="64"/>
@@ -30871,14 +31006,14 @@
       <c r="H163" s="252"/>
       <c r="I163" s="64"/>
       <c r="J163" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K163" s="100"/>
       <c r="L163" s="99"/>
       <c r="M163" s="99"/>
       <c r="N163" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O163" s="227"/>
@@ -30896,7 +31031,7 @@
       <c r="C164" s="255"/>
       <c r="D164" s="255"/>
       <c r="E164" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F164" s="64"/>
@@ -30904,14 +31039,14 @@
       <c r="H164" s="252"/>
       <c r="I164" s="64"/>
       <c r="J164" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K164" s="100"/>
       <c r="L164" s="99"/>
       <c r="M164" s="99"/>
       <c r="N164" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O164" s="234"/>
@@ -30929,7 +31064,7 @@
       <c r="C165" s="255"/>
       <c r="D165" s="255"/>
       <c r="E165" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F165" s="64"/>
@@ -30937,14 +31072,14 @@
       <c r="H165" s="252"/>
       <c r="I165" s="64"/>
       <c r="J165" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K165" s="100"/>
       <c r="L165" s="99"/>
       <c r="M165" s="99"/>
       <c r="N165" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O165" s="234"/>
@@ -30962,7 +31097,7 @@
       <c r="C166" s="237"/>
       <c r="D166" s="237"/>
       <c r="E166" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F166" s="64"/>
@@ -30970,14 +31105,14 @@
       <c r="H166" s="238"/>
       <c r="I166" s="64"/>
       <c r="J166" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K166" s="100"/>
       <c r="L166" s="99"/>
       <c r="M166" s="99"/>
       <c r="N166" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O166" s="98"/>
@@ -30995,7 +31130,7 @@
       <c r="C167" s="257"/>
       <c r="D167" s="257"/>
       <c r="E167" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F167" s="64"/>
@@ -31003,14 +31138,14 @@
       <c r="H167" s="63"/>
       <c r="I167" s="64"/>
       <c r="J167" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K167" s="100"/>
       <c r="L167" s="99"/>
       <c r="M167" s="99"/>
       <c r="N167" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O167" s="98"/>
@@ -31028,7 +31163,7 @@
       <c r="C168" s="237"/>
       <c r="D168" s="237"/>
       <c r="E168" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F168" s="64"/>
@@ -31036,14 +31171,14 @@
       <c r="H168" s="238"/>
       <c r="I168" s="64"/>
       <c r="J168" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K168" s="100"/>
       <c r="L168" s="99"/>
       <c r="M168" s="99"/>
       <c r="N168" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O168" s="98"/>
@@ -31061,7 +31196,7 @@
       <c r="C169" s="219"/>
       <c r="D169" s="219"/>
       <c r="E169" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F169" s="64"/>
@@ -31069,14 +31204,14 @@
       <c r="H169" s="238"/>
       <c r="I169" s="64"/>
       <c r="J169" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K169" s="100"/>
       <c r="L169" s="99"/>
       <c r="M169" s="99"/>
       <c r="N169" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O169" s="239"/>
@@ -31094,7 +31229,7 @@
       <c r="C170" s="260"/>
       <c r="D170" s="260"/>
       <c r="E170" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F170" s="64"/>
@@ -31102,14 +31237,14 @@
       <c r="H170" s="238"/>
       <c r="I170" s="64"/>
       <c r="J170" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K170" s="100"/>
       <c r="L170" s="99"/>
       <c r="M170" s="99"/>
       <c r="N170" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O170" s="98"/>
@@ -31127,7 +31262,7 @@
       <c r="C171" s="260"/>
       <c r="D171" s="260"/>
       <c r="E171" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F171" s="64"/>
@@ -31135,14 +31270,14 @@
       <c r="H171" s="238"/>
       <c r="I171" s="64"/>
       <c r="J171" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K171" s="100"/>
       <c r="L171" s="99"/>
       <c r="M171" s="99"/>
       <c r="N171" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O171" s="98"/>
@@ -31160,7 +31295,7 @@
       <c r="C172" s="262"/>
       <c r="D172" s="262"/>
       <c r="E172" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F172" s="64"/>
@@ -31168,14 +31303,14 @@
       <c r="H172" s="238"/>
       <c r="I172" s="64"/>
       <c r="J172" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K172" s="100"/>
       <c r="L172" s="99"/>
       <c r="M172" s="99"/>
       <c r="N172" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O172" s="98"/>
@@ -31193,7 +31328,7 @@
       <c r="C173" s="263"/>
       <c r="D173" s="263"/>
       <c r="E173" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F173" s="64"/>
@@ -31201,14 +31336,14 @@
       <c r="H173" s="238"/>
       <c r="I173" s="64"/>
       <c r="J173" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K173" s="100"/>
       <c r="L173" s="99"/>
       <c r="M173" s="99"/>
       <c r="N173" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O173" s="265"/>
@@ -31226,7 +31361,7 @@
       <c r="C174" s="263"/>
       <c r="D174" s="263"/>
       <c r="E174" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F174" s="64"/>
@@ -31234,14 +31369,14 @@
       <c r="H174" s="238"/>
       <c r="I174" s="64"/>
       <c r="J174" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K174" s="100"/>
       <c r="L174" s="99"/>
       <c r="M174" s="99"/>
       <c r="N174" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O174" s="265"/>
@@ -31259,7 +31394,7 @@
       <c r="C175" s="267"/>
       <c r="D175" s="267"/>
       <c r="E175" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F175" s="268"/>
@@ -31267,11 +31402,11 @@
       <c r="H175" s="269"/>
       <c r="I175" s="268"/>
       <c r="J175" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N175" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N175" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O175" s="270"/>
@@ -31289,7 +31424,7 @@
       <c r="C176" s="262"/>
       <c r="D176" s="262"/>
       <c r="E176" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F176" s="268"/>
@@ -31297,11 +31432,11 @@
       <c r="H176" s="269"/>
       <c r="I176" s="268"/>
       <c r="J176" s="45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N176" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N176" s="48">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O176" s="270"/>
@@ -31319,7 +31454,7 @@
       <c r="C177" s="262"/>
       <c r="D177" s="262"/>
       <c r="E177" s="40">
-        <f t="shared" ref="E177:E240" si="6">D177*F177</f>
+        <f t="shared" ref="E177:E240" si="7">D177*F177</f>
         <v>0</v>
       </c>
       <c r="F177" s="64"/>
@@ -31327,14 +31462,14 @@
       <c r="H177" s="238"/>
       <c r="I177" s="64"/>
       <c r="J177" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K177" s="100"/>
       <c r="L177" s="99"/>
       <c r="M177" s="99"/>
       <c r="N177" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O177" s="98"/>
@@ -31352,7 +31487,7 @@
       <c r="C178" s="262"/>
       <c r="D178" s="262"/>
       <c r="E178" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F178" s="64"/>
@@ -31360,14 +31495,14 @@
       <c r="H178" s="238"/>
       <c r="I178" s="64"/>
       <c r="J178" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K178" s="100"/>
       <c r="L178" s="99"/>
       <c r="M178" s="99"/>
       <c r="N178" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O178" s="98"/>
@@ -31385,7 +31520,7 @@
       <c r="C179" s="277"/>
       <c r="D179" s="277"/>
       <c r="E179" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F179" s="64"/>
@@ -31393,14 +31528,14 @@
       <c r="H179" s="238"/>
       <c r="I179" s="64"/>
       <c r="J179" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K179" s="100"/>
       <c r="L179" s="99"/>
       <c r="M179" s="99"/>
       <c r="N179" s="48">
-        <f t="shared" ref="N179:N242" si="7">K179*I179</f>
+        <f t="shared" ref="N179:N242" si="8">K179*I179</f>
         <v>0</v>
       </c>
       <c r="O179" s="98"/>
@@ -31418,7 +31553,7 @@
       <c r="C180" s="277"/>
       <c r="D180" s="277"/>
       <c r="E180" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F180" s="64"/>
@@ -31426,14 +31561,14 @@
       <c r="H180" s="238"/>
       <c r="I180" s="64"/>
       <c r="J180" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K180" s="100"/>
       <c r="L180" s="99"/>
       <c r="M180" s="99"/>
       <c r="N180" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O180" s="98"/>
@@ -31451,7 +31586,7 @@
       <c r="C181" s="277"/>
       <c r="D181" s="277"/>
       <c r="E181" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F181" s="64"/>
@@ -31459,14 +31594,14 @@
       <c r="H181" s="238"/>
       <c r="I181" s="64"/>
       <c r="J181" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K181" s="100"/>
       <c r="L181" s="99"/>
       <c r="M181" s="99"/>
       <c r="N181" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O181" s="98"/>
@@ -31484,7 +31619,7 @@
       <c r="C182" s="278"/>
       <c r="D182" s="278"/>
       <c r="E182" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F182" s="64"/>
@@ -31492,14 +31627,14 @@
       <c r="H182" s="238"/>
       <c r="I182" s="64"/>
       <c r="J182" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K182" s="100"/>
       <c r="L182" s="99"/>
       <c r="M182" s="99"/>
       <c r="N182" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O182" s="98"/>
@@ -31517,7 +31652,7 @@
       <c r="C183" s="277"/>
       <c r="D183" s="277"/>
       <c r="E183" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F183" s="64"/>
@@ -31525,14 +31660,14 @@
       <c r="H183" s="238"/>
       <c r="I183" s="64"/>
       <c r="J183" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K183" s="100"/>
       <c r="L183" s="99"/>
       <c r="M183" s="99"/>
       <c r="N183" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O183" s="98"/>
@@ -31550,7 +31685,7 @@
       <c r="C184" s="257"/>
       <c r="D184" s="257"/>
       <c r="E184" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F184" s="64"/>
@@ -31558,14 +31693,14 @@
       <c r="H184" s="238"/>
       <c r="I184" s="64"/>
       <c r="J184" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K184" s="100"/>
       <c r="L184" s="99"/>
       <c r="M184" s="99"/>
       <c r="N184" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O184" s="98"/>
@@ -31583,7 +31718,7 @@
       <c r="C185" s="257"/>
       <c r="D185" s="257"/>
       <c r="E185" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F185" s="64"/>
@@ -31591,14 +31726,14 @@
       <c r="H185" s="238"/>
       <c r="I185" s="64"/>
       <c r="J185" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K185" s="100"/>
       <c r="L185" s="99"/>
       <c r="M185" s="99"/>
       <c r="N185" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O185" s="98"/>
@@ -31616,7 +31751,7 @@
       <c r="C186" s="257"/>
       <c r="D186" s="257"/>
       <c r="E186" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F186" s="64"/>
@@ -31624,14 +31759,14 @@
       <c r="H186" s="238"/>
       <c r="I186" s="64"/>
       <c r="J186" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K186" s="100"/>
       <c r="L186" s="99"/>
       <c r="M186" s="99"/>
       <c r="N186" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O186" s="98"/>
@@ -31649,7 +31784,7 @@
       <c r="C187" s="257"/>
       <c r="D187" s="257"/>
       <c r="E187" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F187" s="64"/>
@@ -31657,14 +31792,14 @@
       <c r="H187" s="238"/>
       <c r="I187" s="64"/>
       <c r="J187" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K187" s="100"/>
       <c r="L187" s="99"/>
       <c r="M187" s="99"/>
       <c r="N187" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O187" s="98"/>
@@ -31682,7 +31817,7 @@
       <c r="C188" s="262"/>
       <c r="D188" s="262"/>
       <c r="E188" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F188" s="64"/>
@@ -31690,14 +31825,14 @@
       <c r="H188" s="238"/>
       <c r="I188" s="64"/>
       <c r="J188" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K188" s="100"/>
       <c r="L188" s="99"/>
       <c r="M188" s="99"/>
       <c r="N188" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O188" s="98"/>
@@ -31715,7 +31850,7 @@
       <c r="C189" s="263"/>
       <c r="D189" s="263"/>
       <c r="E189" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F189" s="64"/>
@@ -31723,14 +31858,14 @@
       <c r="H189" s="238"/>
       <c r="I189" s="64"/>
       <c r="J189" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K189" s="100"/>
       <c r="L189" s="99"/>
       <c r="M189" s="99"/>
       <c r="N189" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O189" s="265"/>
@@ -31748,7 +31883,7 @@
       <c r="C190" s="280"/>
       <c r="D190" s="280"/>
       <c r="E190" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F190" s="64"/>
@@ -31756,14 +31891,14 @@
       <c r="H190" s="238"/>
       <c r="I190" s="64"/>
       <c r="J190" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K190" s="100"/>
       <c r="L190" s="99"/>
       <c r="M190" s="99"/>
       <c r="N190" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O190" s="98"/>
@@ -31781,7 +31916,7 @@
       <c r="C191" s="280"/>
       <c r="D191" s="280"/>
       <c r="E191" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F191" s="64"/>
@@ -31789,14 +31924,14 @@
       <c r="H191" s="238"/>
       <c r="I191" s="64"/>
       <c r="J191" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K191" s="100"/>
       <c r="L191" s="99"/>
       <c r="M191" s="99"/>
       <c r="N191" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O191" s="98"/>
@@ -31814,7 +31949,7 @@
       <c r="C192" s="280"/>
       <c r="D192" s="280"/>
       <c r="E192" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F192" s="64"/>
@@ -31822,14 +31957,14 @@
       <c r="H192" s="238"/>
       <c r="I192" s="64"/>
       <c r="J192" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K192" s="100"/>
       <c r="L192" s="99"/>
       <c r="M192" s="99"/>
       <c r="N192" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O192" s="98"/>
@@ -31847,7 +31982,7 @@
       <c r="C193" s="280"/>
       <c r="D193" s="280"/>
       <c r="E193" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F193" s="281"/>
@@ -31855,14 +31990,14 @@
       <c r="H193" s="238"/>
       <c r="I193" s="64"/>
       <c r="J193" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K193" s="100"/>
       <c r="L193" s="99"/>
       <c r="M193" s="99"/>
       <c r="N193" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O193" s="98"/>
@@ -31880,7 +32015,7 @@
       <c r="C194" s="280"/>
       <c r="D194" s="280"/>
       <c r="E194" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F194" s="281"/>
@@ -31888,14 +32023,14 @@
       <c r="H194" s="238"/>
       <c r="I194" s="64"/>
       <c r="J194" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K194" s="100"/>
       <c r="L194" s="99"/>
       <c r="M194" s="99"/>
       <c r="N194" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O194" s="98"/>
@@ -31913,7 +32048,7 @@
       <c r="C195" s="280"/>
       <c r="D195" s="280"/>
       <c r="E195" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F195" s="281"/>
@@ -31921,14 +32056,14 @@
       <c r="H195" s="238"/>
       <c r="I195" s="64"/>
       <c r="J195" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K195" s="100"/>
       <c r="L195" s="99"/>
       <c r="M195" s="99"/>
       <c r="N195" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O195" s="98"/>
@@ -31946,7 +32081,7 @@
       <c r="C196" s="280"/>
       <c r="D196" s="280"/>
       <c r="E196" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F196" s="281"/>
@@ -31954,14 +32089,14 @@
       <c r="H196" s="238"/>
       <c r="I196" s="64"/>
       <c r="J196" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K196" s="100"/>
       <c r="L196" s="99"/>
       <c r="M196" s="99"/>
       <c r="N196" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O196" s="98"/>
@@ -31979,7 +32114,7 @@
       <c r="C197" s="280"/>
       <c r="D197" s="280"/>
       <c r="E197" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F197" s="281"/>
@@ -31987,14 +32122,14 @@
       <c r="H197" s="238"/>
       <c r="I197" s="64"/>
       <c r="J197" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K197" s="100"/>
       <c r="L197" s="99"/>
       <c r="M197" s="99"/>
       <c r="N197" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O197" s="98"/>
@@ -32012,7 +32147,7 @@
       <c r="C198" s="280"/>
       <c r="D198" s="280"/>
       <c r="E198" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F198" s="281"/>
@@ -32020,14 +32155,14 @@
       <c r="H198" s="238"/>
       <c r="I198" s="64"/>
       <c r="J198" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K198" s="100"/>
       <c r="L198" s="99"/>
       <c r="M198" s="99"/>
       <c r="N198" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O198" s="98"/>
@@ -32045,7 +32180,7 @@
       <c r="C199" s="280"/>
       <c r="D199" s="280"/>
       <c r="E199" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F199" s="281"/>
@@ -32053,14 +32188,14 @@
       <c r="H199" s="238"/>
       <c r="I199" s="64"/>
       <c r="J199" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K199" s="100"/>
       <c r="L199" s="99"/>
       <c r="M199" s="99"/>
       <c r="N199" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O199" s="98"/>
@@ -32078,7 +32213,7 @@
       <c r="C200" s="280"/>
       <c r="D200" s="280"/>
       <c r="E200" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F200" s="64"/>
@@ -32086,14 +32221,14 @@
       <c r="H200" s="238"/>
       <c r="I200" s="64"/>
       <c r="J200" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K200" s="100"/>
       <c r="L200" s="99"/>
       <c r="M200" s="99"/>
       <c r="N200" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O200" s="98"/>
@@ -32111,7 +32246,7 @@
       <c r="C201" s="257"/>
       <c r="D201" s="257"/>
       <c r="E201" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F201" s="64"/>
@@ -32119,14 +32254,14 @@
       <c r="H201" s="238"/>
       <c r="I201" s="64"/>
       <c r="J201" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K201" s="100"/>
       <c r="L201" s="99"/>
       <c r="M201" s="99"/>
       <c r="N201" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O201" s="98"/>
@@ -32144,7 +32279,7 @@
       <c r="C202" s="257"/>
       <c r="D202" s="257"/>
       <c r="E202" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F202" s="64"/>
@@ -32152,14 +32287,14 @@
       <c r="H202" s="238"/>
       <c r="I202" s="64"/>
       <c r="J202" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K202" s="100"/>
       <c r="L202" s="99"/>
       <c r="M202" s="99"/>
       <c r="N202" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O202" s="98"/>
@@ -32177,7 +32312,7 @@
       <c r="C203" s="257"/>
       <c r="D203" s="257"/>
       <c r="E203" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F203" s="64"/>
@@ -32185,14 +32320,14 @@
       <c r="H203" s="238"/>
       <c r="I203" s="64"/>
       <c r="J203" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K203" s="100"/>
       <c r="L203" s="99"/>
       <c r="M203" s="99"/>
       <c r="N203" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O203" s="98"/>
@@ -32210,7 +32345,7 @@
       <c r="C204" s="257"/>
       <c r="D204" s="257"/>
       <c r="E204" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F204" s="64"/>
@@ -32218,14 +32353,14 @@
       <c r="H204" s="238"/>
       <c r="I204" s="64"/>
       <c r="J204" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K204" s="100"/>
       <c r="L204" s="99"/>
       <c r="M204" s="99"/>
       <c r="N204" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O204" s="98"/>
@@ -32243,7 +32378,7 @@
       <c r="C205" s="257"/>
       <c r="D205" s="257"/>
       <c r="E205" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F205" s="64"/>
@@ -32251,14 +32386,14 @@
       <c r="H205" s="238"/>
       <c r="I205" s="64"/>
       <c r="J205" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K205" s="100"/>
       <c r="L205" s="99"/>
       <c r="M205" s="99"/>
       <c r="N205" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O205" s="98"/>
@@ -32276,7 +32411,7 @@
       <c r="C206" s="257"/>
       <c r="D206" s="257"/>
       <c r="E206" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F206" s="64"/>
@@ -32284,14 +32419,14 @@
       <c r="H206" s="238"/>
       <c r="I206" s="64"/>
       <c r="J206" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K206" s="100"/>
       <c r="L206" s="99"/>
       <c r="M206" s="99"/>
       <c r="N206" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O206" s="98"/>
@@ -32309,7 +32444,7 @@
       <c r="C207" s="257"/>
       <c r="D207" s="257"/>
       <c r="E207" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F207" s="64"/>
@@ -32317,14 +32452,14 @@
       <c r="H207" s="238"/>
       <c r="I207" s="64"/>
       <c r="J207" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K207" s="100"/>
       <c r="L207" s="99"/>
       <c r="M207" s="99"/>
       <c r="N207" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O207" s="98"/>
@@ -32342,7 +32477,7 @@
       <c r="C208" s="257"/>
       <c r="D208" s="257"/>
       <c r="E208" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F208" s="64"/>
@@ -32350,14 +32485,14 @@
       <c r="H208" s="238"/>
       <c r="I208" s="64"/>
       <c r="J208" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K208" s="100"/>
       <c r="L208" s="99"/>
       <c r="M208" s="99"/>
       <c r="N208" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O208" s="98"/>
@@ -32375,7 +32510,7 @@
       <c r="C209" s="257"/>
       <c r="D209" s="257"/>
       <c r="E209" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F209" s="64"/>
@@ -32383,14 +32518,14 @@
       <c r="H209" s="63"/>
       <c r="I209" s="64"/>
       <c r="J209" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K209" s="100"/>
       <c r="L209" s="99"/>
       <c r="M209" s="99"/>
       <c r="N209" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O209" s="98"/>
@@ -32408,7 +32543,7 @@
       <c r="C210" s="257"/>
       <c r="D210" s="257"/>
       <c r="E210" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F210" s="64"/>
@@ -32416,14 +32551,14 @@
       <c r="H210" s="238"/>
       <c r="I210" s="64"/>
       <c r="J210" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K210" s="100"/>
       <c r="L210" s="99"/>
       <c r="M210" s="99"/>
       <c r="N210" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O210" s="98"/>
@@ -32441,7 +32576,7 @@
       <c r="C211" s="257"/>
       <c r="D211" s="257"/>
       <c r="E211" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F211" s="64"/>
@@ -32449,14 +32584,14 @@
       <c r="H211" s="238"/>
       <c r="I211" s="64"/>
       <c r="J211" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K211" s="100"/>
       <c r="L211" s="99"/>
       <c r="M211" s="99"/>
       <c r="N211" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O211" s="98"/>
@@ -32474,7 +32609,7 @@
       <c r="C212" s="257"/>
       <c r="D212" s="257"/>
       <c r="E212" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F212" s="64"/>
@@ -32482,14 +32617,14 @@
       <c r="H212" s="238"/>
       <c r="I212" s="64"/>
       <c r="J212" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K212" s="100"/>
       <c r="L212" s="99"/>
       <c r="M212" s="99"/>
       <c r="N212" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O212" s="98"/>
@@ -32507,7 +32642,7 @@
       <c r="C213" s="257"/>
       <c r="D213" s="257"/>
       <c r="E213" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F213" s="64"/>
@@ -32515,14 +32650,14 @@
       <c r="H213" s="238"/>
       <c r="I213" s="64"/>
       <c r="J213" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K213" s="100"/>
       <c r="L213" s="99"/>
       <c r="M213" s="99"/>
       <c r="N213" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O213" s="98"/>
@@ -32540,7 +32675,7 @@
       <c r="C214" s="257"/>
       <c r="D214" s="257"/>
       <c r="E214" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F214" s="64"/>
@@ -32548,14 +32683,14 @@
       <c r="H214" s="238"/>
       <c r="I214" s="64"/>
       <c r="J214" s="45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K214" s="100"/>
       <c r="L214" s="99"/>
       <c r="M214" s="99"/>
       <c r="N214" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O214" s="98"/>
@@ -32573,7 +32708,7 @@
       <c r="C215" s="257"/>
       <c r="D215" s="257"/>
       <c r="E215" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F215" s="64"/>
@@ -32581,14 +32716,14 @@
       <c r="H215" s="238"/>
       <c r="I215" s="64"/>
       <c r="J215" s="45">
-        <f t="shared" ref="J215:J258" si="8">I215-F215</f>
+        <f t="shared" ref="J215:J258" si="9">I215-F215</f>
         <v>0</v>
       </c>
       <c r="K215" s="100"/>
       <c r="L215" s="99"/>
       <c r="M215" s="99"/>
       <c r="N215" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O215" s="98"/>
@@ -32606,7 +32741,7 @@
       <c r="C216" s="257"/>
       <c r="D216" s="257"/>
       <c r="E216" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F216" s="64"/>
@@ -32614,14 +32749,14 @@
       <c r="H216" s="238"/>
       <c r="I216" s="64"/>
       <c r="J216" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K216" s="100"/>
       <c r="L216" s="99"/>
       <c r="M216" s="99"/>
       <c r="N216" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O216" s="98"/>
@@ -32639,7 +32774,7 @@
       <c r="C217" s="257"/>
       <c r="D217" s="257"/>
       <c r="E217" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F217" s="64"/>
@@ -32647,14 +32782,14 @@
       <c r="H217" s="238"/>
       <c r="I217" s="64"/>
       <c r="J217" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K217" s="100"/>
       <c r="L217" s="99"/>
       <c r="M217" s="99"/>
       <c r="N217" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O217" s="98"/>
@@ -32672,7 +32807,7 @@
       <c r="C218" s="257"/>
       <c r="D218" s="257"/>
       <c r="E218" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F218" s="64"/>
@@ -32680,14 +32815,14 @@
       <c r="H218" s="238"/>
       <c r="I218" s="64"/>
       <c r="J218" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K218" s="100"/>
       <c r="L218" s="99"/>
       <c r="M218" s="99"/>
       <c r="N218" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O218" s="98"/>
@@ -32705,7 +32840,7 @@
       <c r="C219" s="257"/>
       <c r="D219" s="257"/>
       <c r="E219" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F219" s="64"/>
@@ -32713,14 +32848,14 @@
       <c r="H219" s="238"/>
       <c r="I219" s="64"/>
       <c r="J219" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K219" s="100"/>
       <c r="L219" s="99"/>
       <c r="M219" s="99"/>
       <c r="N219" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O219" s="98"/>
@@ -32738,7 +32873,7 @@
       <c r="C220" s="257"/>
       <c r="D220" s="257"/>
       <c r="E220" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F220" s="64"/>
@@ -32746,14 +32881,14 @@
       <c r="H220" s="238"/>
       <c r="I220" s="64"/>
       <c r="J220" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K220" s="100"/>
       <c r="L220" s="99"/>
       <c r="M220" s="99"/>
       <c r="N220" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O220" s="98"/>
@@ -32771,7 +32906,7 @@
       <c r="C221" s="257"/>
       <c r="D221" s="257"/>
       <c r="E221" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F221" s="64"/>
@@ -32779,14 +32914,14 @@
       <c r="H221" s="238"/>
       <c r="I221" s="64"/>
       <c r="J221" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K221" s="100"/>
       <c r="L221" s="99"/>
       <c r="M221" s="99"/>
       <c r="N221" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O221" s="98"/>
@@ -32804,7 +32939,7 @@
       <c r="C222" s="257"/>
       <c r="D222" s="257"/>
       <c r="E222" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F222" s="64"/>
@@ -32812,14 +32947,14 @@
       <c r="H222" s="238"/>
       <c r="I222" s="64"/>
       <c r="J222" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K222" s="100"/>
       <c r="L222" s="99"/>
       <c r="M222" s="99"/>
       <c r="N222" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O222" s="98"/>
@@ -32837,7 +32972,7 @@
       <c r="C223" s="257"/>
       <c r="D223" s="257"/>
       <c r="E223" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F223" s="64"/>
@@ -32845,14 +32980,14 @@
       <c r="H223" s="238"/>
       <c r="I223" s="64"/>
       <c r="J223" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K223" s="100"/>
       <c r="L223" s="99"/>
       <c r="M223" s="99"/>
       <c r="N223" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O223" s="98"/>
@@ -32870,7 +33005,7 @@
       <c r="C224" s="283"/>
       <c r="D224" s="283"/>
       <c r="E224" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F224" s="64"/>
@@ -32878,14 +33013,14 @@
       <c r="H224" s="238"/>
       <c r="I224" s="64"/>
       <c r="J224" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K224" s="100"/>
       <c r="L224" s="99"/>
       <c r="M224" s="99"/>
       <c r="N224" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O224" s="98"/>
@@ -32903,7 +33038,7 @@
       <c r="C225" s="257"/>
       <c r="D225" s="257"/>
       <c r="E225" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F225" s="64"/>
@@ -32911,14 +33046,14 @@
       <c r="H225" s="238"/>
       <c r="I225" s="64"/>
       <c r="J225" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K225" s="100"/>
       <c r="L225" s="99"/>
       <c r="M225" s="99"/>
       <c r="N225" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O225" s="98"/>
@@ -32936,7 +33071,7 @@
       <c r="C226" s="277"/>
       <c r="D226" s="277"/>
       <c r="E226" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F226" s="64"/>
@@ -32944,14 +33079,14 @@
       <c r="H226" s="238"/>
       <c r="I226" s="64"/>
       <c r="J226" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K226" s="100"/>
       <c r="L226" s="99"/>
       <c r="M226" s="99"/>
       <c r="N226" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O226" s="98"/>
@@ -32969,7 +33104,7 @@
       <c r="C227" s="278"/>
       <c r="D227" s="278"/>
       <c r="E227" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F227" s="64"/>
@@ -32977,14 +33112,14 @@
       <c r="H227" s="238"/>
       <c r="I227" s="64"/>
       <c r="J227" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K227" s="100"/>
       <c r="L227" s="99"/>
       <c r="M227" s="99"/>
       <c r="N227" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O227" s="98"/>
@@ -33002,7 +33137,7 @@
       <c r="C228" s="278"/>
       <c r="D228" s="278"/>
       <c r="E228" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F228" s="64"/>
@@ -33010,14 +33145,14 @@
       <c r="H228" s="238"/>
       <c r="I228" s="64"/>
       <c r="J228" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K228" s="100"/>
       <c r="L228" s="99"/>
       <c r="M228" s="99"/>
       <c r="N228" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O228" s="98"/>
@@ -33035,7 +33170,7 @@
       <c r="C229" s="277"/>
       <c r="D229" s="277"/>
       <c r="E229" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F229" s="64"/>
@@ -33043,14 +33178,14 @@
       <c r="H229" s="238"/>
       <c r="I229" s="64"/>
       <c r="J229" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K229" s="100"/>
       <c r="L229" s="99"/>
       <c r="M229" s="99"/>
       <c r="N229" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O229" s="98"/>
@@ -33068,7 +33203,7 @@
       <c r="C230" s="262"/>
       <c r="D230" s="262"/>
       <c r="E230" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F230" s="64"/>
@@ -33076,14 +33211,14 @@
       <c r="H230" s="238"/>
       <c r="I230" s="64"/>
       <c r="J230" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K230" s="100"/>
       <c r="L230" s="99"/>
       <c r="M230" s="99"/>
       <c r="N230" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O230" s="98"/>
@@ -33101,7 +33236,7 @@
       <c r="C231" s="207"/>
       <c r="D231" s="207"/>
       <c r="E231" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F231" s="64"/>
@@ -33109,14 +33244,14 @@
       <c r="H231" s="238"/>
       <c r="I231" s="64"/>
       <c r="J231" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K231" s="100"/>
       <c r="L231" s="99"/>
       <c r="M231" s="99"/>
       <c r="N231" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O231" s="98"/>
@@ -33134,7 +33269,7 @@
       <c r="C232" s="237"/>
       <c r="D232" s="237"/>
       <c r="E232" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F232" s="64"/>
@@ -33142,14 +33277,14 @@
       <c r="H232" s="238"/>
       <c r="I232" s="64"/>
       <c r="J232" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K232" s="100"/>
       <c r="L232" s="99"/>
       <c r="M232" s="99"/>
       <c r="N232" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O232" s="98"/>
@@ -33167,7 +33302,7 @@
       <c r="C233" s="237"/>
       <c r="D233" s="237"/>
       <c r="E233" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F233" s="64"/>
@@ -33175,14 +33310,14 @@
       <c r="H233" s="238"/>
       <c r="I233" s="64"/>
       <c r="J233" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K233" s="100"/>
       <c r="L233" s="99"/>
       <c r="M233" s="99"/>
       <c r="N233" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O233" s="98"/>
@@ -33200,7 +33335,7 @@
       <c r="C234" s="237"/>
       <c r="D234" s="237"/>
       <c r="E234" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F234" s="64"/>
@@ -33208,14 +33343,14 @@
       <c r="H234" s="238"/>
       <c r="I234" s="64"/>
       <c r="J234" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K234" s="100"/>
       <c r="L234" s="99"/>
       <c r="M234" s="99"/>
       <c r="N234" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O234" s="98"/>
@@ -33233,7 +33368,7 @@
       <c r="C235" s="237"/>
       <c r="D235" s="237"/>
       <c r="E235" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F235" s="64"/>
@@ -33241,14 +33376,14 @@
       <c r="H235" s="238"/>
       <c r="I235" s="64"/>
       <c r="J235" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K235" s="100"/>
       <c r="L235" s="99"/>
       <c r="M235" s="99"/>
       <c r="N235" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O235" s="98"/>
@@ -33266,7 +33401,7 @@
       <c r="C236" s="237"/>
       <c r="D236" s="237"/>
       <c r="E236" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F236" s="64"/>
@@ -33274,14 +33409,14 @@
       <c r="H236" s="63"/>
       <c r="I236" s="64"/>
       <c r="J236" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K236" s="100"/>
       <c r="L236" s="99"/>
       <c r="M236" s="99"/>
       <c r="N236" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O236" s="98"/>
@@ -33299,7 +33434,7 @@
       <c r="C237" s="237"/>
       <c r="D237" s="237"/>
       <c r="E237" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F237" s="64"/>
@@ -33307,14 +33442,14 @@
       <c r="H237" s="238"/>
       <c r="I237" s="64"/>
       <c r="J237" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K237" s="100"/>
       <c r="L237" s="99"/>
       <c r="M237" s="99"/>
       <c r="N237" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O237" s="98"/>
@@ -33332,7 +33467,7 @@
       <c r="C238" s="219"/>
       <c r="D238" s="219"/>
       <c r="E238" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F238" s="64"/>
@@ -33340,14 +33475,14 @@
       <c r="H238" s="238"/>
       <c r="I238" s="64"/>
       <c r="J238" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K238" s="100"/>
       <c r="L238" s="99"/>
       <c r="M238" s="99"/>
       <c r="N238" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O238" s="98"/>
@@ -33365,7 +33500,7 @@
       <c r="C239" s="219"/>
       <c r="D239" s="219"/>
       <c r="E239" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F239" s="64"/>
@@ -33373,14 +33508,14 @@
       <c r="H239" s="238"/>
       <c r="I239" s="64"/>
       <c r="J239" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K239" s="100"/>
       <c r="L239" s="99"/>
       <c r="M239" s="99"/>
       <c r="N239" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O239" s="98"/>
@@ -33398,7 +33533,7 @@
       <c r="C240" s="255"/>
       <c r="D240" s="255"/>
       <c r="E240" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F240" s="64"/>
@@ -33406,14 +33541,14 @@
       <c r="H240" s="252"/>
       <c r="I240" s="64"/>
       <c r="J240" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K240" s="100"/>
       <c r="L240" s="99"/>
       <c r="M240" s="99"/>
       <c r="N240" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O240" s="234"/>
@@ -33431,7 +33566,7 @@
       <c r="C241" s="189"/>
       <c r="D241" s="189"/>
       <c r="E241" s="40">
-        <f t="shared" ref="E241:E262" si="9">D241*F241</f>
+        <f t="shared" ref="E241:E262" si="10">D241*F241</f>
         <v>0</v>
       </c>
       <c r="F241" s="64"/>
@@ -33439,14 +33574,14 @@
       <c r="H241" s="252"/>
       <c r="I241" s="64"/>
       <c r="J241" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K241" s="100"/>
       <c r="L241" s="286"/>
       <c r="M241" s="287"/>
       <c r="N241" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O241" s="234"/>
@@ -33464,7 +33599,7 @@
       <c r="C242" s="200"/>
       <c r="D242" s="200"/>
       <c r="E242" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F242" s="200"/>
@@ -33472,14 +33607,14 @@
       <c r="H242" s="290"/>
       <c r="I242" s="116"/>
       <c r="J242" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K242" s="100"/>
       <c r="L242" s="286"/>
       <c r="M242" s="287"/>
       <c r="N242" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O242" s="234"/>
@@ -33497,7 +33632,7 @@
       <c r="C243" s="200"/>
       <c r="D243" s="200"/>
       <c r="E243" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F243" s="200"/>
@@ -33505,14 +33640,14 @@
       <c r="H243" s="290"/>
       <c r="I243" s="116"/>
       <c r="J243" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K243" s="100"/>
       <c r="L243" s="286"/>
       <c r="M243" s="287"/>
       <c r="N243" s="48">
-        <f t="shared" ref="N243:N262" si="10">K243*I243</f>
+        <f t="shared" ref="N243:N262" si="11">K243*I243</f>
         <v>0</v>
       </c>
       <c r="O243" s="234"/>
@@ -33530,7 +33665,7 @@
       <c r="C244" s="200"/>
       <c r="D244" s="200"/>
       <c r="E244" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F244" s="200"/>
@@ -33538,14 +33673,14 @@
       <c r="H244" s="290"/>
       <c r="I244" s="116"/>
       <c r="J244" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K244" s="100"/>
       <c r="L244" s="286"/>
       <c r="M244" s="287"/>
       <c r="N244" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O244" s="98"/>
@@ -33563,7 +33698,7 @@
       <c r="C245" s="200"/>
       <c r="D245" s="200"/>
       <c r="E245" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F245" s="200"/>
@@ -33571,14 +33706,14 @@
       <c r="H245" s="290"/>
       <c r="I245" s="116"/>
       <c r="J245" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K245" s="100"/>
       <c r="L245" s="286"/>
       <c r="M245" s="287"/>
       <c r="N245" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O245" s="98"/>
@@ -33596,7 +33731,7 @@
       <c r="C246" s="200"/>
       <c r="D246" s="200"/>
       <c r="E246" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F246" s="200"/>
@@ -33604,14 +33739,14 @@
       <c r="H246" s="290"/>
       <c r="I246" s="116"/>
       <c r="J246" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K246" s="100"/>
       <c r="L246" s="286"/>
       <c r="M246" s="287"/>
       <c r="N246" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O246" s="98"/>
@@ -33629,7 +33764,7 @@
       <c r="C247" s="292"/>
       <c r="D247" s="293"/>
       <c r="E247" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F247" s="44"/>
@@ -33637,14 +33772,14 @@
       <c r="H247" s="295"/>
       <c r="I247" s="64"/>
       <c r="J247" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K247" s="100"/>
       <c r="L247" s="286"/>
       <c r="M247" s="296"/>
       <c r="N247" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O247" s="234"/>
@@ -33662,7 +33797,7 @@
       <c r="C248" s="292"/>
       <c r="D248" s="292"/>
       <c r="E248" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F248" s="64"/>
@@ -33670,14 +33805,14 @@
       <c r="H248" s="252"/>
       <c r="I248" s="64"/>
       <c r="J248" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K248" s="100"/>
       <c r="L248" s="286"/>
       <c r="M248" s="296"/>
       <c r="N248" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O248" s="234"/>
@@ -33695,7 +33830,7 @@
       <c r="C249" s="292"/>
       <c r="D249" s="292"/>
       <c r="E249" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F249" s="64"/>
@@ -33703,14 +33838,14 @@
       <c r="H249" s="252"/>
       <c r="I249" s="64"/>
       <c r="J249" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K249" s="100"/>
       <c r="L249" s="286"/>
       <c r="M249" s="296"/>
       <c r="N249" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O249" s="234"/>
@@ -33728,7 +33863,7 @@
       <c r="C250" s="297"/>
       <c r="D250" s="297"/>
       <c r="E250" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F250" s="64"/>
@@ -33736,14 +33871,14 @@
       <c r="H250" s="252"/>
       <c r="I250" s="64"/>
       <c r="J250" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K250" s="100"/>
       <c r="L250" s="286"/>
       <c r="M250" s="296"/>
       <c r="N250" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O250" s="234"/>
@@ -33761,7 +33896,7 @@
       <c r="C251" s="210"/>
       <c r="D251" s="210"/>
       <c r="E251" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F251" s="268"/>
@@ -33771,14 +33906,14 @@
         <v>0</v>
       </c>
       <c r="J251" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K251" s="299"/>
       <c r="L251" s="299"/>
       <c r="M251" s="299"/>
       <c r="N251" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O251" s="301"/>
@@ -33796,7 +33931,7 @@
       <c r="C252" s="210"/>
       <c r="D252" s="210"/>
       <c r="E252" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F252" s="268"/>
@@ -33806,14 +33941,14 @@
         <v>0</v>
       </c>
       <c r="J252" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K252" s="299"/>
       <c r="L252" s="299"/>
       <c r="M252" s="299"/>
       <c r="N252" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O252" s="301"/>
@@ -33831,7 +33966,7 @@
       <c r="C253" s="210"/>
       <c r="D253" s="210"/>
       <c r="E253" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F253" s="268"/>
@@ -33841,14 +33976,14 @@
         <v>0</v>
       </c>
       <c r="J253" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K253" s="299"/>
       <c r="L253" s="299"/>
       <c r="M253" s="299"/>
       <c r="N253" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O253" s="301"/>
@@ -33866,7 +34001,7 @@
       <c r="C254" s="210"/>
       <c r="D254" s="210"/>
       <c r="E254" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F254" s="268"/>
@@ -33876,14 +34011,14 @@
         <v>0</v>
       </c>
       <c r="J254" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K254" s="299"/>
       <c r="L254" s="299"/>
       <c r="M254" s="299"/>
       <c r="N254" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O254" s="301"/>
@@ -33901,7 +34036,7 @@
       <c r="C255" s="210"/>
       <c r="D255" s="210"/>
       <c r="E255" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F255" s="268"/>
@@ -33911,14 +34046,14 @@
         <v>0</v>
       </c>
       <c r="J255" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K255" s="299"/>
       <c r="L255" s="299"/>
       <c r="M255" s="299"/>
       <c r="N255" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O255" s="301"/>
@@ -33934,7 +34069,7 @@
       <c r="A256" s="308"/>
       <c r="B256" s="309"/>
       <c r="E256" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H256" s="313"/>
@@ -33942,14 +34077,14 @@
         <v>0</v>
       </c>
       <c r="J256" s="45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K256" s="314"/>
       <c r="L256" s="314"/>
       <c r="M256" s="314"/>
       <c r="N256" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O256" s="301"/>
@@ -33965,21 +34100,21 @@
       <c r="A257" s="308"/>
       <c r="B257" s="309"/>
       <c r="E257" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I257" s="311">
+        <v>0</v>
+      </c>
+      <c r="J257" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I257" s="311">
-        <v>0</v>
-      </c>
-      <c r="J257" s="45">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K257" s="314"/>
       <c r="L257" s="314"/>
       <c r="M257" s="314"/>
       <c r="N257" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O257" s="301"/>
@@ -33995,21 +34130,21 @@
       <c r="A258" s="308"/>
       <c r="B258" s="309"/>
       <c r="E258" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I258" s="316">
+        <v>0</v>
+      </c>
+      <c r="J258" s="45">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I258" s="316">
-        <v>0</v>
-      </c>
-      <c r="J258" s="45">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K258" s="314"/>
       <c r="L258" s="314"/>
       <c r="M258" s="314"/>
       <c r="N258" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O258" s="301"/>
@@ -34025,14 +34160,14 @@
       <c r="A259" s="308"/>
       <c r="B259" s="309"/>
       <c r="E259" s="40" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="479" t="s">
+      <c r="F259" s="480" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="479"/>
-      <c r="H259" s="480"/>
+      <c r="G259" s="480"/>
+      <c r="H259" s="481"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>515771.39999999997</v>
@@ -34042,7 +34177,7 @@
       <c r="L259" s="319"/>
       <c r="M259" s="314"/>
       <c r="N259" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O259" s="301"/>
@@ -34058,7 +34193,7 @@
       <c r="A260" s="321"/>
       <c r="B260" s="309"/>
       <c r="E260" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I260" s="322"/>
@@ -34067,7 +34202,7 @@
       <c r="L260" s="319"/>
       <c r="M260" s="314"/>
       <c r="N260" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O260" s="323"/>
@@ -34081,7 +34216,7 @@
       <c r="A261" s="308"/>
       <c r="B261" s="309"/>
       <c r="E261" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J261" s="311"/>
@@ -34089,7 +34224,7 @@
       <c r="L261" s="314"/>
       <c r="M261" s="314"/>
       <c r="N261" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O261" s="323"/>
@@ -34103,13 +34238,13 @@
       <c r="A262" s="308"/>
       <c r="B262" s="309"/>
       <c r="E262" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J262" s="311"/>
       <c r="K262" s="328"/>
       <c r="N262" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O262" s="329"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="299">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -891,6 +891,39 @@
   </si>
   <si>
     <t>0322 Z</t>
+  </si>
+  <si>
+    <t>0330 Z</t>
+  </si>
+  <si>
+    <t>0341 Z</t>
+  </si>
+  <si>
+    <t>0357 Z</t>
+  </si>
+  <si>
+    <t>0369 Z</t>
+  </si>
+  <si>
+    <t>0388 Z</t>
+  </si>
+  <si>
+    <t>0393 Z</t>
+  </si>
+  <si>
+    <t>0402 Z</t>
+  </si>
+  <si>
+    <t>0417 Z</t>
+  </si>
+  <si>
+    <t>0432 Z</t>
+  </si>
+  <si>
+    <t>0442 Z</t>
+  </si>
+  <si>
+    <t>0453 Z</t>
   </si>
 </sst>
 </file>
@@ -2218,7 +2251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="518">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3463,6 +3496,102 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3480,99 +3609,6 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3959,18 +3995,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -3984,22 +4020,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="465"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="463"/>
+      <c r="J2" s="463"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4053,10 +4089,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="467"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4600,7 +4636,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="491" t="s">
+      <c r="C12" s="468" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4664,7 +4700,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="492"/>
+      <c r="C13" s="469"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6666,13 +6702,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="470" t="s">
+      <c r="A56" s="480" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="472" t="s">
+      <c r="C56" s="482" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6712,11 +6748,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="471"/>
+      <c r="A57" s="481"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="473"/>
+      <c r="C57" s="483"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6752,13 +6788,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="470" t="s">
+      <c r="A58" s="480" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="472" t="s">
+      <c r="C58" s="482" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6791,7 +6827,7 @@
       <c r="O58" s="476" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="497">
+      <c r="P58" s="478">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6802,11 +6838,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="471"/>
+      <c r="A59" s="481"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="473"/>
+      <c r="C59" s="483"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6833,7 +6869,7 @@
         <v>22440</v>
       </c>
       <c r="O59" s="477"/>
-      <c r="P59" s="498"/>
+      <c r="P59" s="479"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6842,13 +6878,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="495" t="s">
+      <c r="A60" s="472" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="493" t="s">
+      <c r="C60" s="470" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6884,7 +6920,7 @@
       <c r="O60" s="476" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="497">
+      <c r="P60" s="478">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6897,11 +6933,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="496"/>
+      <c r="A61" s="473"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="494"/>
+      <c r="C61" s="471"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6931,7 +6967,7 @@
         <v>23623.200000000001</v>
       </c>
       <c r="O61" s="477"/>
-      <c r="P61" s="498"/>
+      <c r="P61" s="479"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -6997,7 +7033,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="464"/>
+      <c r="C63" s="496"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7005,7 +7041,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="466"/>
+      <c r="H63" s="498"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7034,7 +7070,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="465"/>
+      <c r="C64" s="497"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7042,7 +7078,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="467"/>
+      <c r="H64" s="499"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7220,8 +7256,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="468"/>
-      <c r="P68" s="462"/>
+      <c r="O68" s="488"/>
+      <c r="P68" s="494"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7255,8 +7291,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="469"/>
-      <c r="P69" s="463"/>
+      <c r="O69" s="489"/>
+      <c r="P69" s="495"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7746,8 +7782,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="468"/>
-      <c r="P82" s="482"/>
+      <c r="O82" s="488"/>
+      <c r="P82" s="490"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7779,8 +7815,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="469"/>
-      <c r="P83" s="483"/>
+      <c r="O83" s="489"/>
+      <c r="P83" s="491"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7812,8 +7848,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="468"/>
-      <c r="P84" s="482"/>
+      <c r="O84" s="488"/>
+      <c r="P84" s="490"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7845,8 +7881,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="469"/>
-      <c r="P85" s="483"/>
+      <c r="O85" s="489"/>
+      <c r="P85" s="491"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8004,8 +8040,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="484"/>
-      <c r="M90" s="485"/>
+      <c r="L90" s="492"/>
+      <c r="M90" s="493"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8037,8 +8073,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="484"/>
-      <c r="M91" s="485"/>
+      <c r="L91" s="492"/>
+      <c r="M91" s="493"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8241,8 +8277,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="468"/>
-      <c r="P97" s="478"/>
+      <c r="O97" s="488"/>
+      <c r="P97" s="484"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8274,8 +8310,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="469"/>
-      <c r="P98" s="479"/>
+      <c r="O98" s="489"/>
+      <c r="P98" s="485"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13667,11 +13703,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="480" t="s">
+      <c r="F262" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="480"/>
-      <c r="H262" s="481"/>
+      <c r="G262" s="486"/>
+      <c r="H262" s="487"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14245,6 +14281,22 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14258,22 +14310,6 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14320,49 +14356,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="463" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="505" t="s">
+      <c r="S1" s="506" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="505"/>
+      <c r="T1" s="506"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="465"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="463"/>
+      <c r="J2" s="463"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14370,8 +14406,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="506"/>
-      <c r="T2" s="506"/>
+      <c r="S2" s="507"/>
+      <c r="T2" s="507"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -14416,10 +14452,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="467"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17055,13 +17091,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="507" t="s">
+      <c r="A55" s="508" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="472" t="s">
+      <c r="C55" s="482" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17072,7 +17108,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="466" t="s">
+      <c r="H55" s="498" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17101,11 +17137,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="508"/>
+      <c r="A56" s="509"/>
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="473"/>
+      <c r="C56" s="483"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17114,7 +17150,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="467"/>
+      <c r="H56" s="499"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17143,13 +17179,13 @@
       <c r="X56"/>
     </row>
     <row r="57" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="499" t="s">
+      <c r="A57" s="500" t="s">
         <v>41</v>
       </c>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="501" t="s">
+      <c r="C57" s="502" t="s">
         <v>162</v>
       </c>
       <c r="D57" s="165"/>
@@ -17160,7 +17196,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="466" t="s">
+      <c r="H57" s="498" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17179,10 +17215,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="468" t="s">
+      <c r="O57" s="488" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="462">
+      <c r="P57" s="494">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17193,11 +17229,11 @@
       <c r="V57" s="54"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="500"/>
+      <c r="A58" s="501"/>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="502"/>
+      <c r="C58" s="503"/>
       <c r="D58" s="165"/>
       <c r="E58" s="40"/>
       <c r="F58" s="151">
@@ -17206,7 +17242,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="467"/>
+      <c r="H58" s="499"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17223,8 +17259,8 @@
         <f t="shared" si="1"/>
         <v>58366.995299999995</v>
       </c>
-      <c r="O58" s="503"/>
-      <c r="P58" s="504"/>
+      <c r="O58" s="504"/>
+      <c r="P58" s="505"/>
       <c r="Q58" s="164"/>
       <c r="R58" s="129"/>
       <c r="S58" s="92"/>
@@ -17232,7 +17268,7 @@
       <c r="U58" s="53"/>
       <c r="V58" s="54"/>
     </row>
-    <row r="59" spans="1:24" s="161" customFormat="1" ht="48.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="449" t="s">
         <v>41</v>
       </c>
@@ -17250,7 +17286,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="466" t="s">
+      <c r="H59" s="498" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17294,7 +17330,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="467"/>
+      <c r="H60" s="499"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17957,8 +17993,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="468"/>
-      <c r="P79" s="482"/>
+      <c r="O79" s="488"/>
+      <c r="P79" s="490"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -17987,8 +18023,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="469"/>
-      <c r="P80" s="483"/>
+      <c r="O80" s="489"/>
+      <c r="P80" s="491"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18017,8 +18053,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="468"/>
-      <c r="P81" s="482"/>
+      <c r="O81" s="488"/>
+      <c r="P81" s="490"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18050,8 +18086,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="469"/>
-      <c r="P82" s="483"/>
+      <c r="O82" s="489"/>
+      <c r="P82" s="491"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18209,8 +18245,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="484"/>
-      <c r="M87" s="485"/>
+      <c r="L87" s="492"/>
+      <c r="M87" s="493"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18242,8 +18278,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="484"/>
-      <c r="M88" s="485"/>
+      <c r="L88" s="492"/>
+      <c r="M88" s="493"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18446,8 +18482,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="468"/>
-      <c r="P94" s="478"/>
+      <c r="O94" s="488"/>
+      <c r="P94" s="484"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18479,8 +18515,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="469"/>
-      <c r="P95" s="479"/>
+      <c r="O95" s="489"/>
+      <c r="P95" s="485"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23872,11 +23908,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="480" t="s">
+      <c r="F259" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="480"/>
-      <c r="H259" s="481"/>
+      <c r="G259" s="486"/>
+      <c r="H259" s="487"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24450,12 +24486,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24471,6 +24501,12 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24485,10 +24521,10 @@
   <dimension ref="A1:X292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="R22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24517,49 +24553,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="463" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="486"/>
-      <c r="C1" s="486"/>
-      <c r="D1" s="486"/>
-      <c r="E1" s="486"/>
-      <c r="F1" s="486"/>
-      <c r="G1" s="486"/>
-      <c r="H1" s="486"/>
-      <c r="I1" s="486"/>
-      <c r="J1" s="486"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
       <c r="N1" s="375"/>
       <c r="O1" s="376"/>
-      <c r="S1" s="505" t="s">
+      <c r="S1" s="506" t="s">
         <v>142</v>
       </c>
-      <c r="T1" s="505"/>
+      <c r="T1" s="506"/>
       <c r="U1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="487" t="s">
+      <c r="W1" s="464" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="488"/>
+      <c r="X1" s="465"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="486"/>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
-      <c r="I2" s="486"/>
-      <c r="J2" s="486"/>
+      <c r="A2" s="463"/>
+      <c r="B2" s="463"/>
+      <c r="C2" s="463"/>
+      <c r="D2" s="463"/>
+      <c r="E2" s="463"/>
+      <c r="F2" s="463"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="463"/>
+      <c r="I2" s="463"/>
+      <c r="J2" s="463"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24567,8 +24603,8 @@
       <c r="O2" s="379"/>
       <c r="Q2" s="10"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="506"/>
-      <c r="T2" s="506"/>
+      <c r="S2" s="507"/>
+      <c r="T2" s="507"/>
       <c r="U2" s="14"/>
       <c r="V2" s="15"/>
       <c r="W2" s="16"/>
@@ -24613,10 +24649,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="489" t="s">
+      <c r="O3" s="466" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="490"/>
+      <c r="P3" s="467"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -24783,11 +24819,15 @@
       <c r="B6" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="C6" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="60">
+        <v>46</v>
+      </c>
       <c r="E6" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1010620</v>
       </c>
       <c r="F6" s="61">
         <v>21970</v>
@@ -24848,8 +24888,12 @@
       <c r="B7" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="C7" s="59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0</v>
+      </c>
       <c r="E7" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -24913,11 +24957,15 @@
       <c r="B8" s="58" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
+      <c r="C8" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="60">
+        <v>46</v>
+      </c>
       <c r="E8" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>976120</v>
       </c>
       <c r="F8" s="61">
         <v>21220</v>
@@ -24978,8 +25026,12 @@
       <c r="B9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="C9" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="60">
+        <v>0</v>
+      </c>
       <c r="E9" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25043,11 +25095,15 @@
       <c r="B10" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="72"/>
+      <c r="C10" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="72">
+        <v>39</v>
+      </c>
       <c r="E10" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>858390</v>
       </c>
       <c r="F10" s="61">
         <v>22010</v>
@@ -25108,8 +25164,12 @@
       <c r="B11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="59" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0</v>
+      </c>
       <c r="E11" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25173,9 +25233,11 @@
       <c r="B12" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="431"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="40">
+      <c r="C12" s="462"/>
+      <c r="D12" s="87">
+        <v>0</v>
+      </c>
+      <c r="E12" s="88">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -25238,11 +25300,15 @@
       <c r="B13" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="432"/>
-      <c r="D13" s="60"/>
+      <c r="C13" s="432" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="60">
+        <v>46</v>
+      </c>
       <c r="E13" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1037300</v>
       </c>
       <c r="F13" s="61">
         <v>22550</v>
@@ -25303,8 +25369,12 @@
       <c r="B14" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="C14" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="60">
+        <v>0</v>
+      </c>
       <c r="E14" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25368,11 +25438,15 @@
       <c r="B15" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="C15" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="60">
+        <v>46</v>
+      </c>
       <c r="E15" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>941160</v>
       </c>
       <c r="F15" s="61">
         <v>20460</v>
@@ -25433,8 +25507,12 @@
       <c r="B16" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="60"/>
+      <c r="C16" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="60">
+        <v>0</v>
+      </c>
       <c r="E16" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25498,11 +25576,15 @@
       <c r="B17" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17" s="60">
+        <v>46</v>
+      </c>
       <c r="E17" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1080540</v>
       </c>
       <c r="F17" s="61">
         <v>23490</v>
@@ -25563,8 +25645,12 @@
       <c r="B18" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="60">
+        <v>0</v>
+      </c>
       <c r="E18" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25628,11 +25714,15 @@
       <c r="B19" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="60">
+        <v>46</v>
+      </c>
       <c r="E19" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>994980</v>
       </c>
       <c r="F19" s="61">
         <v>21630</v>
@@ -25693,8 +25783,12 @@
       <c r="B20" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+      <c r="C20" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" s="60">
+        <v>0</v>
+      </c>
       <c r="E20" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25758,11 +25852,15 @@
       <c r="B21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="60">
+        <v>46</v>
+      </c>
       <c r="E21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1025340</v>
       </c>
       <c r="F21" s="61">
         <v>22290</v>
@@ -25823,8 +25921,12 @@
       <c r="B22" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="D22" s="60">
+        <v>0</v>
+      </c>
       <c r="E22" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -25889,11 +25991,15 @@
       <c r="B23" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="C23" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D23" s="60">
+        <v>47</v>
+      </c>
       <c r="E23" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1082880</v>
       </c>
       <c r="F23" s="61">
         <v>23040</v>
@@ -25954,8 +26060,12 @@
       <c r="B24" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
+      <c r="C24" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="D24" s="60">
+        <v>0</v>
+      </c>
       <c r="E24" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26019,11 +26129,15 @@
       <c r="B25" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="C25" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="60">
+        <v>47</v>
+      </c>
       <c r="E25" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1006270</v>
       </c>
       <c r="F25" s="61">
         <v>21410</v>
@@ -26084,8 +26198,12 @@
       <c r="B26" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="60">
+        <v>0</v>
+      </c>
       <c r="E26" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26149,11 +26267,15 @@
       <c r="B27" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="C27" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D27" s="60">
+        <v>47</v>
+      </c>
       <c r="E27" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1069720</v>
       </c>
       <c r="F27" s="61">
         <v>22760</v>
@@ -26210,8 +26332,12 @@
       <c r="B28" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="60">
+        <v>0</v>
+      </c>
       <c r="E28" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27436,13 +27562,13 @@
       <c r="V54" s="160"/>
     </row>
     <row r="55" spans="1:24" s="161" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="507" t="s">
+      <c r="A55" s="508" t="s">
         <v>41</v>
       </c>
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="472" t="s">
+      <c r="C55" s="482" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -27453,7 +27579,7 @@
       <c r="G55" s="152">
         <v>44627</v>
       </c>
-      <c r="H55" s="510" t="s">
+      <c r="H55" s="511" t="s">
         <v>233</v>
       </c>
       <c r="I55" s="151">
@@ -27472,10 +27598,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="468" t="s">
+      <c r="O55" s="488" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="462">
+      <c r="P55" s="494">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27486,11 +27612,11 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="509"/>
+      <c r="A56" s="510"/>
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="473"/>
+      <c r="C56" s="483"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27499,7 +27625,7 @@
       <c r="G56" s="152">
         <v>44627</v>
       </c>
-      <c r="H56" s="511"/>
+      <c r="H56" s="512"/>
       <c r="I56" s="151">
         <v>967</v>
       </c>
@@ -27516,8 +27642,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="469"/>
-      <c r="P56" s="463"/>
+      <c r="O56" s="489"/>
+      <c r="P56" s="495"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27688,13 +27814,13 @@
       <c r="V61" s="54"/>
     </row>
     <row r="62" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="512" t="s">
+      <c r="A62" s="513" t="s">
         <v>106</v>
       </c>
       <c r="B62" s="178" t="s">
         <v>243</v>
       </c>
-      <c r="C62" s="514" t="s">
+      <c r="C62" s="515" t="s">
         <v>244</v>
       </c>
       <c r="D62" s="168"/>
@@ -27705,7 +27831,7 @@
       <c r="G62" s="152">
         <v>44622</v>
       </c>
-      <c r="H62" s="516">
+      <c r="H62" s="517">
         <v>37162</v>
       </c>
       <c r="I62" s="151">
@@ -27724,10 +27850,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="468" t="s">
+      <c r="O62" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="462">
+      <c r="P62" s="494">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -27738,11 +27864,11 @@
       <c r="V62" s="54"/>
     </row>
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="513"/>
+      <c r="A63" s="514"/>
       <c r="B63" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="C63" s="515"/>
+      <c r="C63" s="516"/>
       <c r="D63" s="168"/>
       <c r="E63" s="60"/>
       <c r="F63" s="151">
@@ -27751,7 +27877,7 @@
       <c r="G63" s="152">
         <v>44622</v>
       </c>
-      <c r="H63" s="517"/>
+      <c r="H63" s="518"/>
       <c r="I63" s="151">
         <v>204.8</v>
       </c>
@@ -27768,8 +27894,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="469"/>
-      <c r="P63" s="463"/>
+      <c r="O63" s="489"/>
+      <c r="P63" s="495"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28248,8 +28374,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="468"/>
-      <c r="P79" s="482"/>
+      <c r="O79" s="488"/>
+      <c r="P79" s="490"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28278,8 +28404,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="469"/>
-      <c r="P80" s="483"/>
+      <c r="O80" s="489"/>
+      <c r="P80" s="491"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28308,8 +28434,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="468"/>
-      <c r="P81" s="482"/>
+      <c r="O81" s="488"/>
+      <c r="P81" s="490"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -28341,8 +28467,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="469"/>
-      <c r="P82" s="483"/>
+      <c r="O82" s="489"/>
+      <c r="P82" s="491"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28500,8 +28626,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="484"/>
-      <c r="M87" s="485"/>
+      <c r="L87" s="492"/>
+      <c r="M87" s="493"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28533,8 +28659,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="484"/>
-      <c r="M88" s="485"/>
+      <c r="L88" s="492"/>
+      <c r="M88" s="493"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28737,8 +28863,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="468"/>
-      <c r="P94" s="478"/>
+      <c r="O94" s="488"/>
+      <c r="P94" s="484"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -28770,8 +28896,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="469"/>
-      <c r="P95" s="479"/>
+      <c r="O95" s="489"/>
+      <c r="P95" s="485"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34163,11 +34289,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="480" t="s">
+      <c r="F259" s="486" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="480"/>
-      <c r="H259" s="481"/>
+      <c r="G259" s="486"/>
+      <c r="H259" s="487"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>515771.39999999997</v>
@@ -34741,6 +34867,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -34756,13 +34889,6 @@
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #03  MARZO  2022/ENTRADAS OBRADOR  MaRzO     2022.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="302">
   <si>
     <t>FECHA DE PAGO</t>
   </si>
@@ -924,6 +924,15 @@
   </si>
   <si>
     <t>0453 Z</t>
+  </si>
+  <si>
+    <t>0468 Z</t>
+  </si>
+  <si>
+    <t>0485 Z</t>
+  </si>
+  <si>
+    <t>0499 Z</t>
   </si>
 </sst>
 </file>
@@ -3499,6 +3508,78 @@
     <xf numFmtId="0" fontId="19" fillId="11" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3532,83 +3613,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="31" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3995,18 +4004,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="487" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -4020,22 +4029,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="464" t="s">
+      <c r="W1" s="488" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="465"/>
+      <c r="X1" s="489"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -4089,10 +4098,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="466" t="s">
+      <c r="O3" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="467"/>
+      <c r="P3" s="491"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -4636,7 +4645,7 @@
       <c r="B12" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="468" t="s">
+      <c r="C12" s="492" t="s">
         <v>103</v>
       </c>
       <c r="D12" s="400"/>
@@ -4700,7 +4709,7 @@
       <c r="B13" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="469"/>
+      <c r="C13" s="493"/>
       <c r="D13" s="400"/>
       <c r="E13" s="401"/>
       <c r="F13" s="402">
@@ -6702,13 +6711,13 @@
       <c r="V55" s="160"/>
     </row>
     <row r="56" spans="1:24" s="161" customFormat="1" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="480" t="s">
+      <c r="A56" s="471" t="s">
         <v>41</v>
       </c>
       <c r="B56" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="482" t="s">
+      <c r="C56" s="473" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="150"/>
@@ -6719,7 +6728,7 @@
       <c r="G56" s="152">
         <v>44571</v>
       </c>
-      <c r="H56" s="474">
+      <c r="H56" s="475">
         <v>782</v>
       </c>
       <c r="I56" s="151">
@@ -6748,11 +6757,11 @@
       <c r="V56" s="160"/>
     </row>
     <row r="57" spans="1:24" s="161" customFormat="1" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="481"/>
+      <c r="A57" s="472"/>
       <c r="B57" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="483"/>
+      <c r="C57" s="474"/>
       <c r="D57" s="150"/>
       <c r="E57" s="40"/>
       <c r="F57" s="151">
@@ -6761,7 +6770,7 @@
       <c r="G57" s="152">
         <v>44571</v>
       </c>
-      <c r="H57" s="475"/>
+      <c r="H57" s="476"/>
       <c r="I57" s="151">
         <v>319</v>
       </c>
@@ -6788,13 +6797,13 @@
       <c r="V57" s="160"/>
     </row>
     <row r="58" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="480" t="s">
+      <c r="A58" s="471" t="s">
         <v>41</v>
       </c>
       <c r="B58" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="482" t="s">
+      <c r="C58" s="473" t="s">
         <v>129</v>
       </c>
       <c r="D58" s="150"/>
@@ -6805,7 +6814,7 @@
       <c r="G58" s="152">
         <v>44578</v>
       </c>
-      <c r="H58" s="474">
+      <c r="H58" s="475">
         <v>810</v>
       </c>
       <c r="I58" s="151">
@@ -6824,10 +6833,10 @@
         <f t="shared" si="1"/>
         <v>75875.8</v>
       </c>
-      <c r="O58" s="476" t="s">
+      <c r="O58" s="477" t="s">
         <v>59</v>
       </c>
-      <c r="P58" s="478">
+      <c r="P58" s="498">
         <v>44606</v>
       </c>
       <c r="Q58" s="128"/>
@@ -6838,11 +6847,11 @@
       <c r="V58" s="160"/>
     </row>
     <row r="59" spans="1:24" s="161" customFormat="1" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="481"/>
+      <c r="A59" s="472"/>
       <c r="B59" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="483"/>
+      <c r="C59" s="474"/>
       <c r="D59" s="150"/>
       <c r="E59" s="40"/>
       <c r="F59" s="151">
@@ -6851,7 +6860,7 @@
       <c r="G59" s="152">
         <v>44578</v>
       </c>
-      <c r="H59" s="475"/>
+      <c r="H59" s="476"/>
       <c r="I59" s="151">
         <v>220</v>
       </c>
@@ -6868,8 +6877,8 @@
         <f t="shared" si="1"/>
         <v>22440</v>
       </c>
-      <c r="O59" s="477"/>
-      <c r="P59" s="479"/>
+      <c r="O59" s="478"/>
+      <c r="P59" s="499"/>
       <c r="Q59" s="128"/>
       <c r="R59" s="158"/>
       <c r="S59" s="92"/>
@@ -6878,13 +6887,13 @@
       <c r="V59" s="160"/>
     </row>
     <row r="60" spans="1:24" s="161" customFormat="1" ht="48.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="472" t="s">
+      <c r="A60" s="496" t="s">
         <v>41</v>
       </c>
       <c r="B60" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="470" t="s">
+      <c r="C60" s="494" t="s">
         <v>109</v>
       </c>
       <c r="D60" s="163"/>
@@ -6898,7 +6907,7 @@
       <c r="G60" s="152">
         <v>44585</v>
       </c>
-      <c r="H60" s="474">
+      <c r="H60" s="475">
         <v>800</v>
       </c>
       <c r="I60" s="151">
@@ -6917,10 +6926,10 @@
         <f t="shared" si="1"/>
         <v>151187.4</v>
       </c>
-      <c r="O60" s="476" t="s">
+      <c r="O60" s="477" t="s">
         <v>59</v>
       </c>
-      <c r="P60" s="478">
+      <c r="P60" s="498">
         <v>44594</v>
       </c>
       <c r="Q60" s="164"/>
@@ -6933,11 +6942,11 @@
       <c r="X60"/>
     </row>
     <row r="61" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="473"/>
+      <c r="A61" s="497"/>
       <c r="B61" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="471"/>
+      <c r="C61" s="495"/>
       <c r="D61" s="165"/>
       <c r="E61" s="40">
         <f t="shared" si="2"/>
@@ -6949,7 +6958,7 @@
       <c r="G61" s="152">
         <v>44585</v>
       </c>
-      <c r="H61" s="475"/>
+      <c r="H61" s="476"/>
       <c r="I61" s="151">
         <v>231.6</v>
       </c>
@@ -6966,8 +6975,8 @@
         <f t="shared" si="1"/>
         <v>23623.200000000001</v>
       </c>
-      <c r="O61" s="477"/>
-      <c r="P61" s="479"/>
+      <c r="O61" s="478"/>
+      <c r="P61" s="499"/>
       <c r="Q61" s="164"/>
       <c r="R61" s="129"/>
       <c r="S61" s="92"/>
@@ -7033,7 +7042,7 @@
       <c r="B63" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="496"/>
+      <c r="C63" s="465"/>
       <c r="D63" s="163"/>
       <c r="E63" s="40">
         <f t="shared" si="2"/>
@@ -7041,7 +7050,7 @@
       </c>
       <c r="F63" s="151"/>
       <c r="G63" s="152"/>
-      <c r="H63" s="498"/>
+      <c r="H63" s="467"/>
       <c r="I63" s="151"/>
       <c r="J63" s="45">
         <f t="shared" si="0"/>
@@ -7070,7 +7079,7 @@
       <c r="B64" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="497"/>
+      <c r="C64" s="466"/>
       <c r="D64" s="168"/>
       <c r="E64" s="40">
         <f t="shared" si="2"/>
@@ -7078,7 +7087,7 @@
       </c>
       <c r="F64" s="151"/>
       <c r="G64" s="152"/>
-      <c r="H64" s="499"/>
+      <c r="H64" s="468"/>
       <c r="I64" s="151"/>
       <c r="J64" s="45">
         <f t="shared" si="0"/>
@@ -7256,8 +7265,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O68" s="488"/>
-      <c r="P68" s="494"/>
+      <c r="O68" s="469"/>
+      <c r="P68" s="463"/>
       <c r="Q68" s="164"/>
       <c r="R68" s="129"/>
       <c r="S68" s="180"/>
@@ -7291,8 +7300,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O69" s="489"/>
-      <c r="P69" s="495"/>
+      <c r="O69" s="470"/>
+      <c r="P69" s="464"/>
       <c r="Q69" s="164"/>
       <c r="R69" s="129"/>
       <c r="S69" s="180"/>
@@ -7782,8 +7791,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="488"/>
-      <c r="P82" s="490"/>
+      <c r="O82" s="469"/>
+      <c r="P82" s="483"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="129"/>
       <c r="S82" s="180"/>
@@ -7815,8 +7824,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O83" s="489"/>
-      <c r="P83" s="491"/>
+      <c r="O83" s="470"/>
+      <c r="P83" s="484"/>
       <c r="Q83" s="164"/>
       <c r="R83" s="129"/>
       <c r="S83" s="180"/>
@@ -7848,8 +7857,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O84" s="488"/>
-      <c r="P84" s="490"/>
+      <c r="O84" s="469"/>
+      <c r="P84" s="483"/>
       <c r="Q84" s="164"/>
       <c r="R84" s="158"/>
       <c r="S84" s="180"/>
@@ -7881,8 +7890,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O85" s="489"/>
-      <c r="P85" s="491"/>
+      <c r="O85" s="470"/>
+      <c r="P85" s="484"/>
       <c r="Q85" s="164"/>
       <c r="R85" s="158"/>
       <c r="S85" s="180"/>
@@ -8040,8 +8049,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="100"/>
-      <c r="L90" s="492"/>
-      <c r="M90" s="493"/>
+      <c r="L90" s="485"/>
+      <c r="M90" s="486"/>
       <c r="N90" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8073,8 +8082,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="100"/>
-      <c r="L91" s="492"/>
-      <c r="M91" s="493"/>
+      <c r="L91" s="485"/>
+      <c r="M91" s="486"/>
       <c r="N91" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8277,8 +8286,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="488"/>
-      <c r="P97" s="484"/>
+      <c r="O97" s="469"/>
+      <c r="P97" s="479"/>
       <c r="Q97" s="164"/>
       <c r="R97" s="129"/>
       <c r="S97" s="180"/>
@@ -8310,8 +8319,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="489"/>
-      <c r="P98" s="485"/>
+      <c r="O98" s="470"/>
+      <c r="P98" s="480"/>
       <c r="Q98" s="164"/>
       <c r="R98" s="129"/>
       <c r="S98" s="180"/>
@@ -13703,11 +13712,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="486" t="s">
+      <c r="F262" s="481" t="s">
         <v>26</v>
       </c>
-      <c r="G262" s="486"/>
-      <c r="H262" s="487"/>
+      <c r="G262" s="481"/>
+      <c r="H262" s="482"/>
       <c r="I262" s="317">
         <f>SUM(I4:I261)</f>
         <v>426245.47000000003</v>
@@ -14281,22 +14290,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="P68:P69"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="O58:O59"/>
-    <mergeCell ref="P97:P98"/>
-    <mergeCell ref="F262:H262"/>
-    <mergeCell ref="O82:O83"/>
-    <mergeCell ref="P82:P83"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="L90:M91"/>
-    <mergeCell ref="O97:O98"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="O3:P3"/>
@@ -14310,6 +14303,22 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="P58:P59"/>
+    <mergeCell ref="P97:P98"/>
+    <mergeCell ref="F262:H262"/>
+    <mergeCell ref="O82:O83"/>
+    <mergeCell ref="P82:P83"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="L90:M91"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P68:P69"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="O58:O59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14356,18 +14365,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="487" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -14383,22 +14392,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="464" t="s">
+      <c r="W1" s="488" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="465"/>
+      <c r="X1" s="489"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -14452,10 +14461,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="466" t="s">
+      <c r="O3" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="467"/>
+      <c r="P3" s="491"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -17097,7 +17106,7 @@
       <c r="B55" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="482" t="s">
+      <c r="C55" s="473" t="s">
         <v>160</v>
       </c>
       <c r="D55" s="150"/>
@@ -17108,7 +17117,7 @@
       <c r="G55" s="152">
         <v>44599</v>
       </c>
-      <c r="H55" s="498" t="s">
+      <c r="H55" s="467" t="s">
         <v>161</v>
       </c>
       <c r="I55" s="151">
@@ -17141,7 +17150,7 @@
       <c r="B56" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="483"/>
+      <c r="C56" s="474"/>
       <c r="D56" s="163"/>
       <c r="E56" s="40"/>
       <c r="F56" s="151">
@@ -17150,7 +17159,7 @@
       <c r="G56" s="152">
         <v>44599</v>
       </c>
-      <c r="H56" s="499"/>
+      <c r="H56" s="468"/>
       <c r="I56" s="151">
         <v>194.4</v>
       </c>
@@ -17196,7 +17205,7 @@
       <c r="G57" s="152">
         <v>44606</v>
       </c>
-      <c r="H57" s="498" t="s">
+      <c r="H57" s="467" t="s">
         <v>163</v>
       </c>
       <c r="I57" s="151">
@@ -17215,10 +17224,10 @@
         <f t="shared" si="1"/>
         <v>35776</v>
       </c>
-      <c r="O57" s="488" t="s">
+      <c r="O57" s="469" t="s">
         <v>59</v>
       </c>
-      <c r="P57" s="494">
+      <c r="P57" s="463">
         <v>44620</v>
       </c>
       <c r="Q57" s="164"/>
@@ -17242,7 +17251,7 @@
       <c r="G58" s="152">
         <v>44606</v>
       </c>
-      <c r="H58" s="499"/>
+      <c r="H58" s="468"/>
       <c r="I58" s="151">
         <v>627.60209999999995</v>
       </c>
@@ -17286,7 +17295,7 @@
       <c r="G59" s="152">
         <v>44613</v>
       </c>
-      <c r="H59" s="498" t="s">
+      <c r="H59" s="467" t="s">
         <v>228</v>
       </c>
       <c r="I59" s="151">
@@ -17330,7 +17339,7 @@
       <c r="E60" s="40"/>
       <c r="F60" s="151"/>
       <c r="G60" s="152"/>
-      <c r="H60" s="499"/>
+      <c r="H60" s="468"/>
       <c r="I60" s="151"/>
       <c r="J60" s="45">
         <f t="shared" si="0"/>
@@ -17993,8 +18002,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="490"/>
+      <c r="O79" s="469"/>
+      <c r="P79" s="483"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -18023,8 +18032,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="489"/>
-      <c r="P80" s="491"/>
+      <c r="O80" s="470"/>
+      <c r="P80" s="484"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -18053,8 +18062,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="488"/>
-      <c r="P81" s="490"/>
+      <c r="O81" s="469"/>
+      <c r="P81" s="483"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -18086,8 +18095,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="489"/>
-      <c r="P82" s="491"/>
+      <c r="O82" s="470"/>
+      <c r="P82" s="484"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -18245,8 +18254,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="492"/>
-      <c r="M87" s="493"/>
+      <c r="L87" s="485"/>
+      <c r="M87" s="486"/>
       <c r="N87" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18278,8 +18287,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="492"/>
-      <c r="M88" s="493"/>
+      <c r="L88" s="485"/>
+      <c r="M88" s="486"/>
       <c r="N88" s="77">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -18482,8 +18491,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="488"/>
-      <c r="P94" s="484"/>
+      <c r="O94" s="469"/>
+      <c r="P94" s="479"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -18515,8 +18524,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="489"/>
-      <c r="P95" s="485"/>
+      <c r="O95" s="470"/>
+      <c r="P95" s="480"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -23908,11 +23917,11 @@
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="486" t="s">
+      <c r="F259" s="481" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="486"/>
-      <c r="H259" s="487"/>
+      <c r="G259" s="481"/>
+      <c r="H259" s="482"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>387207.97210000001</v>
@@ -24486,6 +24495,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
     <mergeCell ref="O79:O80"/>
     <mergeCell ref="P79:P80"/>
     <mergeCell ref="A1:J2"/>
@@ -24501,12 +24516,6 @@
     <mergeCell ref="C55:C56"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="H55:H56"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24524,7 +24533,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="R22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -24553,18 +24562,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="487" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
+      <c r="B1" s="487"/>
+      <c r="C1" s="487"/>
+      <c r="D1" s="487"/>
+      <c r="E1" s="487"/>
+      <c r="F1" s="487"/>
+      <c r="G1" s="487"/>
+      <c r="H1" s="487"/>
+      <c r="I1" s="487"/>
+      <c r="J1" s="487"/>
       <c r="K1" s="375"/>
       <c r="L1" s="375"/>
       <c r="M1" s="375"/>
@@ -24580,22 +24589,22 @@
       <c r="V1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="464" t="s">
+      <c r="W1" s="488" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="465"/>
+      <c r="X1" s="489"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
+      <c r="A2" s="487"/>
+      <c r="B2" s="487"/>
+      <c r="C2" s="487"/>
+      <c r="D2" s="487"/>
+      <c r="E2" s="487"/>
+      <c r="F2" s="487"/>
+      <c r="G2" s="487"/>
+      <c r="H2" s="487"/>
+      <c r="I2" s="487"/>
+      <c r="J2" s="487"/>
       <c r="K2" s="377"/>
       <c r="L2" s="377"/>
       <c r="M2" s="377"/>
@@ -24649,10 +24658,10 @@
       <c r="N3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="466" t="s">
+      <c r="O3" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="467"/>
+      <c r="P3" s="491"/>
       <c r="Q3" s="30" t="s">
         <v>16</v>
       </c>
@@ -26397,11 +26406,15 @@
       <c r="B29" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="C29" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="60">
+        <v>47</v>
+      </c>
       <c r="E29" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1078180</v>
       </c>
       <c r="F29" s="61">
         <v>22940</v>
@@ -26458,8 +26471,12 @@
       <c r="B30" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="60"/>
+      <c r="C30" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D30" s="60">
+        <v>0</v>
+      </c>
       <c r="E30" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26519,11 +26536,15 @@
       <c r="B31" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="C31" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D31" s="60">
+        <v>47</v>
+      </c>
       <c r="E31" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1004860</v>
       </c>
       <c r="F31" s="61">
         <v>21380</v>
@@ -26580,8 +26601,12 @@
       <c r="B32" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="60">
+        <v>0</v>
+      </c>
       <c r="E32" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -26641,11 +26666,15 @@
       <c r="B33" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
+      <c r="C33" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D33" s="60">
+        <v>48</v>
+      </c>
       <c r="E33" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>996960</v>
       </c>
       <c r="F33" s="61">
         <v>20770</v>
@@ -26702,8 +26731,12 @@
       <c r="B34" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
+      <c r="C34" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="D34" s="60">
+        <v>0</v>
+      </c>
       <c r="E34" s="40">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -27568,7 +27601,7 @@
       <c r="B55" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="482" t="s">
+      <c r="C55" s="473" t="s">
         <v>232</v>
       </c>
       <c r="D55" s="439"/>
@@ -27598,10 +27631,10 @@
         <f t="shared" si="1"/>
         <v>18886.399999999998</v>
       </c>
-      <c r="O55" s="488" t="s">
+      <c r="O55" s="469" t="s">
         <v>59</v>
       </c>
-      <c r="P55" s="494">
+      <c r="P55" s="463">
         <v>44645</v>
       </c>
       <c r="Q55" s="128"/>
@@ -27616,7 +27649,7 @@
       <c r="B56" s="438" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="483"/>
+      <c r="C56" s="474"/>
       <c r="D56" s="440"/>
       <c r="E56" s="60"/>
       <c r="F56" s="151">
@@ -27642,8 +27675,8 @@
         <f t="shared" si="1"/>
         <v>92832</v>
       </c>
-      <c r="O56" s="489"/>
-      <c r="P56" s="495"/>
+      <c r="O56" s="470"/>
+      <c r="P56" s="464"/>
       <c r="Q56" s="164"/>
       <c r="R56" s="158"/>
       <c r="S56" s="92"/>
@@ -27850,10 +27883,10 @@
         <f t="shared" si="1"/>
         <v>7782.5999999999995</v>
       </c>
-      <c r="O62" s="488" t="s">
+      <c r="O62" s="469" t="s">
         <v>61</v>
       </c>
-      <c r="P62" s="494">
+      <c r="P62" s="463">
         <v>44643</v>
       </c>
       <c r="Q62" s="164"/>
@@ -27894,8 +27927,8 @@
         <f t="shared" si="1"/>
         <v>16998.400000000001</v>
       </c>
-      <c r="O63" s="489"/>
-      <c r="P63" s="495"/>
+      <c r="O63" s="470"/>
+      <c r="P63" s="464"/>
       <c r="Q63" s="164"/>
       <c r="R63" s="129"/>
       <c r="S63" s="92"/>
@@ -28374,8 +28407,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O79" s="488"/>
-      <c r="P79" s="490"/>
+      <c r="O79" s="469"/>
+      <c r="P79" s="483"/>
       <c r="Q79" s="164"/>
       <c r="R79" s="129"/>
       <c r="S79" s="180"/>
@@ -28404,8 +28437,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O80" s="489"/>
-      <c r="P80" s="491"/>
+      <c r="O80" s="470"/>
+      <c r="P80" s="484"/>
       <c r="Q80" s="164"/>
       <c r="R80" s="129"/>
       <c r="S80" s="180"/>
@@ -28434,8 +28467,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O81" s="488"/>
-      <c r="P81" s="490"/>
+      <c r="O81" s="469"/>
+      <c r="P81" s="483"/>
       <c r="Q81" s="164"/>
       <c r="R81" s="158"/>
       <c r="S81" s="180"/>
@@ -28467,8 +28500,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O82" s="489"/>
-      <c r="P82" s="491"/>
+      <c r="O82" s="470"/>
+      <c r="P82" s="484"/>
       <c r="Q82" s="164"/>
       <c r="R82" s="158"/>
       <c r="S82" s="180"/>
@@ -28626,8 +28659,8 @@
         <v>0</v>
       </c>
       <c r="K87" s="100"/>
-      <c r="L87" s="492"/>
-      <c r="M87" s="493"/>
+      <c r="L87" s="485"/>
+      <c r="M87" s="486"/>
       <c r="N87" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28659,8 +28692,8 @@
         <v>0</v>
       </c>
       <c r="K88" s="100"/>
-      <c r="L88" s="492"/>
-      <c r="M88" s="493"/>
+      <c r="L88" s="485"/>
+      <c r="M88" s="486"/>
       <c r="N88" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -28863,8 +28896,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O94" s="488"/>
-      <c r="P94" s="484"/>
+      <c r="O94" s="469"/>
+      <c r="P94" s="479"/>
       <c r="Q94" s="164"/>
       <c r="R94" s="129"/>
       <c r="S94" s="180"/>
@@ -28896,8 +28929,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O95" s="489"/>
-      <c r="P95" s="485"/>
+      <c r="O95" s="470"/>
+      <c r="P95" s="480"/>
       <c r="Q95" s="164"/>
       <c r="R95" s="129"/>
       <c r="S95" s="180"/>
@@ -34289,11 +34322,11 @@
         <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F259" s="486" t="s">
+      <c r="F259" s="481" t="s">
         <v>26</v>
       </c>
-      <c r="G259" s="486"/>
-      <c r="H259" s="487"/>
+      <c r="G259" s="481"/>
+      <c r="H259" s="482"/>
       <c r="I259" s="317">
         <f>SUM(I4:I258)</f>
         <v>515771.39999999997</v>
@@ -34867,13 +34900,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="F259:H259"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P79:P80"/>
-    <mergeCell ref="O81:O82"/>
-    <mergeCell ref="P81:P82"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="S1:T2"/>
     <mergeCell ref="W1:X1"/>
@@ -34889,6 +34915,13 @@
     <mergeCell ref="H62:H63"/>
     <mergeCell ref="O62:O63"/>
     <mergeCell ref="P62:P63"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="F259:H259"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P79:P80"/>
+    <mergeCell ref="O81:O82"/>
+    <mergeCell ref="P81:P82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
